--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF33DAC-B9EE-4545-A734-0F333091C5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFB9104-10A7-8245-8383-9D9BDD6EA329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="1420" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2195,7 +2195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2352,10 +2352,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2639,20 +2639,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="48.625" customWidth="1"/>
-    <col min="5" max="5" width="55.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2669,16 +2669,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>515</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>296</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>295</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>302</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>294</v>
       </c>
@@ -2767,16 +2767,16 @@
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
         <v>168</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="12" customFormat="1">
       <c r="A18" s="11" t="s">
         <v>270</v>
       </c>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>282</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
         <v>379</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18">
       <c r="A21" s="9" t="s">
         <v>374</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
         <v>381</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
         <v>377</v>
       </c>
@@ -2932,16 +2932,16 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:5" s="2" customFormat="1">
+      <c r="A24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="12" customFormat="1">
       <c r="A32" s="11" t="s">
         <v>124</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
         <v>145</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
         <v>288</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>266</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>276</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="12" t="s">
         <v>308</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
         <v>464</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>309</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>310</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="12" t="s">
         <v>462</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="12" t="s">
         <v>466</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>311</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
         <v>312</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
         <v>535</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
         <v>536</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
         <v>456</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
         <v>457</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
         <v>460</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
         <v>471</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
         <v>474</v>
       </c>
@@ -3256,40 +3256,40 @@
         <v>473</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="14"/>
       <c r="B59" s="15" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="12" t="s">
         <v>45</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
         <v>69</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
         <v>71</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>489</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>491</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="12" t="s">
         <v>261</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>487</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>318</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="12" t="s">
         <v>319</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
         <v>426</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
         <v>320</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>321</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="12" t="s">
         <v>322</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="23"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="22" t="s">
         <v>425</v>
       </c>
@@ -3439,16 +3439,16 @@
         <v>424</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
+    <row r="80" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A80" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>64</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>67</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -3495,15 +3495,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="12" t="s">
         <v>203</v>
       </c>
       <c r="B85" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>324</v>
       </c>
@@ -3511,48 +3511,48 @@
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="16">
       <c r="A87" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16">
+      <c r="A88" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16">
+      <c r="A89" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16">
+      <c r="A90" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="8" t="s">
         <v>60</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>207</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>227</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="8" t="s">
         <v>253</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
         <v>263</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
         <v>340</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>341</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="8" t="s">
         <v>342</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>343</v>
       </c>
@@ -3632,16 +3632,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="24" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="8" t="s">
         <v>433</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="8" t="s">
         <v>435</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="8" t="s">
         <v>437</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="8" t="s">
         <v>439</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="8" t="s">
         <v>441</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
         <v>443</v>
       </c>
@@ -3689,16 +3689,16 @@
         <v>442</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="24" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>75</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
         <v>85</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="8" t="s">
         <v>102</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="8" t="s">
         <v>201</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="8" t="s">
         <v>205</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="8" t="s">
         <v>209</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="8" t="s">
         <v>211</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>217</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" s="8" t="s">
         <v>240</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" s="8" t="s">
         <v>242</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="8" t="s">
         <v>273</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
         <v>280</v>
       </c>
@@ -3828,16 +3828,16 @@
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="24" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
         <v>250</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="8" t="s">
         <v>251</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
         <v>329</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
         <v>330</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="8" t="s">
         <v>449</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>176</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
         <v>263</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
         <v>453</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="8" t="s">
         <v>455</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" s="8" t="s">
         <v>481</v>
       </c>
@@ -3931,16 +3931,16 @@
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="24" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>54</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" s="8" t="s">
         <v>108</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
         <v>122</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" s="8" t="s">
         <v>193</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>195</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>335</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" s="8" t="s">
         <v>416</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>334</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>333</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
         <v>420</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
         <v>422</v>
       </c>
@@ -4034,16 +4034,16 @@
         <v>421</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="24" t="s">
+    <row r="148" spans="1:5">
+      <c r="A148" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" s="8" t="s">
         <v>297</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="8" t="s">
         <v>298</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>56</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>412</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>96</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="8" t="s">
         <v>409</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="8" t="s">
         <v>180</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>190</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>199</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="8" t="s">
         <v>219</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>220</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="8" t="s">
         <v>413</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="8" t="s">
         <v>414</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>291</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>484</v>
       </c>
@@ -4224,21 +4224,21 @@
         <v>485</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="24" t="s">
+    <row r="170" spans="1:5">
+      <c r="A170" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>81</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>87</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>94</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>112</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="8" t="s">
         <v>256</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>345</v>
       </c>
@@ -4292,16 +4292,16 @@
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="24" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B177" s="24"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="8" t="s">
         <v>178</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="8" t="s">
         <v>508</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" s="8" t="s">
         <v>348</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1">
       <c r="A182" t="s">
         <v>349</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
         <v>386</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1">
       <c r="A184" s="8" t="s">
         <v>390</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="18">
       <c r="A185" s="8" t="s">
         <v>326</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1">
       <c r="A186" s="8" t="s">
         <v>393</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1">
       <c r="A187" s="8" t="s">
         <v>395</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1">
       <c r="A188" s="8" t="s">
         <v>397</v>
       </c>
@@ -4401,16 +4401,16 @@
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="24" t="s">
+    <row r="189" spans="1:5">
+      <c r="A189" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B189" s="24"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="25"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="25"/>
+      <c r="E189" s="25"/>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>115</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>233</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="8" t="s">
         <v>279</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>351</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>506</v>
       </c>
@@ -4453,16 +4453,16 @@
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="24" t="s">
+    <row r="195" spans="1:5">
+      <c r="A195" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>120</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="8" t="s">
         <v>166</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>234</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="8" t="s">
         <v>235</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="8" t="s">
         <v>499</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="8" t="s">
         <v>407</v>
       </c>
@@ -4518,41 +4518,41 @@
         <v>408</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" s="8" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204" s="8" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="8" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="8" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="24" t="s">
+    <row r="208" spans="1:5">
+      <c r="A208" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B208" s="24"/>
-      <c r="C208" s="24"/>
-      <c r="D208" s="24"/>
-      <c r="E208" s="24"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>62</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" s="10" customFormat="1">
       <c r="A211" s="13" t="s">
         <v>73</v>
       </c>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E211" s="20"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>78</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>117</v>
       </c>
@@ -4597,16 +4597,16 @@
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="24" t="s">
+    <row r="214" spans="1:5">
+      <c r="A214" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24"/>
-      <c r="D214" s="24"/>
-      <c r="E214" s="24"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="25"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="25"/>
+      <c r="E214" s="25"/>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>476</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>478</v>
       </c>
@@ -4622,21 +4622,21 @@
         <v>479</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="24" t="s">
+    <row r="218" spans="1:5">
+      <c r="A218" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B218" s="24"/>
-      <c r="C218" s="24"/>
-      <c r="D218" s="24"/>
-      <c r="E218" s="24"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="25"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
         <v>144</v>
       </c>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>146</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>147</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
         <v>148</v>
       </c>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="8" t="s">
         <v>149</v>
       </c>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>150</v>
       </c>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" s="8" t="s">
         <v>151</v>
       </c>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" s="8" t="s">
         <v>152</v>
       </c>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" s="8" t="s">
         <v>153</v>
       </c>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="8" t="s">
         <v>154</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="8" t="s">
         <v>158</v>
       </c>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="8" t="s">
         <v>501</v>
       </c>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>159</v>
       </c>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" s="8" t="s">
         <v>160</v>
       </c>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>162</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="8" t="s">
         <v>188</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="8" t="s">
         <v>214</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>224</v>
       </c>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D237" s="3"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>225</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="8" t="s">
         <v>259</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="8" t="s">
         <v>265</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
         <v>503</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
         <v>357</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>358</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="8" t="s">
         <v>359</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
         <v>360</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>361</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>238</v>
       </c>
@@ -4884,24 +4884,24 @@
         <v>239</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E249" s="25"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="24" t="s">
+    <row r="249" spans="1:5">
+      <c r="E249" s="24"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B250" s="24"/>
-      <c r="C250" s="24"/>
-      <c r="D250" s="24"/>
-      <c r="E250" s="24"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B250" s="25"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="25"/>
+      <c r="E250" s="25"/>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>164</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>165</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" s="8" t="s">
         <v>277</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254" s="8" t="s">
         <v>362</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255" s="8" t="s">
         <v>467</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256" s="8" t="s">
         <v>468</v>
       </c>
@@ -4949,16 +4949,16 @@
         <v>469</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="24" t="s">
+    <row r="257" spans="1:5">
+      <c r="A257" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B257" s="24"/>
-      <c r="C257" s="24"/>
-      <c r="D257" s="24"/>
-      <c r="E257" s="24"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B257" s="25"/>
+      <c r="C257" s="25"/>
+      <c r="D257" s="25"/>
+      <c r="E257" s="25"/>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
         <v>173</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>364</v>
       </c>
@@ -4977,16 +4977,16 @@
         <v>363</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="24" t="s">
+    <row r="260" spans="1:5">
+      <c r="A260" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="B260" s="24"/>
-      <c r="C260" s="24"/>
-      <c r="D260" s="24"/>
-      <c r="E260" s="24"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B260" s="25"/>
+      <c r="C260" s="25"/>
+      <c r="D260" s="25"/>
+      <c r="E260" s="25"/>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>366</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>368</v>
       </c>
@@ -5008,16 +5008,16 @@
         <v>384</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="24" t="s">
+    <row r="263" spans="1:5">
+      <c r="A263" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B263" s="24"/>
-      <c r="C263" s="24"/>
-      <c r="D263" s="24"/>
-      <c r="E263" s="24"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="25"/>
+      <c r="E263" s="25"/>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="8" t="s">
         <v>429</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" s="8" t="s">
         <v>431</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266" s="8" t="s">
         <v>426</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267" s="8" t="s">
         <v>444</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>495</v>
       </c>
@@ -5059,6 +5059,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="A250:E250"/>
     <mergeCell ref="A260:E260"/>
     <mergeCell ref="A263:E263"/>
     <mergeCell ref="A102:E102"/>
@@ -5075,12 +5081,6 @@
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A177:E177"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="A218:E218"/>
-    <mergeCell ref="A250:E250"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFB9104-10A7-8245-8383-9D9BDD6EA329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA301AB-3609-E348-A127-367FFF72F891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1420" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="555">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2188,6 +2188,18 @@
   </si>
   <si>
     <t>要求用o(n)时间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转数组的最小数字：存在重复元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题用位运算可以做，不过时间复杂度不满足logn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2637,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3512,7 +3524,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="16">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="12" t="s">
         <v>404</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -3520,546 +3532,546 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="16">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16">
+      <c r="A89" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16">
-      <c r="A89" s="8" t="s">
+    <row r="90" spans="1:5" ht="16">
+      <c r="A90" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="16">
-      <c r="A90" s="8" t="s">
+      <c r="D90" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16">
+      <c r="A91" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="25" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="8" t="s">
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>176</v>
-      </c>
-      <c r="B93" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
         <v>227</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B96" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
         <v>341</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="8" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
         <v>343</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="25" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B103" t="s">
-        <v>432</v>
-      </c>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B104" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B106" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B107" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="25" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>36</v>
-      </c>
-      <c r="B110" t="s">
-        <v>37</v>
-      </c>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
         <v>75</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>76</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E113" s="17" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B113" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="8" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B114" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="8" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
-      </c>
-      <c r="D116" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="D117" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
         <v>217</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>218</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B120" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
-      </c>
-      <c r="D121" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="8" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>243</v>
+      </c>
+      <c r="D122" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B123" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="25" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B125" t="s">
-        <v>248</v>
-      </c>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B128" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
         <v>309</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>446</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="8" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
         <v>176</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B132" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
-        <v>453</v>
+        <v>263</v>
       </c>
       <c r="B133" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B134" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B135" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>482</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="25" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
         <v>54</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B138" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>287</v>
-      </c>
-      <c r="D139" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>195</v>
-      </c>
-      <c r="B141" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
         <v>335</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="8" t="s">
+    <row r="144" spans="1:5">
+      <c r="A144" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>334</v>
-      </c>
-      <c r="B144" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
+        <v>334</v>
+      </c>
+      <c r="B145" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
         <v>333</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>418</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B146" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B147" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="25" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
         <v>15</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>16</v>
-      </c>
-      <c r="C149" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B150" t="s">
-        <v>17</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
@@ -4067,21 +4079,21 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>26</v>
+      <c r="A152" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C152" t="s">
         <v>21</v>
@@ -4089,1002 +4101,1013 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
-      </c>
-      <c r="D153" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="C153" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D154" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>412</v>
+        <v>56</v>
       </c>
       <c r="B155" t="s">
-        <v>411</v>
+        <v>57</v>
+      </c>
+      <c r="D155" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
+        <v>412</v>
+      </c>
+      <c r="B156" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
         <v>96</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B157" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B158" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>184</v>
-      </c>
-      <c r="B159" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
-      </c>
-      <c r="D161" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162" t="s">
+        <v>191</v>
+      </c>
+      <c r="D162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
         <v>199</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="8" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
         <v>220</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B165" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B166" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>291</v>
-      </c>
-      <c r="B167" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>484</v>
+        <v>291</v>
       </c>
       <c r="B168" t="s">
-        <v>485</v>
+        <v>290</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
+        <v>484</v>
+      </c>
+      <c r="B169" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="25" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>81</v>
-      </c>
-      <c r="B171" t="s">
-        <v>82</v>
-      </c>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B172" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B173" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
+        <v>94</v>
+      </c>
+      <c r="B174" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
         <v>112</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="8" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>255</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
         <v>345</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>344</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="25" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
         <v>92</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="8" t="s">
-        <v>508</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>509</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B181" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A182" t="s">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A183" t="s">
         <v>349</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A183" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B183" t="s">
-        <v>387</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1">
       <c r="A184" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B184" t="s">
+        <v>387</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A185" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="18">
-      <c r="A185" s="8" t="s">
+    <row r="186" spans="1:5" ht="18">
+      <c r="A186" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>325</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>285</v>
       </c>
-      <c r="E185" s="19" t="s">
+      <c r="E186" s="19" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A186" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1">
       <c r="A188" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A189" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B189" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="25" t="s">
+    <row r="190" spans="1:5">
+      <c r="A190" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B189" s="25"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="25"/>
-      <c r="E189" s="25"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
-        <v>115</v>
-      </c>
-      <c r="B190" t="s">
-        <v>116</v>
-      </c>
+      <c r="B190" s="25"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="25"/>
+      <c r="E190" s="25"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
+        <v>115</v>
+      </c>
+      <c r="B191" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
         <v>233</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>232</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="8" t="s">
+    <row r="193" spans="1:5">
+      <c r="A193" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>351</v>
-      </c>
-      <c r="B193" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
+        <v>351</v>
+      </c>
+      <c r="B194" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
         <v>506</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="25" t="s">
+    <row r="196" spans="1:5">
+      <c r="A196" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B195" s="25"/>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
         <v>120</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="8" t="s">
+    <row r="198" spans="1:5">
+      <c r="A198" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
         <v>234</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="8" t="s">
+    <row r="200" spans="1:5">
+      <c r="A200" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
         <v>245</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B201" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="8" t="s">
-        <v>407</v>
+        <v>499</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="8" t="s">
-        <v>514</v>
+        <v>407</v>
+      </c>
+      <c r="B203" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="8" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="25" t="s">
+    <row r="209" spans="1:5">
+      <c r="A209" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>48</v>
-      </c>
-      <c r="B209" t="s">
-        <v>49</v>
-      </c>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="25"/>
+      <c r="E209" s="25"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
         <v>62</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="10" customFormat="1">
-      <c r="A211" s="13" t="s">
+    <row r="212" spans="1:5" s="10" customFormat="1">
+      <c r="A212" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B211" s="21" t="s">
+      <c r="B212" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21" t="s">
+      <c r="C212" s="21"/>
+      <c r="D212" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="E211" s="20"/>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>78</v>
-      </c>
-      <c r="B212" t="s">
-        <v>79</v>
-      </c>
+      <c r="E212" s="20"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
+        <v>78</v>
+      </c>
+      <c r="B213" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
         <v>117</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="25" t="s">
+    <row r="215" spans="1:5">
+      <c r="A215" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="B214" s="25"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="25"/>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>476</v>
-      </c>
-      <c r="B215" t="s">
-        <v>477</v>
-      </c>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="25"/>
+      <c r="E215" s="25"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B216" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
+        <v>478</v>
+      </c>
+      <c r="B217" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="25" t="s">
+    <row r="219" spans="1:5">
+      <c r="A219" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B218" s="25"/>
-      <c r="C218" s="25"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="25"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="8" t="s">
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>134</v>
-      </c>
-      <c r="D219" s="3"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>146</v>
-      </c>
-      <c r="B220" t="s">
-        <v>136</v>
       </c>
       <c r="D220" s="3"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
+        <v>146</v>
+      </c>
+      <c r="B221" t="s">
+        <v>136</v>
+      </c>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
         <v>147</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>493</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D222" s="7" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B222" t="s">
-        <v>137</v>
-      </c>
-      <c r="D222" s="3"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B223" t="s">
+        <v>137</v>
+      </c>
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>138</v>
       </c>
-      <c r="D223" s="3"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
         <v>150</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>139</v>
-      </c>
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B225" t="s">
-        <v>140</v>
       </c>
       <c r="D225" s="3"/>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B226" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D226" s="3"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B227" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D227" s="3"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B228" t="s">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D228" s="3"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B229" t="s">
-        <v>155</v>
-      </c>
-      <c r="D229" s="3"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B230" t="s">
+        <v>155</v>
+      </c>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>502</v>
       </c>
-      <c r="D230" s="3"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
         <v>159</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>156</v>
       </c>
-      <c r="D231" s="3"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="8" t="s">
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>157</v>
       </c>
-      <c r="D232" s="3"/>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
         <v>162</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B234" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B235" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
-        <v>216</v>
-      </c>
-      <c r="B236" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B237" t="s">
-        <v>222</v>
-      </c>
-      <c r="D237" s="3"/>
+        <v>215</v>
+      </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
+        <v>224</v>
+      </c>
+      <c r="B238" t="s">
+        <v>222</v>
+      </c>
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
         <v>225</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B239" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B240" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
-        <v>503</v>
+        <v>265</v>
       </c>
       <c r="B241" t="s">
-        <v>504</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B242" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" t="s">
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
         <v>358</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B244" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B245" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" t="s">
-        <v>361</v>
-      </c>
-      <c r="B246" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="B247" t="s">
-        <v>239</v>
+        <v>354</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
+        <v>238</v>
+      </c>
+      <c r="B248" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="E249" s="24"/>
-    </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="25" t="s">
+      <c r="E250" s="24"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B250" s="25"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" t="s">
-        <v>164</v>
-      </c>
-      <c r="B251" t="s">
-        <v>369</v>
-      </c>
+      <c r="B251" s="25"/>
+      <c r="C251" s="25"/>
+      <c r="D251" s="25"/>
+      <c r="E251" s="25"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
+        <v>164</v>
+      </c>
+      <c r="B252" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
         <v>165</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B253" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="8" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B254" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="8" t="s">
-        <v>467</v>
+        <v>362</v>
       </c>
       <c r="B255" t="s">
-        <v>470</v>
+        <v>372</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B256" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="25" t="s">
+    <row r="258" spans="1:5">
+      <c r="A258" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B257" s="25"/>
-      <c r="C257" s="25"/>
-      <c r="D257" s="25"/>
-      <c r="E257" s="25"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="8" t="s">
+      <c r="B258" s="25"/>
+      <c r="C258" s="25"/>
+      <c r="D258" s="25"/>
+      <c r="E258" s="25"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>174</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
         <v>364</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="25" t="s">
+    <row r="261" spans="1:5">
+      <c r="A261" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="B260" s="25"/>
-      <c r="C260" s="25"/>
-      <c r="D260" s="25"/>
-      <c r="E260" s="25"/>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
-        <v>366</v>
-      </c>
-      <c r="B261" t="s">
-        <v>365</v>
-      </c>
-      <c r="D261" t="s">
-        <v>385</v>
-      </c>
+      <c r="B261" s="25"/>
+      <c r="C261" s="25"/>
+      <c r="D261" s="25"/>
+      <c r="E261" s="25"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
+        <v>366</v>
+      </c>
+      <c r="B262" t="s">
+        <v>365</v>
+      </c>
+      <c r="D262" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
         <v>368</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>367</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D263" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="25" t="s">
+    <row r="264" spans="1:5">
+      <c r="A264" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="25"/>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B264" t="s">
-        <v>428</v>
-      </c>
+      <c r="B264" s="25"/>
+      <c r="C264" s="25"/>
+      <c r="D264" s="25"/>
+      <c r="E264" s="25"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B265" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="8" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B266" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B267" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
-      <c r="A268" t="s">
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
         <v>495</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>496</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A177:E177"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="A218:E218"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A260:E260"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A258:E258"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A219:E219"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="A261:E261"/>
+    <mergeCell ref="A264:E264"/>
+    <mergeCell ref="A103:E103"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A215:E215"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A171:E171"/>
     <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:E149"/>
     <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A125:E125"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D221" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D222" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA301AB-3609-E348-A127-367FFF72F891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF6EA0-380D-434E-9EE6-17EBFF262D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1420" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2652,7 +2652,7 @@
   <dimension ref="A1:E269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3559,7 +3559,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="16">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="12" t="s">
         <v>400</v>
       </c>
       <c r="B91" s="6" t="s">

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF6EA0-380D-434E-9EE6-17EBFF262D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1879D097-A621-4E99-A7B6-346D2A284920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1420" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="555">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>两端指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,9 +724,6 @@
   <si>
     <t>L134</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只出现一次的数字</t>
   </si>
   <si>
     <t>L138</t>
@@ -2202,12 +2195,20 @@
     <t>这道题用位运算可以做，不过时间复杂度不满足logn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>位运算或者哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2649,22 +2650,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="48.625" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -2681,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
@@ -2690,7 +2691,7 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2701,20 +2702,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" t="s">
         <v>515</v>
       </c>
-      <c r="B4" t="s">
-        <v>517</v>
-      </c>
       <c r="C4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2726,7 +2727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2737,12 +2738,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2751,920 +2752,920 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" t="s">
         <v>522</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C9" t="s">
-        <v>524</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>42</v>
+        <v>554</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
         <v>126</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" t="s">
+        <v>520</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C23" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>127</v>
       </c>
-      <c r="C14" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" t="s">
-        <v>524</v>
-      </c>
-      <c r="D17" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1">
-      <c r="A18" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>282</v>
-      </c>
-      <c r="B19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="B20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C20" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18">
-      <c r="A21" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B21" t="s">
-        <v>373</v>
-      </c>
-      <c r="C21" t="s">
-        <v>522</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C22" t="s">
-        <v>523</v>
-      </c>
-      <c r="D22" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="B23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
-      <c r="A24" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>289</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="12" customFormat="1">
-      <c r="A32" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="D39" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>247</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s">
         <v>529</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B44" t="s">
+        <v>461</v>
+      </c>
+      <c r="D44" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>276</v>
-      </c>
-      <c r="B41" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="12" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>308</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>303</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="B43" t="s">
-        <v>463</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B51" t="s">
+        <v>540</v>
+      </c>
+      <c r="C51" t="s">
+        <v>535</v>
+      </c>
+      <c r="D51" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>309</v>
-      </c>
-      <c r="B44" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>310</v>
-      </c>
-      <c r="B45" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D47" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>311</v>
-      </c>
-      <c r="B48" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B49" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="B50" t="s">
-        <v>542</v>
-      </c>
-      <c r="C50" t="s">
-        <v>537</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B52" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="12" t="s">
+      <c r="C52" t="s">
         <v>536</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D52" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="C51" t="s">
-        <v>538</v>
-      </c>
-      <c r="D51" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="12" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B52" s="12" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D56" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="12" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D55" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>24</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="12" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
         <v>45</v>
       </c>
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="12" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="12" t="s">
+      <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
         <v>83</v>
       </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s">
         <v>170</v>
       </c>
-      <c r="B67" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>231</v>
-      </c>
-      <c r="B68" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="D68" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>489</v>
+        <v>229</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B70" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="12" t="s">
-        <v>261</v>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>489</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="B72" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>485</v>
+      </c>
+      <c r="B73" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B74" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B75" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="12" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B76" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
+      <c r="B79" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="23"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>322</v>
+      </c>
+      <c r="B87" t="s">
         <v>321</v>
       </c>
-      <c r="B77" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="23"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="B79" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B85" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>324</v>
-      </c>
-      <c r="B86" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="16">
-      <c r="A87" s="12" t="s">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16">
-      <c r="A88" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="16">
-      <c r="A89" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="16">
-      <c r="A90" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D90" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="16">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>400</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="25" t="s">
+      <c r="D91" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="8" t="s">
+      <c r="B94" t="s">
         <v>60</v>
       </c>
-      <c r="B93" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>176</v>
-      </c>
-      <c r="B94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>227</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>225</v>
       </c>
       <c r="B97" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="8" t="s">
-        <v>263</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>339</v>
+      </c>
+      <c r="B99" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>341</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B101" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>343</v>
-      </c>
-      <c r="B102" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="25" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B103" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>433</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>435</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>437</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>439</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>441</v>
       </c>
@@ -3704,92 +3705,92 @@
         <v>440</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B109" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="25" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="D111" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>204</v>
+      </c>
+      <c r="D116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
-      </c>
-      <c r="D117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>209</v>
       </c>
@@ -3797,137 +3798,140 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="8" t="s">
-        <v>211</v>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>215</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="D119" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>218</v>
-      </c>
-      <c r="D120" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B121" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="D121" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
-      </c>
-      <c r="D122" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B124" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="8" t="s">
+      <c r="B126" t="s">
         <v>250</v>
       </c>
-      <c r="B126" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B128" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>307</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>309</v>
+        <v>444</v>
+      </c>
+      <c r="D129" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="B130" t="s">
         <v>446</v>
       </c>
-      <c r="D130" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="8" t="s">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" t="s">
         <v>449</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>176</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="B133" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>453</v>
       </c>
@@ -3935,113 +3939,113 @@
         <v>452</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="B135" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D135" t="s">
         <v>481</v>
       </c>
-      <c r="B136" t="s">
-        <v>482</v>
-      </c>
-      <c r="D136" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="25" t="s">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>53</v>
       </c>
-      <c r="B137" s="25"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
+      <c r="B137" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="B138" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="D139" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
-      </c>
-      <c r="D140" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>193</v>
       </c>
       <c r="B141" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>333</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>335</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="B143" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>332</v>
+      </c>
+      <c r="B144" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="8" t="s">
+      <c r="B145" t="s">
         <v>416</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D145" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>334</v>
-      </c>
-      <c r="B145" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>333</v>
-      </c>
-      <c r="B146" t="s">
-        <v>418</v>
-      </c>
-      <c r="D146" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>420</v>
       </c>
@@ -4049,587 +4053,587 @@
         <v>419</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B148" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="25" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>15</v>
       </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C151" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="8" t="s">
-        <v>298</v>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>26</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="D153" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D154" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>410</v>
       </c>
       <c r="B155" t="s">
-        <v>57</v>
-      </c>
-      <c r="D155" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>95</v>
+      </c>
+      <c r="B156" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B157" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>182</v>
+      </c>
+      <c r="B159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" t="s">
+        <v>189</v>
+      </c>
+      <c r="D161" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>197</v>
+      </c>
+      <c r="B162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B163" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>218</v>
+      </c>
+      <c r="B164" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B165" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B156" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>96</v>
-      </c>
-      <c r="B157" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B158" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B159" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>184</v>
-      </c>
-      <c r="B160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>187</v>
-      </c>
-      <c r="B161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>190</v>
-      </c>
-      <c r="B162" t="s">
-        <v>191</v>
-      </c>
-      <c r="D162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>199</v>
-      </c>
-      <c r="B163" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B164" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>220</v>
-      </c>
-      <c r="B165" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="8" t="s">
+      <c r="B166" t="s">
         <v>413</v>
       </c>
-      <c r="B166" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="8" t="s">
-        <v>414</v>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>289</v>
       </c>
       <c r="B167" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>291</v>
+        <v>482</v>
       </c>
       <c r="B168" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>484</v>
-      </c>
-      <c r="B169" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>80</v>
       </c>
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="25"/>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="B171" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B172" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B173" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B174" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" t="s">
         <v>112</v>
       </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="B175" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="D175" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>343</v>
       </c>
       <c r="B176" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="D176" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>91</v>
+      </c>
+      <c r="B178" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B180" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B181" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>347</v>
+      </c>
+      <c r="B182" t="s">
         <v>345</v>
       </c>
-      <c r="B177" t="s">
-        <v>344</v>
-      </c>
-      <c r="D177" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>92</v>
-      </c>
-      <c r="B179" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B181" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B182" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A183" t="s">
-        <v>349</v>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="B183" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1">
+        <v>385</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B184" t="s">
         <v>387</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1">
+    </row>
+    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B185" t="s">
+        <v>323</v>
+      </c>
+      <c r="D185" t="s">
+        <v>283</v>
+      </c>
+      <c r="E185" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B185" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="18">
-      <c r="A186" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B186" t="s">
-        <v>325</v>
-      </c>
-      <c r="D186" t="s">
-        <v>285</v>
-      </c>
-      <c r="E186" s="19" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1">
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A189" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B189" s="4" t="s">
+      <c r="D188" t="s">
         <v>396</v>
       </c>
-      <c r="D189" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="25" t="s">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B189" s="25"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="25"/>
+      <c r="E189" s="25"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>114</v>
       </c>
-      <c r="B190" s="25"/>
-      <c r="C190" s="25"/>
-      <c r="D190" s="25"/>
-      <c r="E190" s="25"/>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="B190" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="B191" t="s">
+        <v>230</v>
+      </c>
+      <c r="D191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B192" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>349</v>
+      </c>
+      <c r="B193" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>504</v>
+      </c>
+      <c r="B194" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>119</v>
+      </c>
+      <c r="B196" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B197" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>232</v>
+      </c>
+      <c r="B198" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B199" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>243</v>
+      </c>
+      <c r="B200" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B201" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>47</v>
+      </c>
+      <c r="B209" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>61</v>
+      </c>
+      <c r="B210" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E211" s="20"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>77</v>
+      </c>
+      <c r="B212" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
-        <v>233</v>
-      </c>
-      <c r="B192" t="s">
-        <v>232</v>
-      </c>
-      <c r="D192" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B193" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>351</v>
-      </c>
-      <c r="B194" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>506</v>
-      </c>
-      <c r="B195" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="25"/>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>120</v>
-      </c>
-      <c r="B197" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B198" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>234</v>
-      </c>
-      <c r="B199" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B200" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>245</v>
-      </c>
-      <c r="B201" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B202" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B203" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="8" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B209" s="25"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="25"/>
-      <c r="E209" s="25"/>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>48</v>
-      </c>
-      <c r="B210" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>62</v>
-      </c>
-      <c r="B211" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" s="10" customFormat="1">
-      <c r="A212" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B212" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C212" s="21"/>
-      <c r="D212" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="E212" s="20"/>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>78</v>
-      </c>
       <c r="B213" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
         <v>117</v>
       </c>
-      <c r="B214" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="25" t="s">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="B214" s="25"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="25"/>
+      <c r="E214" s="25"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>474</v>
+      </c>
+      <c r="B215" t="s">
         <v>475</v>
       </c>
-      <c r="B215" s="25"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="25"/>
-    </row>
-    <row r="216" spans="1:5">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>476</v>
       </c>
@@ -4637,58 +4641,59 @@
         <v>477</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>478</v>
-      </c>
-      <c r="B217" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B218" s="25"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B219" t="s">
         <v>133</v>
       </c>
-      <c r="B219" s="25"/>
-      <c r="C219" s="25"/>
-      <c r="D219" s="25"/>
-      <c r="E219" s="25"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="8" t="s">
-        <v>144</v>
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>145</v>
       </c>
       <c r="B220" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>146</v>
       </c>
       <c r="B221" t="s">
+        <v>491</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B222" t="s">
         <v>136</v>
       </c>
-      <c r="D221" s="3"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>147</v>
-      </c>
-      <c r="B222" t="s">
-        <v>493</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>148</v>
       </c>
@@ -4697,8 +4702,8 @@
       </c>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="8" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>149</v>
       </c>
       <c r="B224" t="s">
@@ -4706,8 +4711,8 @@
       </c>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B225" t="s">
@@ -4715,7 +4720,7 @@
       </c>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>151</v>
       </c>
@@ -4724,7 +4729,7 @@
       </c>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>152</v>
       </c>
@@ -4733,43 +4738,43 @@
       </c>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B228" t="s">
         <v>142</v>
       </c>
-      <c r="D228" s="3"/>
-    </row>
-    <row r="229" spans="1:4">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B229" t="s">
         <v>154</v>
       </c>
-      <c r="B229" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B230" t="s">
+        <v>500</v>
+      </c>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>158</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>155</v>
       </c>
-      <c r="D230" s="3"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="B231" t="s">
-        <v>502</v>
-      </c>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B232" t="s">
@@ -4777,239 +4782,241 @@
       </c>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="8" t="s">
-        <v>160</v>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>161</v>
       </c>
       <c r="B233" t="s">
-        <v>157</v>
-      </c>
-      <c r="D233" s="3"/>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
         <v>162</v>
       </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="B234" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B235" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>214</v>
       </c>
       <c r="B236" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B237" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>220</v>
+      </c>
+      <c r="D237" s="3"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B238" t="s">
-        <v>222</v>
-      </c>
-      <c r="D238" s="3"/>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="B239" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B240" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>265</v>
+        <v>501</v>
       </c>
       <c r="B241" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B242" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>356</v>
+      </c>
+      <c r="B243" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B244" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B245" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>359</v>
+      </c>
+      <c r="B246" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>236</v>
+      </c>
+      <c r="B247" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>503</v>
       </c>
-      <c r="B242" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B243" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" t="s">
-        <v>358</v>
-      </c>
-      <c r="B244" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B245" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B246" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
-        <v>361</v>
-      </c>
-      <c r="B247" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
-        <v>238</v>
-      </c>
-      <c r="B248" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="E250" s="24"/>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B251" s="25"/>
-      <c r="C251" s="25"/>
-      <c r="D251" s="25"/>
-      <c r="E251" s="25"/>
-    </row>
-    <row r="252" spans="1:5">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E249" s="24"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B250" s="25"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="25"/>
+      <c r="E250" s="25"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>163</v>
+      </c>
+      <c r="B251" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>164</v>
       </c>
       <c r="B252" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B253" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
-        <v>165</v>
-      </c>
-      <c r="B253" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B254" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B254" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B255" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B256" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B257" s="25"/>
+      <c r="C257" s="25"/>
+      <c r="D257" s="25"/>
+      <c r="E257" s="25"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B258" t="s">
+        <v>173</v>
+      </c>
+      <c r="D258" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>362</v>
       </c>
-      <c r="B255" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B256" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B257" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B258" s="25"/>
-      <c r="C258" s="25"/>
-      <c r="D258" s="25"/>
-      <c r="E258" s="25"/>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="B259" t="s">
-        <v>174</v>
-      </c>
-      <c r="D259" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B260" s="25"/>
+      <c r="C260" s="25"/>
+      <c r="D260" s="25"/>
+      <c r="E260" s="25"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>364</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="B261" s="25"/>
-      <c r="C261" s="25"/>
-      <c r="D261" s="25"/>
-      <c r="E261" s="25"/>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="D261" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>366</v>
       </c>
@@ -5017,30 +5024,27 @@
         <v>365</v>
       </c>
       <c r="D262" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" t="s">
-        <v>368</v>
-      </c>
-      <c r="B263" t="s">
-        <v>367</v>
-      </c>
-      <c r="D263" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B264" s="25"/>
-      <c r="C264" s="25"/>
-      <c r="D264" s="25"/>
-      <c r="E264" s="25"/>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="25"/>
+      <c r="E263" s="25"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B264" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
         <v>429</v>
       </c>
@@ -5048,66 +5052,58 @@
         <v>428</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B266" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="B267" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>493</v>
       </c>
       <c r="B268" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" t="s">
-        <v>495</v>
-      </c>
-      <c r="B269" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A258:E258"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="A219:E219"/>
-    <mergeCell ref="A251:E251"/>
-    <mergeCell ref="A261:E261"/>
-    <mergeCell ref="A264:E264"/>
-    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A260:E260"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A102:E102"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A214:E214"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A209:E209"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="A250:E250"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D222" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D221" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1879D097-A621-4E99-A7B6-346D2A284920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8C1CE-1997-4310-BFBB-B1CB2A792728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2652,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8C1CE-1997-4310-BFBB-B1CB2A792728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36358956-342B-4E52-8DAC-F814DAA416FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2334,7 +2334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2365,7 +2365,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2650,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2683,13 +2682,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2781,13 +2780,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2954,13 +2953,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -3302,13 +3301,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -3461,13 +3460,13 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -3576,13 +3575,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
@@ -3649,1461 +3648,1458 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
+      <c r="A102" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>431</v>
+      <c r="A103" t="s">
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>430</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
-        <v>433</v>
+      <c r="A104" t="s">
+        <v>231</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
+        <v>230</v>
+      </c>
+      <c r="D104" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>349</v>
+      </c>
+      <c r="B106" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>504</v>
+      </c>
+      <c r="B107" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B109" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B110" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B111" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B112" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B107" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B108" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>36</v>
-      </c>
-      <c r="B110" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>38</v>
-      </c>
-      <c r="B111" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>74</v>
-      </c>
-      <c r="B112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>84</v>
+        <v>439</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>101</v>
+        <v>441</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B115" t="s">
-        <v>200</v>
-      </c>
+      <c r="A115" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
-        <v>203</v>
+      <c r="A116" t="s">
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
-      </c>
-      <c r="D116" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
-        <v>207</v>
+      <c r="A117" t="s">
+        <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>39</v>
+      </c>
+      <c r="D117" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
-        <v>209</v>
+      <c r="A118" t="s">
+        <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>75</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>215</v>
+      <c r="A119" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
-      </c>
-      <c r="D119" t="s">
-        <v>478</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
-      </c>
-      <c r="D121" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="B122" t="s">
-        <v>270</v>
+        <v>204</v>
+      </c>
+      <c r="D122" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
+      <c r="A124" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="s">
-        <v>248</v>
+      <c r="A125" t="s">
+        <v>215</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>216</v>
+      </c>
+      <c r="D125" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="B127" t="s">
-        <v>325</v>
+        <v>241</v>
+      </c>
+      <c r="D127" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>307</v>
+      <c r="A129" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="B129" t="s">
-        <v>444</v>
-      </c>
-      <c r="D129" t="s">
-        <v>445</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B130" t="s">
-        <v>446</v>
-      </c>
+      <c r="A130" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>175</v>
+      <c r="A131" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="B131" t="s">
-        <v>449</v>
-      </c>
-      <c r="D131" t="s">
-        <v>553</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B132" t="s">
-        <v>448</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>451</v>
+        <v>327</v>
       </c>
       <c r="B133" t="s">
-        <v>450</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>453</v>
+        <v>328</v>
       </c>
       <c r="B134" t="s">
-        <v>452</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
-        <v>479</v>
+      <c r="A135" t="s">
+        <v>307</v>
       </c>
       <c r="B135" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="D135" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
+      <c r="A136" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B136" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="B137" t="s">
-        <v>54</v>
+        <v>449</v>
+      </c>
+      <c r="D137" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B138" t="s">
-        <v>108</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>121</v>
+        <v>451</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
-      </c>
-      <c r="D139" t="s">
-        <v>122</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>191</v>
+        <v>453</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>193</v>
+      <c r="A141" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>480</v>
+      </c>
+      <c r="D141" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>333</v>
-      </c>
-      <c r="B142" t="s">
-        <v>329</v>
-      </c>
+      <c r="A142" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
-        <v>414</v>
+      <c r="A143" t="s">
+        <v>80</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>332</v>
+        <v>86</v>
       </c>
       <c r="B144" t="s">
-        <v>330</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>331</v>
+        <v>93</v>
       </c>
       <c r="B145" t="s">
-        <v>416</v>
-      </c>
-      <c r="D145" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>418</v>
+      <c r="A146" t="s">
+        <v>111</v>
       </c>
       <c r="B146" t="s">
-        <v>417</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>420</v>
+        <v>254</v>
       </c>
       <c r="B147" t="s">
-        <v>419</v>
+        <v>253</v>
+      </c>
+      <c r="D147" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
+      <c r="A148" t="s">
+        <v>343</v>
+      </c>
+      <c r="B148" t="s">
+        <v>342</v>
+      </c>
+      <c r="D148" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149" t="s">
-        <v>21</v>
-      </c>
+      <c r="A149" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
-        <v>295</v>
+      <c r="A150" t="s">
+        <v>53</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
-      </c>
-      <c r="C151" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>26</v>
+      <c r="A152" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152" t="s">
-        <v>21</v>
+        <v>285</v>
+      </c>
+      <c r="D152" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>49</v>
+      <c r="A153" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B153" t="s">
-        <v>50</v>
-      </c>
-      <c r="D153" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="B154" t="s">
-        <v>56</v>
-      </c>
-      <c r="D154" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="B155" t="s">
-        <v>409</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>95</v>
+      <c r="A156" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="B156" t="s">
-        <v>96</v>
+        <v>415</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
-        <v>407</v>
+      <c r="A157" t="s">
+        <v>332</v>
       </c>
       <c r="B157" t="s">
-        <v>408</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
-        <v>178</v>
+      <c r="A158" t="s">
+        <v>331</v>
       </c>
       <c r="B158" t="s">
-        <v>179</v>
+        <v>416</v>
+      </c>
+      <c r="D158" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>182</v>
+      <c r="A159" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="B159" t="s">
-        <v>183</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>185</v>
+      <c r="A160" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>188</v>
-      </c>
-      <c r="B161" t="s">
-        <v>189</v>
-      </c>
-      <c r="D161" t="s">
-        <v>190</v>
-      </c>
+      <c r="A161" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>364</v>
       </c>
       <c r="B162" t="s">
-        <v>198</v>
+        <v>363</v>
+      </c>
+      <c r="D162" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
-        <v>217</v>
+      <c r="A163" t="s">
+        <v>366</v>
       </c>
       <c r="B163" t="s">
-        <v>219</v>
+        <v>365</v>
+      </c>
+      <c r="D163" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>218</v>
-      </c>
-      <c r="B164" t="s">
-        <v>484</v>
-      </c>
+      <c r="A164" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="8" t="s">
-        <v>411</v>
+      <c r="A165" t="s">
+        <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>421</v>
+        <v>16</v>
+      </c>
+      <c r="C165" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>412</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
-        <v>413</v>
+        <v>17</v>
+      </c>
+      <c r="C166" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>289</v>
+      <c r="A167" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="B167" t="s">
-        <v>288</v>
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>482</v>
+        <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>483</v>
+        <v>27</v>
+      </c>
+      <c r="C168" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>495</v>
+        <v>49</v>
+      </c>
+      <c r="B169" t="s">
+        <v>50</v>
+      </c>
+      <c r="D169" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
+      <c r="A170" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="B171" t="s">
-        <v>81</v>
+        <v>409</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B172" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>93</v>
+      <c r="A173" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="B173" t="s">
-        <v>94</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>111</v>
+      <c r="A174" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B174" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
-        <v>254</v>
+      <c r="A175" t="s">
+        <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>253</v>
-      </c>
-      <c r="D175" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>342</v>
-      </c>
-      <c r="D176" t="s">
-        <v>282</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177" t="s">
+        <v>189</v>
+      </c>
+      <c r="D177" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="B178" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="8" t="s">
-        <v>506</v>
+      <c r="A180" t="s">
+        <v>218</v>
       </c>
       <c r="B180" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="B181" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>347</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="B182" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="8" t="s">
-        <v>384</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>289</v>
       </c>
       <c r="B183" t="s">
-        <v>385</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8" t="s">
-        <v>388</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>482</v>
       </c>
       <c r="B184" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A185" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B185" t="s">
-        <v>323</v>
-      </c>
-      <c r="D185" t="s">
-        <v>283</v>
-      </c>
-      <c r="E185" s="19" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D188" t="s">
-        <v>396</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B187" t="s">
+        <v>133</v>
+      </c>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>145</v>
+      </c>
+      <c r="B188" t="s">
+        <v>135</v>
+      </c>
+      <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B189" s="25"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="25"/>
-      <c r="E189" s="25"/>
+      <c r="A189" t="s">
+        <v>146</v>
+      </c>
+      <c r="B189" t="s">
+        <v>491</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>114</v>
+      <c r="A190" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B190" t="s">
-        <v>115</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>231</v>
+      <c r="A191" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B191" t="s">
-        <v>230</v>
-      </c>
-      <c r="D191" t="s">
-        <v>381</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="8" t="s">
-        <v>277</v>
+      <c r="A192" t="s">
+        <v>149</v>
       </c>
       <c r="B192" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>349</v>
+        <v>138</v>
+      </c>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B193" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>504</v>
+        <v>139</v>
+      </c>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B194" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B195" s="25"/>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>119</v>
+        <v>140</v>
+      </c>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B195" t="s">
+        <v>141</v>
+      </c>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B196" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B197" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>232</v>
+        <v>154</v>
+      </c>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="B198" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="8" t="s">
-        <v>233</v>
+        <v>500</v>
+      </c>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>158</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>243</v>
+        <v>155</v>
+      </c>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B200" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="8" t="s">
-        <v>497</v>
+        <v>156</v>
+      </c>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>161</v>
       </c>
       <c r="B201" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>405</v>
+        <v>186</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="8" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="B203" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>214</v>
+      </c>
+      <c r="B204" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>222</v>
+      </c>
+      <c r="B205" t="s">
+        <v>220</v>
+      </c>
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>223</v>
+      </c>
+      <c r="B206" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
+        <v>257</v>
+      </c>
+      <c r="B207" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B208" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>47</v>
+      <c r="A209" s="8" t="s">
+        <v>501</v>
       </c>
       <c r="B209" t="s">
-        <v>48</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>61</v>
+      <c r="A210" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B211" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E211" s="20"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>356</v>
+      </c>
+      <c r="B211" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>77</v>
+      <c r="A212" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="B212" t="s">
-        <v>78</v>
+        <v>354</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>116</v>
+      <c r="A213" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>117</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="B214" s="25"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="25"/>
+      <c r="A214" t="s">
+        <v>359</v>
+      </c>
+      <c r="B214" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>474</v>
+        <v>236</v>
       </c>
       <c r="B215" t="s">
-        <v>475</v>
+        <v>237</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>476</v>
-      </c>
-      <c r="B216" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="A217" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="24"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B218" s="25"/>
-      <c r="C218" s="25"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="25"/>
+      <c r="B218" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B219" t="s">
-        <v>133</v>
-      </c>
-      <c r="D219" s="3"/>
+        <v>166</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="B220" t="s">
-        <v>135</v>
-      </c>
-      <c r="D220" s="3"/>
+        <v>234</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>146</v>
+      <c r="A221" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B221" t="s">
-        <v>491</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>492</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
-        <v>147</v>
+      <c r="A222" t="s">
+        <v>243</v>
       </c>
       <c r="B222" t="s">
-        <v>136</v>
-      </c>
-      <c r="D222" s="3"/>
+        <v>244</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>148</v>
+        <v>497</v>
       </c>
       <c r="B223" t="s">
-        <v>137</v>
-      </c>
-      <c r="D223" s="3"/>
+        <v>498</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>149</v>
+      <c r="A224" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="B224" t="s">
-        <v>138</v>
-      </c>
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B225" t="s">
-        <v>139</v>
-      </c>
-      <c r="D225" s="3"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B226" t="s">
-        <v>140</v>
-      </c>
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B227" t="s">
-        <v>141</v>
-      </c>
-      <c r="D227" s="3"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B228" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B229" t="s">
-        <v>154</v>
-      </c>
-      <c r="D229" s="3"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B230" t="s">
-        <v>500</v>
-      </c>
-      <c r="D230" s="3"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B230" s="24"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="24"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="B231" t="s">
-        <v>155</v>
-      </c>
-      <c r="D231" s="3"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
-        <v>159</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>61</v>
       </c>
       <c r="B232" t="s">
-        <v>156</v>
-      </c>
-      <c r="D232" s="3"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>161</v>
-      </c>
-      <c r="B233" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="8" t="s">
-        <v>186</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B233" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C233" s="21"/>
+      <c r="D233" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E233" s="20"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>77</v>
       </c>
       <c r="B234" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
-        <v>212</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>116</v>
       </c>
       <c r="B235" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>214</v>
-      </c>
-      <c r="B236" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B236" s="24"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>222</v>
+        <v>474</v>
       </c>
       <c r="B237" t="s">
-        <v>220</v>
-      </c>
-      <c r="D237" s="3"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>223</v>
+        <v>476</v>
       </c>
       <c r="B238" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B239" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B240" t="s">
-        <v>262</v>
-      </c>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B240" s="24"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="24"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="8" t="s">
-        <v>501</v>
+      <c r="A241" t="s">
+        <v>163</v>
       </c>
       <c r="B241" t="s">
-        <v>502</v>
+        <v>367</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="8" t="s">
-        <v>355</v>
+      <c r="A242" t="s">
+        <v>164</v>
       </c>
       <c r="B242" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>356</v>
+      <c r="A243" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B244" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>358</v>
+        <v>465</v>
       </c>
       <c r="B245" t="s">
-        <v>353</v>
+        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>359</v>
+      <c r="A246" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="B246" t="s">
-        <v>352</v>
+        <v>467</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>236</v>
-      </c>
-      <c r="B247" t="s">
-        <v>237</v>
-      </c>
+      <c r="A247" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B247" s="24"/>
+      <c r="C247" s="24"/>
+      <c r="D247" s="24"/>
+      <c r="E247" s="24"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>503</v>
+      <c r="A248" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B248" t="s">
+        <v>173</v>
+      </c>
+      <c r="D248" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E249" s="24"/>
+      <c r="A249" t="s">
+        <v>362</v>
+      </c>
+      <c r="B249" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B250" s="25"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
+      <c r="A250" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="24"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>163</v>
+      <c r="A251" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="B251" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>164</v>
+      <c r="A252" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="B252" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
-        <v>275</v>
+        <v>424</v>
       </c>
       <c r="B253" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="B254" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="8" t="s">
-        <v>465</v>
+      <c r="A255" t="s">
+        <v>493</v>
       </c>
       <c r="B255" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B256" t="s">
-        <v>467</v>
-      </c>
+      <c r="A256" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="24"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B257" s="25"/>
-      <c r="C257" s="25"/>
-      <c r="D257" s="25"/>
-      <c r="E257" s="25"/>
+      <c r="A257" t="s">
+        <v>91</v>
+      </c>
+      <c r="B257" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B258" t="s">
-        <v>173</v>
-      </c>
-      <c r="D258" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>362</v>
+      <c r="A259" s="8" t="s">
+        <v>506</v>
       </c>
       <c r="B259" t="s">
-        <v>361</v>
+        <v>507</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="B260" s="25"/>
-      <c r="C260" s="25"/>
-      <c r="D260" s="25"/>
-      <c r="E260" s="25"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B260" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B261" t="s">
-        <v>363</v>
-      </c>
-      <c r="D261" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>366</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="B262" t="s">
-        <v>365</v>
-      </c>
-      <c r="D262" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="25"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B263" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="B264" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="D264" t="s">
+        <v>283</v>
+      </c>
+      <c r="E264" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B265" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="B266" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="B267" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>493</v>
-      </c>
-      <c r="B268" t="s">
-        <v>494</v>
+        <v>395</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D267" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A260:E260"/>
-    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A256:E256"/>
     <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A217:E217"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A236:E236"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A149:E149"/>
     <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A142:E142"/>
     <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A164:E164"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A177:E177"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="A218:E218"/>
-    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A130:E130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D221" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D189" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36358956-342B-4E52-8DAC-F814DAA416FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6699A3A-5C5D-4F88-A974-19053D4E9C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2651,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
@@ -3657,444 +3657,443 @@
       <c r="E102" s="24"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>114</v>
+      <c r="A103" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>231</v>
+      <c r="A104" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
-      </c>
-      <c r="D104" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>277</v>
+        <v>435</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>349</v>
+      <c r="A106" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="B106" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>504</v>
+      <c r="A107" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="B107" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
+      <c r="A108" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B109" t="s">
-        <v>430</v>
-      </c>
+      <c r="A109" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
-        <v>433</v>
+      <c r="A110" t="s">
+        <v>36</v>
       </c>
       <c r="B110" t="s">
-        <v>432</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
-        <v>435</v>
+      <c r="A111" t="s">
+        <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>434</v>
+        <v>39</v>
+      </c>
+      <c r="D111" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
-        <v>437</v>
+      <c r="A112" t="s">
+        <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>436</v>
+        <v>75</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>439</v>
+        <v>84</v>
       </c>
       <c r="B113" t="s">
-        <v>438</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>441</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>440</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
+      <c r="A115" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B115" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>36</v>
+      <c r="A116" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>204</v>
+      </c>
+      <c r="D116" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>38</v>
+      <c r="A117" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
-      </c>
-      <c r="D117" t="s">
-        <v>40</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>74</v>
+      <c r="A118" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
-        <v>84</v>
+      <c r="A119" t="s">
+        <v>215</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>216</v>
+      </c>
+      <c r="D119" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>241</v>
+      </c>
+      <c r="D121" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
-      </c>
-      <c r="D122" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B124" t="s">
-        <v>210</v>
-      </c>
+      <c r="A124" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>215</v>
+      <c r="A125" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
-      </c>
-      <c r="D125" t="s">
-        <v>478</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
-      </c>
-      <c r="D127" t="s">
-        <v>242</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
-        <v>278</v>
+      <c r="A129" t="s">
+        <v>307</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>444</v>
+      </c>
+      <c r="D129" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
+      <c r="A130" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B130" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
-        <v>248</v>
+      <c r="A131" t="s">
+        <v>175</v>
       </c>
       <c r="B131" t="s">
-        <v>246</v>
+        <v>449</v>
+      </c>
+      <c r="D131" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="B133" t="s">
-        <v>325</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>328</v>
+        <v>453</v>
       </c>
       <c r="B134" t="s">
-        <v>326</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>307</v>
+      <c r="A135" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="B135" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D135" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B136" t="s">
-        <v>446</v>
-      </c>
+      <c r="A136" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="B137" t="s">
-        <v>449</v>
-      </c>
-      <c r="D137" t="s">
-        <v>553</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
-        <v>261</v>
+      <c r="A138" t="s">
+        <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>448</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>451</v>
+      <c r="A139" t="s">
+        <v>93</v>
       </c>
       <c r="B139" t="s">
-        <v>450</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
-        <v>453</v>
+      <c r="A140" t="s">
+        <v>111</v>
       </c>
       <c r="B140" t="s">
-        <v>452</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>479</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
-        <v>480</v>
+        <v>253</v>
       </c>
       <c r="D141" t="s">
-        <v>481</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
+      <c r="A142" t="s">
+        <v>343</v>
+      </c>
+      <c r="B142" t="s">
+        <v>342</v>
+      </c>
+      <c r="D142" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" t="s">
-        <v>81</v>
-      </c>
+      <c r="A143" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>93</v>
+      <c r="A145" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>111</v>
+      <c r="A146" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B146" t="s">
-        <v>112</v>
+        <v>285</v>
+      </c>
+      <c r="D146" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>253</v>
-      </c>
-      <c r="D147" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="B148" t="s">
-        <v>342</v>
-      </c>
-      <c r="D148" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
+      <c r="A149" t="s">
+        <v>333</v>
+      </c>
+      <c r="B149" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>53</v>
+      <c r="A150" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="B150" t="s">
-        <v>54</v>
+        <v>415</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
-        <v>107</v>
+      <c r="A151" t="s">
+        <v>332</v>
       </c>
       <c r="B151" t="s">
-        <v>108</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
-        <v>121</v>
+      <c r="A152" t="s">
+        <v>331</v>
       </c>
       <c r="B152" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
       <c r="D152" t="s">
         <v>122</v>
@@ -4102,652 +4101,655 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>191</v>
+        <v>418</v>
       </c>
       <c r="B153" t="s">
-        <v>192</v>
+        <v>417</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>193</v>
+      <c r="A154" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="B154" t="s">
-        <v>194</v>
+        <v>419</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>333</v>
-      </c>
-      <c r="B155" t="s">
-        <v>329</v>
-      </c>
+      <c r="A155" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
-        <v>414</v>
+      <c r="A156" t="s">
+        <v>364</v>
       </c>
       <c r="B156" t="s">
-        <v>415</v>
+        <v>363</v>
+      </c>
+      <c r="D156" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="B157" t="s">
-        <v>330</v>
+        <v>365</v>
+      </c>
+      <c r="D157" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>331</v>
-      </c>
-      <c r="B158" t="s">
-        <v>416</v>
-      </c>
-      <c r="D158" t="s">
-        <v>122</v>
-      </c>
+      <c r="A158" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
-        <v>418</v>
+      <c r="A159" t="s">
+        <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>417</v>
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="B160" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>364</v>
+        <v>26</v>
       </c>
       <c r="B162" t="s">
-        <v>363</v>
-      </c>
-      <c r="D162" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>366</v>
+        <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>365</v>
+        <v>50</v>
       </c>
       <c r="D163" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" s="24"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>55</v>
+      </c>
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="8" t="s">
-        <v>295</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>95</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
-      </c>
-      <c r="C166" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>26</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
-      </c>
-      <c r="C168" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="B169" t="s">
-        <v>50</v>
-      </c>
-      <c r="D169" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>56</v>
-      </c>
-      <c r="D170" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>410</v>
+        <v>188</v>
       </c>
       <c r="B171" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="D171" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="B172" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>407</v>
+        <v>217</v>
       </c>
       <c r="B173" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
-        <v>178</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>218</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>182</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>185</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>413</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="B177" t="s">
-        <v>189</v>
-      </c>
-      <c r="D177" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>197</v>
+        <v>482</v>
       </c>
       <c r="B178" t="s">
-        <v>198</v>
+        <v>483</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B179" t="s">
-        <v>219</v>
+      <c r="A179" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>218</v>
-      </c>
-      <c r="B180" t="s">
-        <v>484</v>
-      </c>
+      <c r="A180" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B180" s="24"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>411</v>
+        <v>143</v>
       </c>
       <c r="B181" t="s">
-        <v>421</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D181" s="3"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="8" t="s">
-        <v>412</v>
+      <c r="A182" t="s">
+        <v>145</v>
       </c>
       <c r="B182" t="s">
-        <v>413</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D182" s="3"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="B183" t="s">
-        <v>288</v>
+        <v>491</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>482</v>
+      <c r="A184" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B184" t="s">
-        <v>483</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>495</v>
-      </c>
+      <c r="A185" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B185" t="s">
+        <v>137</v>
+      </c>
+      <c r="D185" s="3"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
+      <c r="A186" t="s">
+        <v>149</v>
+      </c>
+      <c r="B186" t="s">
+        <v>138</v>
+      </c>
+      <c r="D186" s="3"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B187" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>145</v>
+      <c r="A188" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B188" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>146</v>
+      <c r="A189" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B189" t="s">
-        <v>491</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>492</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D189" s="3"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B190" t="s">
-        <v>136</v>
-      </c>
-      <c r="D190" s="3"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B191" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D191" s="3"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>149</v>
+      <c r="A192" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="B192" t="s">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="D192" s="3"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="8" t="s">
-        <v>150</v>
+      <c r="A193" t="s">
+        <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D193" s="3"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D194" s="3"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="8" t="s">
-        <v>152</v>
+      <c r="A195" t="s">
+        <v>161</v>
       </c>
       <c r="B195" t="s">
-        <v>141</v>
-      </c>
-      <c r="D195" s="3"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B196" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
-      </c>
-      <c r="D197" s="3"/>
+        <v>211</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="8" t="s">
-        <v>499</v>
+      <c r="A198" t="s">
+        <v>214</v>
       </c>
       <c r="B198" t="s">
-        <v>500</v>
-      </c>
-      <c r="D198" s="3"/>
+        <v>213</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="B199" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="D199" s="3"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="8" t="s">
-        <v>159</v>
+      <c r="A200" t="s">
+        <v>223</v>
       </c>
       <c r="B200" t="s">
-        <v>156</v>
-      </c>
-      <c r="D200" s="3"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>161</v>
+      <c r="A201" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="B201" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
-        <v>212</v>
+        <v>501</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>214</v>
+      <c r="A204" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>220</v>
-      </c>
-      <c r="D205" s="3"/>
+        <v>351</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>223</v>
+      <c r="A206" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="B206" t="s">
-        <v>221</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="B207" t="s">
-        <v>256</v>
+        <v>353</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="8" t="s">
-        <v>263</v>
+      <c r="A208" t="s">
+        <v>359</v>
       </c>
       <c r="B208" t="s">
-        <v>262</v>
+        <v>352</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="8" t="s">
-        <v>501</v>
+      <c r="A209" t="s">
+        <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>502</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B210" t="s">
-        <v>350</v>
+      <c r="A210" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>356</v>
-      </c>
-      <c r="B211" t="s">
-        <v>351</v>
-      </c>
+      <c r="A211" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B211" s="24"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="24"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="8" t="s">
-        <v>357</v>
+      <c r="A212" t="s">
+        <v>119</v>
       </c>
       <c r="B212" t="s">
-        <v>354</v>
+        <v>120</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
-        <v>358</v>
+        <v>165</v>
       </c>
       <c r="B213" t="s">
-        <v>353</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>359</v>
+        <v>232</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>236</v>
+      <c r="A215" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B215" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>503</v>
+        <v>243</v>
+      </c>
+      <c r="B216" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B217" s="24"/>
-      <c r="C217" s="24"/>
-      <c r="D217" s="24"/>
-      <c r="E217" s="24"/>
+      <c r="A217" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B217" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>119</v>
+      <c r="A218" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="B218" t="s">
-        <v>120</v>
+        <v>406</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B219" t="s">
-        <v>166</v>
+        <v>512</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>232</v>
-      </c>
-      <c r="B220" t="s">
-        <v>234</v>
+      <c r="A220" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B221" t="s">
-        <v>235</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>243</v>
-      </c>
-      <c r="B222" t="s">
-        <v>244</v>
+      <c r="A222" s="8" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B223" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B224" t="s">
-        <v>406</v>
-      </c>
+      <c r="A224" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B224" s="24"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="24"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
-        <v>512</v>
+      <c r="A225" t="s">
+        <v>47</v>
+      </c>
+      <c r="B225" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
-        <v>509</v>
-      </c>
+      <c r="A226" t="s">
+        <v>61</v>
+      </c>
+      <c r="B226" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B227" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E227" s="20"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
-        <v>510</v>
+      <c r="A228" t="s">
+        <v>77</v>
+      </c>
+      <c r="B228" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
-        <v>511</v>
+      <c r="A229" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="24" t="s">
-        <v>46</v>
+        <v>473</v>
       </c>
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
@@ -4756,167 +4758,162 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>47</v>
+        <v>474</v>
       </c>
       <c r="B231" t="s">
-        <v>48</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>61</v>
+        <v>476</v>
       </c>
       <c r="B232" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B233" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C233" s="21"/>
-      <c r="D233" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E233" s="20"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>77</v>
-      </c>
-      <c r="B234" t="s">
-        <v>78</v>
-      </c>
+      <c r="A234" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B234" s="24"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B235" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="B236" s="24"/>
-      <c r="C236" s="24"/>
-      <c r="D236" s="24"/>
-      <c r="E236" s="24"/>
+      <c r="A236" t="s">
+        <v>164</v>
+      </c>
+      <c r="B236" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>474</v>
+      <c r="A237" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="B237" t="s">
-        <v>475</v>
+        <v>369</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>476</v>
+      <c r="A238" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="B238" t="s">
-        <v>477</v>
+        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>119</v>
+      <c r="A239" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B239" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B240" s="24"/>
-      <c r="C240" s="24"/>
-      <c r="D240" s="24"/>
-      <c r="E240" s="24"/>
+      <c r="A240" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B240" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>163</v>
-      </c>
-      <c r="B241" t="s">
-        <v>367</v>
-      </c>
+      <c r="A241" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B241" s="24"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="24"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>164</v>
+      <c r="A242" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B242" t="s">
-        <v>368</v>
+        <v>173</v>
+      </c>
+      <c r="D242" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="8" t="s">
-        <v>275</v>
+      <c r="A243" t="s">
+        <v>362</v>
       </c>
       <c r="B243" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B244" t="s">
-        <v>370</v>
-      </c>
+      <c r="A244" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" s="24"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="24"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="B245" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="B246" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B247" s="24"/>
-      <c r="C247" s="24"/>
-      <c r="D247" s="24"/>
-      <c r="E247" s="24"/>
+      <c r="A247" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B247" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
-        <v>172</v>
+        <v>442</v>
       </c>
       <c r="B248" t="s">
-        <v>173</v>
-      </c>
-      <c r="D248" t="s">
-        <v>174</v>
+        <v>443</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>362</v>
+        <v>493</v>
       </c>
       <c r="B249" t="s">
-        <v>361</v>
+        <v>494</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="24" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B250" s="24"/>
       <c r="C250" s="24"/>
@@ -4924,43 +4921,46 @@
       <c r="E250" s="24"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="8" t="s">
-        <v>427</v>
+      <c r="A251" t="s">
+        <v>114</v>
       </c>
       <c r="B251" t="s">
-        <v>426</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="8" t="s">
-        <v>429</v>
+      <c r="A252" t="s">
+        <v>231</v>
       </c>
       <c r="B252" t="s">
-        <v>428</v>
+        <v>230</v>
+      </c>
+      <c r="D252" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="B253" t="s">
-        <v>425</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="8" t="s">
-        <v>442</v>
+      <c r="A254" t="s">
+        <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B255" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -5074,32 +5074,32 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A217:E217"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A236:E236"/>
+    <mergeCell ref="A230:E230"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="A143:E143"/>
     <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A136:E136"/>
     <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A158:E158"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A244:E244"/>
+    <mergeCell ref="A102:E102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D189" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D183" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6699A3A-5C5D-4F88-A974-19053D4E9C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE4D382-B59D-2341-AC72-5BDAEE91D498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1360" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1742,9 +1736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对角元素相等的矩阵</t>
-  </si>
-  <si>
     <t>L766</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2201,6 +2192,10 @@
   </si>
   <si>
     <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对角元素相等的矩阵--托普利茨矩阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2208,7 +2203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2651,20 +2646,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="48.625" customWidth="1"/>
-    <col min="5" max="5" width="55.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -2681,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
@@ -2690,7 +2685,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2701,18 +2696,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -2726,7 +2721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2737,12 +2732,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2751,7 +2746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -2759,36 +2754,36 @@
         <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>292</v>
       </c>
       <c r="B9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" t="s">
+        <v>521</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C9" t="s">
-        <v>522</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2796,10 +2791,10 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>291</v>
       </c>
@@ -2810,7 +2805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>290</v>
       </c>
@@ -2821,7 +2816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2829,10 +2824,10 @@
         <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
         <v>167</v>
       </c>
@@ -2840,10 +2835,10 @@
         <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>195</v>
       </c>
@@ -2851,10 +2846,10 @@
         <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -2862,13 +2857,13 @@
         <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D17" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1">
       <c r="A18" s="11" t="s">
         <v>268</v>
       </c>
@@ -2876,14 +2871,14 @@
         <v>269</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
         <v>338</v>
       </c>
@@ -2891,7 +2886,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>280</v>
       </c>
@@ -2899,10 +2894,10 @@
         <v>281</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
         <v>377</v>
       </c>
@@ -2910,10 +2905,10 @@
         <v>376</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18">
       <c r="A22" s="9" t="s">
         <v>372</v>
       </c>
@@ -2921,13 +2916,13 @@
         <v>371</v>
       </c>
       <c r="C22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
         <v>379</v>
       </c>
@@ -2935,13 +2930,13 @@
         <v>378</v>
       </c>
       <c r="C23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D23" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
         <v>375</v>
       </c>
@@ -2949,10 +2944,10 @@
         <v>374</v>
       </c>
       <c r="C24" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="24" t="s">
         <v>22</v>
       </c>
@@ -2961,7 +2956,7 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2975,7 +2970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>287</v>
       </c>
@@ -2989,7 +2984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -2997,10 +2992,10 @@
         <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -3008,7 +3003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -3016,7 +3011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -3024,7 +3019,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -3032,7 +3027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="12" customFormat="1">
       <c r="A33" s="11" t="s">
         <v>123</v>
       </c>
@@ -3041,11 +3036,11 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -3053,10 +3048,10 @@
         <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -3064,7 +3059,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
         <v>144</v>
       </c>
@@ -3072,10 +3067,10 @@
         <v>134</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -3083,7 +3078,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
         <v>286</v>
       </c>
@@ -3091,18 +3086,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>245</v>
       </c>
       <c r="B39" t="s">
+        <v>526</v>
+      </c>
+      <c r="D39" t="s">
         <v>527</v>
       </c>
-      <c r="D39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>226</v>
       </c>
@@ -3110,10 +3105,10 @@
         <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>264</v>
       </c>
@@ -3121,10 +3116,10 @@
         <v>265</v>
       </c>
       <c r="D41" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>274</v>
       </c>
@@ -3132,7 +3127,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
         <v>306</v>
       </c>
@@ -3140,21 +3135,21 @@
         <v>301</v>
       </c>
       <c r="D43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B44" t="s">
+        <v>460</v>
+      </c>
+      <c r="D44" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B44" t="s">
-        <v>461</v>
-      </c>
-      <c r="D44" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>307</v>
       </c>
@@ -3162,7 +3157,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -3170,26 +3165,26 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>309</v>
       </c>
@@ -3197,7 +3192,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
         <v>310</v>
       </c>
@@ -3205,102 +3200,102 @@
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B51" t="s">
+        <v>539</v>
+      </c>
+      <c r="C51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D51" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
+        <v>538</v>
+      </c>
+      <c r="C52" t="s">
+        <v>535</v>
+      </c>
+      <c r="D52" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C51" t="s">
-        <v>535</v>
-      </c>
-      <c r="D51" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="B52" t="s">
-        <v>539</v>
-      </c>
-      <c r="C52" t="s">
-        <v>536</v>
-      </c>
-      <c r="D52" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="B54" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B54" s="12" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="D56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="D56" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="14"/>
       <c r="B61" s="15" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="24" t="s">
         <v>23</v>
       </c>
@@ -3309,7 +3304,7 @@
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3317,7 +3312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
         <v>44</v>
       </c>
@@ -3325,7 +3320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3333,7 +3328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="12" t="s">
         <v>70</v>
       </c>
@@ -3341,7 +3336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3349,7 +3344,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -3357,10 +3352,10 @@
         <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -3368,23 +3363,23 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
+        <v>486</v>
+      </c>
+      <c r="B70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>488</v>
+      </c>
+      <c r="B71" t="s">
         <v>487</v>
       </c>
-      <c r="B70" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>489</v>
-      </c>
-      <c r="B71" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="12" t="s">
         <v>259</v>
       </c>
@@ -3392,15 +3387,15 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>484</v>
+      </c>
+      <c r="B73" t="s">
         <v>485</v>
       </c>
-      <c r="B73" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>316</v>
       </c>
@@ -3408,7 +3403,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
         <v>317</v>
       </c>
@@ -3416,7 +3411,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
         <v>424</v>
       </c>
@@ -3424,7 +3419,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="12" t="s">
         <v>318</v>
       </c>
@@ -3432,7 +3427,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>319</v>
       </c>
@@ -3440,7 +3435,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="12" t="s">
         <v>320</v>
       </c>
@@ -3451,7 +3446,7 @@
       <c r="D79" s="12"/>
       <c r="E79" s="23"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="22" t="s">
         <v>423</v>
       </c>
@@ -3459,7 +3454,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="24" t="s">
         <v>28</v>
       </c>
@@ -3468,7 +3463,7 @@
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -3482,7 +3477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -3493,7 +3488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -3504,7 +3499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -3515,7 +3510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="12" t="s">
         <v>201</v>
       </c>
@@ -3523,7 +3518,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>322</v>
       </c>
@@ -3531,7 +3526,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
         <v>402</v>
       </c>
@@ -3539,15 +3534,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" ht="16">
       <c r="A90" s="12" t="s">
         <v>404</v>
       </c>
@@ -3555,7 +3550,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="16">
       <c r="A91" s="12" t="s">
         <v>400</v>
       </c>
@@ -3563,10 +3558,10 @@
         <v>399</v>
       </c>
       <c r="D91" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
         <v>398</v>
       </c>
@@ -3574,7 +3569,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="24" t="s">
         <v>58</v>
       </c>
@@ -3583,7 +3578,7 @@
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
         <v>59</v>
       </c>
@@ -3591,7 +3586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -3599,7 +3594,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="12" t="s">
         <v>251</v>
       </c>
@@ -3607,7 +3602,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>225</v>
       </c>
@@ -3615,7 +3610,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="12" t="s">
         <v>261</v>
       </c>
@@ -3623,7 +3618,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>339</v>
       </c>
@@ -3631,7 +3626,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="12" t="s">
         <v>340</v>
       </c>
@@ -3639,7 +3634,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>341</v>
       </c>
@@ -3647,7 +3642,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="24" t="s">
         <v>19</v>
       </c>
@@ -3656,55 +3651,55 @@
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="12" t="s">
         <v>431</v>
       </c>
       <c r="B103" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="12" t="s">
         <v>433</v>
       </c>
       <c r="B104" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B105" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B106" t="s">
         <v>435</v>
       </c>
-      <c r="B105" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B107" t="s">
         <v>437</v>
       </c>
-      <c r="B106" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B108" t="s">
         <v>439</v>
       </c>
-      <c r="B107" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B108" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="24" t="s">
         <v>35</v>
       </c>
@@ -3713,7 +3708,7 @@
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -3721,7 +3716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -3735,7 +3730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -3746,7 +3741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
         <v>84</v>
       </c>
@@ -3754,7 +3749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="8" t="s">
         <v>101</v>
       </c>
@@ -3762,7 +3757,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="8" t="s">
         <v>199</v>
       </c>
@@ -3770,7 +3765,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="8" t="s">
         <v>203</v>
       </c>
@@ -3781,7 +3776,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="8" t="s">
         <v>207</v>
       </c>
@@ -3789,7 +3784,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="8" t="s">
         <v>209</v>
       </c>
@@ -3797,7 +3792,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>215</v>
       </c>
@@ -3805,10 +3800,10 @@
         <v>216</v>
       </c>
       <c r="D119" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="8" t="s">
         <v>238</v>
       </c>
@@ -3816,7 +3811,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" s="8" t="s">
         <v>240</v>
       </c>
@@ -3827,7 +3822,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="8" t="s">
         <v>271</v>
       </c>
@@ -3835,7 +3830,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
         <v>278</v>
       </c>
@@ -3843,7 +3838,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" s="24" t="s">
         <v>247</v>
       </c>
@@ -3852,7 +3847,7 @@
       <c r="D124" s="24"/>
       <c r="E124" s="24"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
         <v>248</v>
       </c>
@@ -3860,7 +3855,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="8" t="s">
         <v>249</v>
       </c>
@@ -3868,7 +3863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
         <v>327</v>
       </c>
@@ -3876,7 +3871,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
         <v>328</v>
       </c>
@@ -3884,72 +3879,72 @@
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>307</v>
       </c>
       <c r="B129" t="s">
+        <v>443</v>
+      </c>
+      <c r="D129" t="s">
         <v>444</v>
       </c>
-      <c r="D129" t="s">
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B130" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B130" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>175</v>
       </c>
       <c r="B131" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D131" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B133" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B134" t="s">
         <v>451</v>
       </c>
-      <c r="B133" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B134" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B135" t="s">
         <v>479</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>480</v>
       </c>
-      <c r="D135" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="24" t="s">
         <v>79</v>
       </c>
@@ -3958,7 +3953,7 @@
       <c r="D136" s="24"/>
       <c r="E136" s="24"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>80</v>
       </c>
@@ -3966,7 +3961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>86</v>
       </c>
@@ -3974,7 +3969,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>93</v>
       </c>
@@ -3982,7 +3977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -3990,7 +3985,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" s="8" t="s">
         <v>254</v>
       </c>
@@ -4001,7 +3996,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>343</v>
       </c>
@@ -4012,7 +4007,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" s="24" t="s">
         <v>52</v>
       </c>
@@ -4021,7 +4016,7 @@
       <c r="D143" s="24"/>
       <c r="E143" s="24"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -4029,7 +4024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="8" t="s">
         <v>107</v>
       </c>
@@ -4037,7 +4032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
         <v>121</v>
       </c>
@@ -4048,7 +4043,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
         <v>191</v>
       </c>
@@ -4056,7 +4051,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>193</v>
       </c>
@@ -4064,7 +4059,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>333</v>
       </c>
@@ -4072,7 +4067,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" s="8" t="s">
         <v>414</v>
       </c>
@@ -4080,7 +4075,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -4088,7 +4083,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>331</v>
       </c>
@@ -4099,7 +4094,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
         <v>418</v>
       </c>
@@ -4107,7 +4102,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="8" t="s">
         <v>420</v>
       </c>
@@ -4115,7 +4110,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="24" t="s">
         <v>272</v>
       </c>
@@ -4124,7 +4119,7 @@
       <c r="D155" s="24"/>
       <c r="E155" s="24"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>364</v>
       </c>
@@ -4135,7 +4130,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>366</v>
       </c>
@@ -4146,7 +4141,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="24" t="s">
         <v>21</v>
       </c>
@@ -4155,7 +4150,7 @@
       <c r="D158" s="24"/>
       <c r="E158" s="24"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -4166,7 +4161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
         <v>295</v>
       </c>
@@ -4177,7 +4172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" s="8" t="s">
         <v>296</v>
       </c>
@@ -4188,7 +4183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>26</v>
       </c>
@@ -4199,7 +4194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>49</v>
       </c>
@@ -4210,7 +4205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>55</v>
       </c>
@@ -4221,7 +4216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>410</v>
       </c>
@@ -4229,7 +4224,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>95</v>
       </c>
@@ -4237,7 +4232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" s="8" t="s">
         <v>407</v>
       </c>
@@ -4245,7 +4240,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="8" t="s">
         <v>178</v>
       </c>
@@ -4253,7 +4248,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -4261,7 +4256,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>185</v>
       </c>
@@ -4269,7 +4264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -4280,7 +4275,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>197</v>
       </c>
@@ -4288,7 +4283,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" s="8" t="s">
         <v>217</v>
       </c>
@@ -4296,15 +4291,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>218</v>
       </c>
       <c r="B174" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="8" t="s">
         <v>411</v>
       </c>
@@ -4312,7 +4307,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" s="8" t="s">
         <v>412</v>
       </c>
@@ -4320,7 +4315,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>289</v>
       </c>
@@ -4328,20 +4323,20 @@
         <v>288</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
+        <v>481</v>
+      </c>
+      <c r="B178" t="s">
         <v>482</v>
       </c>
-      <c r="B178" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="24" t="s">
         <v>132</v>
       </c>
@@ -4350,7 +4345,7 @@
       <c r="D180" s="24"/>
       <c r="E180" s="24"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" s="8" t="s">
         <v>143</v>
       </c>
@@ -4359,7 +4354,7 @@
       </c>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>145</v>
       </c>
@@ -4368,18 +4363,18 @@
       </c>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>146</v>
       </c>
       <c r="B183" t="s">
+        <v>490</v>
+      </c>
+      <c r="D183" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D183" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
         <v>147</v>
       </c>
@@ -4388,7 +4383,7 @@
       </c>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="8" t="s">
         <v>148</v>
       </c>
@@ -4397,7 +4392,7 @@
       </c>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>149</v>
       </c>
@@ -4406,7 +4401,7 @@
       </c>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="8" t="s">
         <v>150</v>
       </c>
@@ -4415,7 +4410,7 @@
       </c>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="8" t="s">
         <v>151</v>
       </c>
@@ -4424,7 +4419,7 @@
       </c>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
         <v>152</v>
       </c>
@@ -4433,7 +4428,7 @@
       </c>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
         <v>153</v>
       </c>
@@ -4441,7 +4436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
         <v>157</v>
       </c>
@@ -4450,16 +4445,16 @@
       </c>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B192" t="s">
         <v>499</v>
       </c>
-      <c r="B192" t="s">
-        <v>500</v>
-      </c>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>158</v>
       </c>
@@ -4468,7 +4463,7 @@
       </c>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" s="8" t="s">
         <v>159</v>
       </c>
@@ -4477,7 +4472,7 @@
       </c>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>161</v>
       </c>
@@ -4485,7 +4480,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" s="8" t="s">
         <v>186</v>
       </c>
@@ -4493,7 +4488,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" s="8" t="s">
         <v>212</v>
       </c>
@@ -4501,7 +4496,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -4509,7 +4504,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -4518,7 +4513,7 @@
       </c>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -4526,7 +4521,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" s="8" t="s">
         <v>257</v>
       </c>
@@ -4534,7 +4529,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" s="8" t="s">
         <v>263</v>
       </c>
@@ -4542,15 +4537,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B203" t="s">
         <v>501</v>
       </c>
-      <c r="B203" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="8" t="s">
         <v>355</v>
       </c>
@@ -4558,7 +4553,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>356</v>
       </c>
@@ -4566,7 +4561,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" s="8" t="s">
         <v>357</v>
       </c>
@@ -4574,7 +4569,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" s="8" t="s">
         <v>358</v>
       </c>
@@ -4582,7 +4577,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>359</v>
       </c>
@@ -4590,7 +4585,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>236</v>
       </c>
@@ -4598,12 +4593,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="24" t="s">
         <v>118</v>
       </c>
@@ -4612,7 +4607,7 @@
       <c r="D211" s="24"/>
       <c r="E211" s="24"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>119</v>
       </c>
@@ -4620,7 +4615,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" s="8" t="s">
         <v>165</v>
       </c>
@@ -4628,7 +4623,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>232</v>
       </c>
@@ -4636,7 +4631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" s="8" t="s">
         <v>233</v>
       </c>
@@ -4644,7 +4639,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>243</v>
       </c>
@@ -4652,15 +4647,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B217" t="s">
         <v>497</v>
       </c>
-      <c r="B217" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
         <v>405</v>
       </c>
@@ -4668,32 +4663,32 @@
         <v>406</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
+    <row r="222" spans="1:5">
+      <c r="A222" s="8" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
+    <row r="223" spans="1:5">
+      <c r="A223" s="8" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="24" t="s">
         <v>46</v>
       </c>
@@ -4702,7 +4697,7 @@
       <c r="D224" s="24"/>
       <c r="E224" s="24"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>47</v>
       </c>
@@ -4710,7 +4705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>61</v>
       </c>
@@ -4718,7 +4713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" s="10" customFormat="1">
       <c r="A227" s="13" t="s">
         <v>72</v>
       </c>
@@ -4727,11 +4722,11 @@
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E227" s="20"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>77</v>
       </c>
@@ -4739,7 +4734,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>116</v>
       </c>
@@ -4747,37 +4742,37 @@
         <v>117</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
       <c r="D230" s="24"/>
       <c r="E230" s="24"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
+        <v>473</v>
+      </c>
+      <c r="B231" t="s">
         <v>474</v>
       </c>
-      <c r="B231" t="s">
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="B232" t="s">
         <v>476</v>
       </c>
-      <c r="B232" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="24" t="s">
         <v>160</v>
       </c>
@@ -4786,7 +4781,7 @@
       <c r="D234" s="24"/>
       <c r="E234" s="24"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>163</v>
       </c>
@@ -4794,7 +4789,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>164</v>
       </c>
@@ -4802,7 +4797,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" s="8" t="s">
         <v>275</v>
       </c>
@@ -4810,7 +4805,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
         <v>360</v>
       </c>
@@ -4818,23 +4813,23 @@
         <v>370</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B239" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B239" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
+      <c r="B240" t="s">
         <v>466</v>
       </c>
-      <c r="B240" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="24" t="s">
         <v>171</v>
       </c>
@@ -4843,7 +4838,7 @@
       <c r="D241" s="24"/>
       <c r="E241" s="24"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
         <v>172</v>
       </c>
@@ -4854,7 +4849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>362</v>
       </c>
@@ -4862,7 +4857,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="24" t="s">
         <v>20</v>
       </c>
@@ -4871,7 +4866,7 @@
       <c r="D244" s="24"/>
       <c r="E244" s="24"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
         <v>427</v>
       </c>
@@ -4879,7 +4874,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
         <v>429</v>
       </c>
@@ -4887,7 +4882,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
         <v>424</v>
       </c>
@@ -4895,23 +4890,23 @@
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B248" t="s">
         <v>442</v>
       </c>
-      <c r="B248" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
+        <v>492</v>
+      </c>
+      <c r="B249" t="s">
         <v>493</v>
       </c>
-      <c r="B249" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="24" t="s">
         <v>113</v>
       </c>
@@ -4920,7 +4915,7 @@
       <c r="D250" s="24"/>
       <c r="E250" s="24"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>114</v>
       </c>
@@ -4928,7 +4923,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>231</v>
       </c>
@@ -4939,7 +4934,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" s="8" t="s">
         <v>277</v>
       </c>
@@ -4947,7 +4942,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>349</v>
       </c>
@@ -4955,15 +4950,15 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255" t="s">
         <v>504</v>
       </c>
-      <c r="B255" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="24" t="s">
         <v>90</v>
       </c>
@@ -4972,7 +4967,7 @@
       <c r="D256" s="24"/>
       <c r="E256" s="24"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -4980,7 +4975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
         <v>177</v>
       </c>
@@ -4988,15 +4983,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B259" t="s">
         <v>506</v>
       </c>
-      <c r="B259" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
         <v>346</v>
       </c>
@@ -5004,7 +4999,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1">
       <c r="A261" t="s">
         <v>347</v>
       </c>
@@ -5012,7 +5007,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" s="8" t="s">
         <v>384</v>
       </c>
@@ -5023,7 +5018,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1">
       <c r="A263" s="8" t="s">
         <v>388</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="18">
       <c r="A264" s="8" t="s">
         <v>324</v>
       </c>
@@ -5045,7 +5040,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1">
       <c r="A265" s="8" t="s">
         <v>391</v>
       </c>
@@ -5053,7 +5048,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="8" t="s">
         <v>393</v>
       </c>
@@ -5061,7 +5056,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1">
       <c r="A267" s="8" t="s">
         <v>395</v>
       </c>
@@ -5074,6 +5069,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A244:E244"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A230:E230"/>
@@ -5087,14 +5089,7 @@
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A234:E234"/>
     <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A244:E244"/>
     <mergeCell ref="A102:E102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE4D382-B59D-2341-AC72-5BDAEE91D498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C982E02-0216-084C-8EE0-D04A58AC574F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1360" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="557">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2196,6 +2196,14 @@
   </si>
   <si>
     <t>对角元素相等的矩阵--托普利茨矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个哈希表，分别存元素的次数，元素起始索引，元素终止索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让前 k+1 个元素构建出 k 个不相同的差值，序列为：1 k+1 2 k 3 k-1 ... k/2 k/2+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2644,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3643,519 +3651,527 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
+      <c r="A102" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B102" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B103" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
+        <v>437</v>
+      </c>
+      <c r="D104" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B105" t="s">
-        <v>554</v>
+        <v>435</v>
+      </c>
+      <c r="D105" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="8" t="s">
-        <v>436</v>
+      <c r="A106" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="B106" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B107" t="s">
-        <v>437</v>
-      </c>
+      <c r="A107" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="B108" t="s">
-        <v>439</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
+      <c r="A109" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B109" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>36</v>
+      <c r="A110" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>38</v>
+      <c r="A111" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>76</v>
+        <v>443</v>
+      </c>
+      <c r="D112" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="8" t="s">
-        <v>84</v>
+        <v>446</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="8" t="s">
-        <v>101</v>
+      <c r="A114" t="s">
+        <v>175</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>448</v>
+      </c>
+      <c r="D114" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="8" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>447</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="8" t="s">
-        <v>203</v>
+        <v>450</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
-      </c>
-      <c r="D116" t="s">
-        <v>131</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="8" t="s">
-        <v>207</v>
+        <v>452</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="8" t="s">
-        <v>209</v>
+        <v>478</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>479</v>
+      </c>
+      <c r="D118" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>215</v>
-      </c>
-      <c r="B119" t="s">
-        <v>216</v>
-      </c>
-      <c r="D119" t="s">
-        <v>477</v>
-      </c>
+      <c r="A119" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="8" t="s">
-        <v>238</v>
+      <c r="A120" t="s">
+        <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="8" t="s">
-        <v>240</v>
+      <c r="A121" t="s">
+        <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
-        <v>242</v>
+        <v>40</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="8" t="s">
-        <v>271</v>
+      <c r="A122" t="s">
+        <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>270</v>
+        <v>75</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="8" t="s">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
+      <c r="A124" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="8" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>204</v>
+      </c>
+      <c r="D126" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="B127" t="s">
-        <v>325</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
       <c r="B128" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="B129" t="s">
-        <v>443</v>
+        <v>216</v>
       </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="8" t="s">
-        <v>446</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
-        <v>445</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>175</v>
+      <c r="A131" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B131" t="s">
-        <v>448</v>
+        <v>241</v>
       </c>
       <c r="D131" t="s">
-        <v>552</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>447</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="B133" t="s">
-        <v>449</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B134" t="s">
-        <v>451</v>
-      </c>
+      <c r="A134" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="8" t="s">
-        <v>478</v>
+      <c r="A135" t="s">
+        <v>80</v>
       </c>
       <c r="B135" t="s">
-        <v>479</v>
-      </c>
-      <c r="D135" t="s">
-        <v>480</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
+      <c r="A136" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B137" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B138" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>93</v>
+      <c r="A139" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="B139" t="s">
-        <v>94</v>
+        <v>253</v>
+      </c>
+      <c r="D139" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>111</v>
+        <v>343</v>
       </c>
       <c r="B140" t="s">
-        <v>112</v>
+        <v>342</v>
+      </c>
+      <c r="D140" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="8" t="s">
-        <v>254</v>
+      <c r="A141" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="B141" t="s">
-        <v>253</v>
-      </c>
-      <c r="D141" t="s">
-        <v>255</v>
+        <v>554</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>343</v>
-      </c>
-      <c r="B142" t="s">
-        <v>342</v>
-      </c>
-      <c r="D142" t="s">
-        <v>282</v>
-      </c>
+      <c r="A142" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
+      <c r="A143" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>53</v>
+      <c r="A144" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B144" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="8" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B145" t="s">
-        <v>108</v>
+        <v>285</v>
+      </c>
+      <c r="D145" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
-      </c>
-      <c r="D146" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="8" t="s">
-        <v>191</v>
+      <c r="A147" t="s">
+        <v>193</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>333</v>
+      <c r="A149" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="B149" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="8" t="s">
-        <v>414</v>
+      <c r="A150" t="s">
+        <v>332</v>
       </c>
       <c r="B150" t="s">
-        <v>415</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B151" t="s">
-        <v>330</v>
+        <v>416</v>
+      </c>
+      <c r="D151" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>331</v>
+      <c r="A152" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="B152" t="s">
-        <v>416</v>
-      </c>
-      <c r="D152" t="s">
-        <v>122</v>
+        <v>417</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B153" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B154" t="s">
-        <v>419</v>
-      </c>
+      <c r="A154" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B155" s="24"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
+      <c r="A155" t="s">
+        <v>364</v>
+      </c>
+      <c r="B155" t="s">
+        <v>363</v>
+      </c>
+      <c r="D155" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B156" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>366</v>
-      </c>
-      <c r="B157" t="s">
-        <v>365</v>
-      </c>
-      <c r="D157" t="s">
-        <v>382</v>
-      </c>
+      <c r="A157" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" s="24"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="24" t="s">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
         <v>21</v>
       </c>
-      <c r="B158" s="24"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>15</v>
+      <c r="A159" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
@@ -4163,21 +4179,21 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C160" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="8" t="s">
-        <v>296</v>
+      <c r="A161" t="s">
+        <v>26</v>
       </c>
       <c r="B161" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C161" t="s">
         <v>21</v>
@@ -4185,916 +4201,904 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="D162" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D163" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="B164" t="s">
-        <v>56</v>
-      </c>
-      <c r="D164" t="s">
-        <v>57</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>410</v>
+        <v>95</v>
       </c>
       <c r="B165" t="s">
-        <v>409</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>95</v>
+      <c r="A166" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="B166" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="8" t="s">
-        <v>407</v>
+        <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>408</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="8" t="s">
-        <v>178</v>
+      <c r="A168" t="s">
+        <v>182</v>
       </c>
       <c r="B168" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+      <c r="D170" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B171" t="s">
-        <v>189</v>
-      </c>
-      <c r="D171" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>197</v>
+      <c r="A172" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="8" t="s">
-        <v>217</v>
+      <c r="A173" t="s">
+        <v>218</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>218</v>
+      <c r="A174" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="B174" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B175" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="8" t="s">
-        <v>412</v>
+      <c r="A176" t="s">
+        <v>289</v>
       </c>
       <c r="B176" t="s">
-        <v>413</v>
+        <v>288</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>289</v>
+        <v>481</v>
       </c>
       <c r="B177" t="s">
-        <v>288</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>481</v>
-      </c>
-      <c r="B178" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>494</v>
-      </c>
+      <c r="A179" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B179" s="24"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B180" s="24"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
+      <c r="A180" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B180" t="s">
+        <v>133</v>
+      </c>
+      <c r="D180" s="3"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="8" t="s">
-        <v>143</v>
+      <c r="A181" t="s">
+        <v>145</v>
       </c>
       <c r="B181" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D181" s="3"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B182" t="s">
-        <v>135</v>
-      </c>
-      <c r="D182" s="3"/>
+        <v>490</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" t="s">
-        <v>146</v>
+      <c r="A183" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B183" t="s">
-        <v>490</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>491</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D183" s="3"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B184" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="8" t="s">
-        <v>148</v>
+      <c r="A185" t="s">
+        <v>149</v>
       </c>
       <c r="B185" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D185" s="3"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>149</v>
+      <c r="A186" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B186" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D186" s="3"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B187" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B188" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B189" t="s">
-        <v>141</v>
-      </c>
-      <c r="D189" s="3"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B190" t="s">
-        <v>142</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
-        <v>157</v>
+        <v>498</v>
       </c>
       <c r="B191" t="s">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="D191" s="3"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="8" t="s">
-        <v>498</v>
+      <c r="A192" t="s">
+        <v>158</v>
       </c>
       <c r="B192" t="s">
-        <v>499</v>
+        <v>155</v>
       </c>
       <c r="D192" s="3"/>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>158</v>
+      <c r="A193" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B193" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D193" s="3"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="8" t="s">
-        <v>159</v>
+      <c r="A194" t="s">
+        <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>156</v>
-      </c>
-      <c r="D194" s="3"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>161</v>
+      <c r="A195" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="B195" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="8" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B196" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="8" t="s">
-        <v>212</v>
+      <c r="A197" t="s">
+        <v>214</v>
       </c>
       <c r="B197" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>213</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D198" s="3"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B199" t="s">
-        <v>220</v>
-      </c>
-      <c r="D199" s="3"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>223</v>
+      <c r="A200" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="B200" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B201" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="8" t="s">
-        <v>263</v>
+        <v>500</v>
       </c>
       <c r="B202" t="s">
-        <v>262</v>
+        <v>501</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="8" t="s">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="B203" t="s">
-        <v>501</v>
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="8" t="s">
-        <v>355</v>
+      <c r="A204" t="s">
+        <v>356</v>
       </c>
       <c r="B204" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>356</v>
+      <c r="A205" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="B205" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B206" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="8" t="s">
-        <v>358</v>
+      <c r="A207" t="s">
+        <v>359</v>
       </c>
       <c r="B207" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>359</v>
+        <v>236</v>
       </c>
       <c r="B208" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>236</v>
-      </c>
-      <c r="B209" t="s">
-        <v>237</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>502</v>
-      </c>
+      <c r="A210" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B210" s="24"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="24"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B211" s="24"/>
-      <c r="C211" s="24"/>
-      <c r="D211" s="24"/>
-      <c r="E211" s="24"/>
+      <c r="A211" t="s">
+        <v>119</v>
+      </c>
+      <c r="B211" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>119</v>
+      <c r="A212" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B212" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="8" t="s">
-        <v>165</v>
+      <c r="A213" t="s">
+        <v>232</v>
       </c>
       <c r="B213" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>232</v>
+      <c r="A214" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B214" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="8" t="s">
-        <v>233</v>
+      <c r="A215" t="s">
+        <v>243</v>
       </c>
       <c r="B215" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>243</v>
+      <c r="A216" s="8" t="s">
+        <v>496</v>
       </c>
       <c r="B216" t="s">
-        <v>244</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="8" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
       <c r="B217" t="s">
-        <v>497</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B218" t="s">
-        <v>406</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="8" t="s">
-        <v>510</v>
-      </c>
+      <c r="A223" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B223" s="24"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B224" s="24"/>
-      <c r="C224" s="24"/>
-      <c r="D224" s="24"/>
-      <c r="E224" s="24"/>
+      <c r="A224" t="s">
+        <v>47</v>
+      </c>
+      <c r="B224" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>61</v>
-      </c>
-      <c r="B226" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="10" customFormat="1">
-      <c r="A227" s="13" t="s">
+    <row r="226" spans="1:5" s="10" customFormat="1">
+      <c r="A226" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B227" s="21" t="s">
+      <c r="B226" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21" t="s">
+      <c r="C226" s="21"/>
+      <c r="D226" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="E227" s="20"/>
+      <c r="E226" s="20"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>77</v>
+      </c>
+      <c r="B227" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B228" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>116</v>
-      </c>
-      <c r="B229" t="s">
-        <v>117</v>
-      </c>
+      <c r="A229" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="B229" s="24"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="24"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="B230" s="24"/>
-      <c r="C230" s="24"/>
-      <c r="D230" s="24"/>
-      <c r="E230" s="24"/>
+      <c r="A230" t="s">
+        <v>473</v>
+      </c>
+      <c r="B230" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B231" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>475</v>
-      </c>
-      <c r="B232" t="s">
-        <v>476</v>
+        <v>119</v>
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>119</v>
-      </c>
+      <c r="A233" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B233" s="24"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="24"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B234" s="24"/>
-      <c r="C234" s="24"/>
-      <c r="D234" s="24"/>
-      <c r="E234" s="24"/>
+      <c r="A234" t="s">
+        <v>163</v>
+      </c>
+      <c r="B234" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B235" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" t="s">
-        <v>164</v>
+      <c r="A236" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="B236" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="8" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="B237" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
-        <v>360</v>
+        <v>464</v>
       </c>
       <c r="B238" t="s">
-        <v>370</v>
+        <v>467</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B239" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B240" t="s">
-        <v>466</v>
-      </c>
+      <c r="A240" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B240" s="24"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="24"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B241" s="24"/>
-      <c r="C241" s="24"/>
-      <c r="D241" s="24"/>
-      <c r="E241" s="24"/>
+      <c r="A241" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B241" t="s">
+        <v>173</v>
+      </c>
+      <c r="D241" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="8" t="s">
-        <v>172</v>
+      <c r="A242" t="s">
+        <v>362</v>
       </c>
       <c r="B242" t="s">
-        <v>173</v>
-      </c>
-      <c r="D242" t="s">
-        <v>174</v>
+        <v>361</v>
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" t="s">
-        <v>362</v>
-      </c>
-      <c r="B243" t="s">
-        <v>361</v>
-      </c>
+      <c r="A243" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="24"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="24"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B244" s="24"/>
-      <c r="C244" s="24"/>
-      <c r="D244" s="24"/>
-      <c r="E244" s="24"/>
+      <c r="A244" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B244" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B245" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B246" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B247" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="8" t="s">
-        <v>441</v>
+      <c r="A248" t="s">
+        <v>492</v>
       </c>
       <c r="B248" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>492</v>
-      </c>
-      <c r="B249" t="s">
-        <v>493</v>
-      </c>
+      <c r="A249" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="24"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B250" s="24"/>
-      <c r="C250" s="24"/>
-      <c r="D250" s="24"/>
-      <c r="E250" s="24"/>
+      <c r="A250" t="s">
+        <v>114</v>
+      </c>
+      <c r="B250" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="B251" t="s">
-        <v>115</v>
+        <v>230</v>
+      </c>
+      <c r="D251" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" t="s">
-        <v>231</v>
+      <c r="A252" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="B252" t="s">
-        <v>230</v>
-      </c>
-      <c r="D252" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="8" t="s">
-        <v>277</v>
+      <c r="A253" t="s">
+        <v>349</v>
       </c>
       <c r="B253" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>503</v>
       </c>
       <c r="B254" t="s">
-        <v>348</v>
+        <v>504</v>
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" t="s">
-        <v>503</v>
-      </c>
-      <c r="B255" t="s">
-        <v>504</v>
-      </c>
+      <c r="A255" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B255" s="24"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="24"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B256" s="24"/>
-      <c r="C256" s="24"/>
-      <c r="D256" s="24"/>
-      <c r="E256" s="24"/>
+      <c r="A256" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" t="s">
-        <v>91</v>
+      <c r="A257" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="B257" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
-        <v>177</v>
+        <v>505</v>
       </c>
       <c r="B258" t="s">
-        <v>176</v>
+        <v>506</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
-        <v>505</v>
+        <v>346</v>
       </c>
       <c r="B259" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A260" t="s">
+        <v>347</v>
       </c>
       <c r="B260" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A261" t="s">
-        <v>347</v>
+      <c r="A261" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="B261" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B262" t="s">
-        <v>385</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="18">
       <c r="A263" s="8" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="B263" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="18">
+        <v>323</v>
+      </c>
+      <c r="D263" t="s">
+        <v>283</v>
+      </c>
+      <c r="E263" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B264" t="s">
-        <v>323</v>
-      </c>
-      <c r="D264" t="s">
-        <v>283</v>
-      </c>
-      <c r="E264" s="19" t="s">
-        <v>389</v>
+        <v>391</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1">
       <c r="A265" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A267" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B266" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D266" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A244:E244"/>
+  <mergeCells count="21">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A229:E229"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A224:E224"/>
-    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A142:E142"/>
     <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A134:E134"/>
     <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A157:E157"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A243:E243"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D183" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D182" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C982E02-0216-084C-8EE0-D04A58AC574F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7E39EC-A612-2642-B2EF-E210A2CE813A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1360" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1773,437 +1773,438 @@
     <t>统计从 0 ~ n 每个数的二进制表示中 1 的个数</t>
   </si>
   <si>
+    <t>求一个数的补码</t>
+  </si>
+  <si>
+    <t>L476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出数组中缺失的那个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组中唯一一个不重复的元素</t>
+  </si>
+  <si>
+    <t>数组中不重复的两个元素</t>
+  </si>
+  <si>
+    <t>L260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断一个数的位级表示是否不会出现连续的 0 和 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L693</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组中等差递增子区间的个数</t>
+  </si>
+  <si>
+    <t>一组整数对能够构成的最长链</t>
+  </si>
+  <si>
+    <t>L646</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长摆动子序列</t>
+  </si>
+  <si>
+    <t>L376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找零钱的硬币数组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能进行 k 次的股票交易</t>
+  </si>
+  <si>
+    <t>只能进行两次的股票交易</t>
+  </si>
+  <si>
+    <t>L583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除两个字符串的字符使它们相等</t>
+  </si>
+  <si>
+    <t>复制粘贴字符</t>
+  </si>
+  <si>
+    <t>L650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L51 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N皇后问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只出现一次的数字II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求不可以使用额外空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除链表节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除链表中的节点（区别203）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L349 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个数组的交集I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在重复元素 III</t>
+  </si>
+  <si>
+    <t>L220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在重复元素 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称二叉树  （除了递归，还有用队列迭代的方法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/hanruikai/article/details/84634737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转字符串里面的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分图判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断路径和是否等于一个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计左叶子节点的和</t>
+  </si>
+  <si>
+    <t>树的题目有个单独笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照字符出现次数对字符串排序</t>
+  </si>
+  <si>
+    <t>L392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否为子序列</t>
+  </si>
+  <si>
+    <t>L695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长子串：最多出现K个不同字符（锁住了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小覆盖子串</t>
+  </si>
+  <si>
+    <t>水果入篮（收集的最大水果总量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和340类似，可以理解成至多出现2个不同值的最长子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地操作，此题较难，环链表检测思想或者抽屉原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dp(超时) 反向不会超时      贪心算法通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题需要去仔细看看官方题解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制 数学 动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划+二叉树 可能需要看看官方题解其他方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">打家劫舍 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> L213此题变种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意和L85最大矩形的差别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外一种方法是深搜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小硬币找零数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开始写遇到了重复子问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和L1143的区别是子数组必须是连续的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和L718的区别是这里子序列不需要是连续的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长公共子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长重复子数组（最长公共连续子数组）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">区域和检索 - 数组不可变  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比硬币找零组合数L518，和518的区别是这里考虑组合元素的顺序了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等效1143最长公共子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信件错排</t>
+  </si>
+  <si>
+    <t>母牛生产</t>
+  </si>
+  <si>
+    <t>股票专题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1背包专题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求用o(n)时间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转数组的最小数字：存在重复元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题用位运算可以做，不过时间复杂度不满足logn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算或者哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对角元素相等的矩阵--托普利茨矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个哈希表，分别存元素的次数，元素起始索引，元素终止索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让前 k+1 个元素构建出 k 个不相同的差值，序列为：1 k+1 2 k 3 k-1 ... k/2 k/2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dp[i] = dp[i&amp;(i-1)] + 1;</t>
-  </si>
-  <si>
-    <t>求一个数的补码</t>
-  </si>
-  <si>
-    <t>L476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找出数组中缺失的那个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组中唯一一个不重复的元素</t>
-  </si>
-  <si>
-    <t>数组中不重复的两个元素</t>
-  </si>
-  <si>
-    <t>L260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断一个数的位级表示是否不会出现连续的 0 和 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L693</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L413</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组中等差递增子区间的个数</t>
-  </si>
-  <si>
-    <t>一组整数对能够构成的最长链</t>
-  </si>
-  <si>
-    <t>L646</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长摆动子序列</t>
-  </si>
-  <si>
-    <t>L376</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找零钱的硬币数组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L518</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合总和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L377</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能进行 k 次的股票交易</t>
-  </si>
-  <si>
-    <t>只能进行两次的股票交易</t>
-  </si>
-  <si>
-    <t>L583</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除两个字符串的字符使它们相等</t>
-  </si>
-  <si>
-    <t>复制粘贴字符</t>
-  </si>
-  <si>
-    <t>L650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归回溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">L51 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N皇后问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只出现一次的数字II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求不可以使用额外空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除链表节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除链表中的节点（区别203）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">L349 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个数组的交集I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L219</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在重复元素 III</t>
-  </si>
-  <si>
-    <t>L220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在重复元素 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对称二叉树  （除了递归，还有用队列迭代的方法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/hanruikai/article/details/84634737</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻转字符串里面的单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L785</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分图判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断路径和是否等于一个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计左叶子节点的和</t>
-  </si>
-  <si>
-    <t>树的题目有个单独笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L451</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照字符出现次数对字符串排序</t>
-  </si>
-  <si>
-    <t>L392</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断是否为子序列</t>
-  </si>
-  <si>
-    <t>L695</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L547</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L257</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长子串：最多出现K个不同字符（锁住了）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小覆盖子串</t>
-  </si>
-  <si>
-    <t>水果入篮（收集的最大水果总量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和340类似，可以理解成至多出现2个不同值的最长子数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原地操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原地操作，此题较难，环链表检测思想或者抽屉原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dp(超时) 反向不会超时      贪心算法通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这道题需要去仔细看看官方题解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二进制 数学 动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划+二叉树 可能需要看看官方题解其他方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">打家劫舍 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> L213此题变种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意和L85最大矩形的差别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外一种方法是深搜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小硬币找零数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开始写遇到了重复子问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L718</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和L1143的区别是子数组必须是连续的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和L718的区别是这里子序列不需要是连续的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长公共子序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长重复子数组（最长公共连续子数组）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">区域和检索 - 数组不可变  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对比硬币找零组合数L518，和518的区别是这里考虑组合元素的顺序了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等效1143最长公共子序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信件错排</t>
-  </si>
-  <si>
-    <t>母牛生产</t>
-  </si>
-  <si>
-    <t>股票专题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1背包专题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求用o(n)时间复杂度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转数组的最小数字：存在重复元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这道题用位运算可以做，不过时间复杂度不满足logn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位运算或者哈希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对角元素相等的矩阵--托普利茨矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个哈希表，分别存元素的次数，元素起始索引，元素终止索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让前 k+1 个元素构建出 k 个不相同的差值，序列为：1 k+1 2 k 3 k-1 ... k/2 k/2+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2654,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2675,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -2706,13 +2707,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2745,7 +2746,7 @@
         <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2762,7 +2763,7 @@
         <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>284</v>
@@ -2773,18 +2774,18 @@
         <v>292</v>
       </c>
       <c r="B9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>515</v>
-      </c>
-      <c r="C9" t="s">
-        <v>521</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2799,7 +2800,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2832,7 +2833,7 @@
         <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2843,7 +2844,7 @@
         <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2854,7 +2855,7 @@
         <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2865,10 +2866,10 @@
         <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1">
@@ -2879,10 +2880,10 @@
         <v>269</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E18" s="18"/>
     </row>
@@ -2902,7 +2903,7 @@
         <v>281</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2913,7 +2914,7 @@
         <v>376</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
@@ -2924,7 +2925,7 @@
         <v>371</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>373</v>
@@ -2938,7 +2939,7 @@
         <v>378</v>
       </c>
       <c r="C23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D23" t="s">
         <v>380</v>
@@ -2952,7 +2953,7 @@
         <v>374</v>
       </c>
       <c r="C24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
@@ -3000,7 +3001,7 @@
         <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3044,7 +3045,7 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E33" s="18"/>
     </row>
@@ -3056,7 +3057,7 @@
         <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3075,7 +3076,7 @@
         <v>134</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3099,10 +3100,10 @@
         <v>245</v>
       </c>
       <c r="B39" t="s">
+        <v>525</v>
+      </c>
+      <c r="D39" t="s">
         <v>526</v>
-      </c>
-      <c r="D39" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3113,7 +3114,7 @@
         <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3124,7 +3125,7 @@
         <v>265</v>
       </c>
       <c r="D41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3143,18 +3144,18 @@
         <v>301</v>
       </c>
       <c r="D43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D44" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3175,21 +3176,21 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3210,97 +3211,97 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B51" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B52" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>469</v>
-      </c>
       <c r="D56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="14"/>
       <c r="B61" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3360,7 +3361,7 @@
         <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3373,18 +3374,18 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3397,10 +3398,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>483</v>
+      </c>
+      <c r="B73" t="s">
         <v>484</v>
-      </c>
-      <c r="B73" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3544,10 +3545,10 @@
     </row>
     <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16">
@@ -3566,7 +3567,7 @@
         <v>399</v>
       </c>
       <c r="D91" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16">
@@ -3674,7 +3675,7 @@
         <v>437</v>
       </c>
       <c r="D104" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3685,7 +3686,7 @@
         <v>435</v>
       </c>
       <c r="D105" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3706,204 +3707,204 @@
       <c r="E107" s="24"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="8" t="s">
+      <c r="A108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" t="s">
+        <v>447</v>
+      </c>
+      <c r="D108" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B109" t="s">
+        <v>478</v>
+      </c>
+      <c r="D109" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B111" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B109" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B110" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B111" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
         <v>307</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B115" t="s">
         <v>443</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D115" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B116" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B117" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B118" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B113" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>175</v>
-      </c>
-      <c r="B114" t="s">
-        <v>448</v>
-      </c>
-      <c r="D114" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B115" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="8" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B119" t="s">
         <v>450</v>
       </c>
-      <c r="B116" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B117" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="B118" t="s">
-        <v>479</v>
-      </c>
-      <c r="D118" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="24" t="s">
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>36</v>
-      </c>
-      <c r="B120" t="s">
-        <v>37</v>
-      </c>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
-      </c>
-      <c r="D121" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
         <v>74</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>75</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E123" s="17" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="8" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
-      </c>
-      <c r="D126" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="D127" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>215</v>
-      </c>
-      <c r="B129" t="s">
-        <v>216</v>
-      </c>
-      <c r="D129" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4009,7 +4010,7 @@
         <v>434</v>
       </c>
       <c r="B141" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4301,7 +4302,7 @@
         <v>218</v>
       </c>
       <c r="B173" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4330,15 +4331,15 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
+        <v>480</v>
+      </c>
+      <c r="B177" t="s">
         <v>481</v>
-      </c>
-      <c r="B177" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4373,10 +4374,10 @@
         <v>146</v>
       </c>
       <c r="B182" t="s">
+        <v>489</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4452,10 +4453,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B191" t="s">
         <v>498</v>
-      </c>
-      <c r="B191" t="s">
-        <v>499</v>
       </c>
       <c r="D191" s="3"/>
     </row>
@@ -4544,10 +4545,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B202" t="s">
         <v>500</v>
-      </c>
-      <c r="B202" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4600,7 +4601,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4654,10 +4655,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B216" t="s">
         <v>496</v>
-      </c>
-      <c r="B216" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4670,27 +4671,27 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4727,7 +4728,7 @@
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E226" s="20"/>
     </row>
@@ -4749,7 +4750,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -4758,18 +4759,18 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
+        <v>472</v>
+      </c>
+      <c r="B230" t="s">
         <v>473</v>
-      </c>
-      <c r="B230" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
+        <v>474</v>
+      </c>
+      <c r="B231" t="s">
         <v>475</v>
-      </c>
-      <c r="B231" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4820,18 +4821,18 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B238" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B239" t="s">
         <v>465</v>
-      </c>
-      <c r="B239" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4905,10 +4906,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
+        <v>491</v>
+      </c>
+      <c r="B248" t="s">
         <v>492</v>
-      </c>
-      <c r="B248" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4957,10 +4958,10 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
+        <v>502</v>
+      </c>
+      <c r="B254" t="s">
         <v>503</v>
-      </c>
-      <c r="B254" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4990,10 +4991,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B258" t="s">
         <v>505</v>
-      </c>
-      <c r="B258" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5074,6 +5075,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A243:E243"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A229:E229"/>
@@ -5085,16 +5093,9 @@
     <mergeCell ref="A62:E62"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A243:E243"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7E39EC-A612-2642-B2EF-E210A2CE813A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5276FF3-9D02-9143-9312-9159F24BF94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1360" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2656,7 +2656,7 @@
   <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5075,13 +5075,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A243:E243"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A229:E229"/>
@@ -5096,6 +5089,13 @@
     <mergeCell ref="A120:E120"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A243:E243"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5276FF3-9D02-9143-9312-9159F24BF94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4662AB72-29BF-B44B-AD1E-DC17FEEECA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1360" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5075,6 +5075,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A243:E243"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A229:E229"/>
@@ -5089,13 +5096,6 @@
     <mergeCell ref="A120:E120"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A243:E243"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4662AB72-29BF-B44B-AD1E-DC17FEEECA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C489B3-3237-DD42-A986-4E06D8E28175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1360" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C489B3-3237-DD42-A986-4E06D8E28175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD7423A-E542-544D-965F-12E782CBDEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1360" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="560">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,10 +427,6 @@
   </si>
   <si>
     <t>L66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组表示算加1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2207,12 +2203,28 @@
     <t>dp[i] = dp[i&amp;(i-1)] + 1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>思路很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组表示运算加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖式加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题太过繁杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,8 +2280,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2306,6 +2325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2338,7 +2363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2372,6 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2655,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2676,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -2707,18 +2733,18 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2743,10 +2769,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2757,35 +2783,35 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="C9" t="s">
-        <v>520</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2800,15 +2826,15 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -2816,10 +2842,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -2827,133 +2853,133 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
       <c r="C14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
         <v>167</v>
       </c>
-      <c r="B15" t="s">
-        <v>168</v>
-      </c>
       <c r="C15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
         <v>195</v>
       </c>
-      <c r="B16" t="s">
-        <v>196</v>
-      </c>
       <c r="C16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" t="s">
         <v>266</v>
       </c>
-      <c r="B17" t="s">
-        <v>267</v>
-      </c>
       <c r="C17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1">
       <c r="A18" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>269</v>
-      </c>
       <c r="C18" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" t="s">
         <v>280</v>
       </c>
-      <c r="B20" t="s">
-        <v>281</v>
-      </c>
       <c r="C20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>372</v>
-      </c>
-      <c r="B22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C22" t="s">
-        <v>518</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D23" t="s">
         <v>379</v>
-      </c>
-      <c r="B23" t="s">
-        <v>378</v>
-      </c>
-      <c r="C23" t="s">
-        <v>519</v>
-      </c>
-      <c r="D23" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
@@ -2981,7 +3007,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -3001,7 +3027,7 @@
         <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3022,74 +3048,74 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
         <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1">
       <c r="A33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
         <v>127</v>
       </c>
-      <c r="B34" t="s">
-        <v>128</v>
-      </c>
       <c r="D34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
         <v>129</v>
-      </c>
-      <c r="B35" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
         <v>180</v>
-      </c>
-      <c r="B37" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -3097,211 +3123,211 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
+        <v>524</v>
+      </c>
+      <c r="D39" t="s">
         <v>525</v>
-      </c>
-      <c r="D39" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
         <v>226</v>
       </c>
-      <c r="B40" t="s">
-        <v>227</v>
-      </c>
       <c r="D40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" t="s">
         <v>264</v>
       </c>
-      <c r="B41" t="s">
-        <v>265</v>
-      </c>
       <c r="D41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C52" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>453</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>468</v>
-      </c>
       <c r="D56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="14"/>
       <c r="B61" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3355,101 +3381,101 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
         <v>169</v>
       </c>
-      <c r="B68" t="s">
-        <v>170</v>
-      </c>
       <c r="D68" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B70" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>482</v>
+      </c>
+      <c r="B73" t="s">
         <v>483</v>
-      </c>
-      <c r="B73" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B76" t="s">
         <v>424</v>
-      </c>
-      <c r="B76" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -3457,10 +3483,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
@@ -3510,10 +3536,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
         <v>103</v>
-      </c>
-      <c r="B85" t="s">
-        <v>104</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
@@ -3521,61 +3547,61 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" t="s">
         <v>201</v>
-      </c>
-      <c r="B86" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16">
       <c r="A90" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16">
       <c r="A91" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D91" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3597,109 +3623,109 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" t="s">
         <v>205</v>
-      </c>
-      <c r="B95" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B96" t="s">
         <v>251</v>
-      </c>
-      <c r="B96" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B102" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B104" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B105" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D105" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B106" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -3708,110 +3734,110 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D108" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B109" t="s">
         <v>477</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>478</v>
-      </c>
-      <c r="D109" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B110" t="s">
         <v>249</v>
-      </c>
-      <c r="B110" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" t="s">
         <v>215</v>
       </c>
-      <c r="B112" t="s">
-        <v>216</v>
-      </c>
       <c r="D112" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B114" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B115" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D115" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B117" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B119" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3852,94 +3878,109 @@
       <c r="B123" t="s">
         <v>75</v>
       </c>
+      <c r="D123" t="s">
+        <v>558</v>
+      </c>
       <c r="E123" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B124" t="s">
         <v>85</v>
       </c>
+      <c r="D124" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
+        <v>557</v>
+      </c>
+      <c r="D125" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" t="s">
         <v>199</v>
       </c>
-      <c r="B126" t="s">
-        <v>200</v>
+      <c r="D126" s="25" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" t="s">
         <v>203</v>
       </c>
-      <c r="B127" t="s">
-        <v>204</v>
-      </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" t="s">
         <v>207</v>
       </c>
-      <c r="B128" t="s">
-        <v>208</v>
+      <c r="D128" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B129" t="s">
         <v>209</v>
-      </c>
-      <c r="B129" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" t="s">
         <v>238</v>
-      </c>
-      <c r="B130" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" t="s">
         <v>240</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>241</v>
-      </c>
-      <c r="D131" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" t="s">
         <v>278</v>
-      </c>
-      <c r="B133" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3977,40 +4018,40 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" t="s">
         <v>111</v>
-      </c>
-      <c r="B138" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" t="s">
+        <v>252</v>
+      </c>
+      <c r="D139" t="s">
         <v>254</v>
-      </c>
-      <c r="B139" t="s">
-        <v>253</v>
-      </c>
-      <c r="D139" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B140" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D140" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B141" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4032,93 +4073,93 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B144" t="s">
         <v>107</v>
-      </c>
-      <c r="B144" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" t="s">
+        <v>284</v>
+      </c>
+      <c r="D145" t="s">
         <v>121</v>
-      </c>
-      <c r="B145" t="s">
-        <v>285</v>
-      </c>
-      <c r="D145" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" t="s">
         <v>191</v>
-      </c>
-      <c r="B146" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
+        <v>192</v>
+      </c>
+      <c r="B147" t="s">
         <v>193</v>
-      </c>
-      <c r="B147" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B149" t="s">
         <v>414</v>
-      </c>
-      <c r="B149" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B150" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B151" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B152" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B153" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B154" s="24"/>
       <c r="C154" s="24"/>
@@ -4127,24 +4168,24 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D155" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D156" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4169,7 +4210,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B159" t="s">
         <v>17</v>
@@ -4180,7 +4221,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B160" t="s">
         <v>18</v>
@@ -4224,10 +4265,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B164" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4240,111 +4281,111 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B166" t="s">
         <v>407</v>
-      </c>
-      <c r="B166" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" t="s">
         <v>178</v>
-      </c>
-      <c r="B167" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
+        <v>181</v>
+      </c>
+      <c r="B168" t="s">
         <v>182</v>
-      </c>
-      <c r="B168" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" t="s">
         <v>188</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
         <v>189</v>
-      </c>
-      <c r="D170" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
+        <v>196</v>
+      </c>
+      <c r="B171" t="s">
         <v>197</v>
-      </c>
-      <c r="B171" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B172" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B173" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B174" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B175" t="s">
         <v>412</v>
-      </c>
-      <c r="B175" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B176" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
+        <v>479</v>
+      </c>
+      <c r="B177" t="s">
         <v>480</v>
-      </c>
-      <c r="B177" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B179" s="24"/>
       <c r="C179" s="24"/>
@@ -4353,260 +4394,260 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B180" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D180" s="3"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B181" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D181" s="3"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B182" t="s">
+        <v>488</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D183" s="3"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B184" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B185" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D185" s="3"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B186" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D186" s="3"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B187" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B188" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B189" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D190" s="3"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B191" t="s">
         <v>497</v>
-      </c>
-      <c r="B191" t="s">
-        <v>498</v>
       </c>
       <c r="D191" s="3"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B192" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D192" s="3"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D193" s="3"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
+        <v>160</v>
+      </c>
+      <c r="B194" t="s">
         <v>161</v>
-      </c>
-      <c r="B194" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B195" t="s">
         <v>186</v>
-      </c>
-      <c r="B195" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D198" s="3"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B199" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B201" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B202" t="s">
         <v>499</v>
-      </c>
-      <c r="B202" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B203" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B206" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B207" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
+        <v>235</v>
+      </c>
+      <c r="B208" t="s">
         <v>236</v>
-      </c>
-      <c r="B208" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B210" s="24"/>
       <c r="C210" s="24"/>
@@ -4615,83 +4656,83 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
+        <v>118</v>
+      </c>
+      <c r="B211" t="s">
         <v>119</v>
-      </c>
-      <c r="B211" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B212" t="s">
         <v>165</v>
-      </c>
-      <c r="B212" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B214" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
+        <v>242</v>
+      </c>
+      <c r="B215" t="s">
         <v>243</v>
-      </c>
-      <c r="B215" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B216" t="s">
         <v>495</v>
-      </c>
-      <c r="B216" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B217" t="s">
         <v>405</v>
-      </c>
-      <c r="B217" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4728,7 +4769,7 @@
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E226" s="20"/>
     </row>
@@ -4742,15 +4783,15 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
+        <v>115</v>
+      </c>
+      <c r="B228" t="s">
         <v>116</v>
-      </c>
-      <c r="B228" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B229" s="24"/>
       <c r="C229" s="24"/>
@@ -4759,28 +4800,28 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
+        <v>471</v>
+      </c>
+      <c r="B230" t="s">
         <v>472</v>
-      </c>
-      <c r="B230" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
+        <v>473</v>
+      </c>
+      <c r="B231" t="s">
         <v>474</v>
-      </c>
-      <c r="B231" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B233" s="24"/>
       <c r="C233" s="24"/>
@@ -4789,55 +4830,55 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B234" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B235" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B236" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B237" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B238" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B239" t="s">
         <v>464</v>
-      </c>
-      <c r="B239" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B240" s="24"/>
       <c r="C240" s="24"/>
@@ -4846,21 +4887,21 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B241" t="s">
         <v>172</v>
       </c>
-      <c r="B241" t="s">
+      <c r="D241" t="s">
         <v>173</v>
-      </c>
-      <c r="D241" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B242" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4874,47 +4915,47 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B244" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B245" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B246" t="s">
         <v>424</v>
-      </c>
-      <c r="B246" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B247" t="s">
         <v>441</v>
-      </c>
-      <c r="B247" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" t="s">
         <v>491</v>
-      </c>
-      <c r="B248" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
@@ -4923,45 +4964,45 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
+        <v>113</v>
+      </c>
+      <c r="B250" t="s">
         <v>114</v>
-      </c>
-      <c r="B250" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B251" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D251" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B253" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
+        <v>501</v>
+      </c>
+      <c r="B254" t="s">
         <v>502</v>
-      </c>
-      <c r="B254" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4983,105 +5024,98 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B257" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B258" t="s">
         <v>504</v>
-      </c>
-      <c r="B258" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B259" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1">
       <c r="A260" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B260" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1">
       <c r="A261" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B261" t="s">
         <v>384</v>
       </c>
-      <c r="B261" t="s">
+      <c r="D261" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B262" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="18">
       <c r="A263" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B263" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D263" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E263" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1">
       <c r="A265" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D266" t="s">
         <v>395</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D266" t="s">
-        <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A243:E243"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A229:E229"/>
@@ -5096,6 +5130,13 @@
     <mergeCell ref="A120:E120"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A240:E240"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A243:E243"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD7423A-E542-544D-965F-12E782CBDEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383CC71B-2AB4-4565-9234-6B05022E9B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1360" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="564">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2219,12 +2219,28 @@
     <t>这道题太过繁杂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>这道题还有优化的空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆圈中最后剩下的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约瑟夫环问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2363,7 +2379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2394,10 +2410,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2679,22 +2697,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E266"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="48.625" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2711,16 +2729,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>510</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -2756,7 +2774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>292</v>
       </c>
@@ -2781,7 +2799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -2795,7 +2813,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>291</v>
       </c>
@@ -2809,16 +2827,16 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2829,7 +2847,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>290</v>
       </c>
@@ -2840,7 +2858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>166</v>
       </c>
@@ -2873,7 +2891,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -2884,7 +2902,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>265</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="12" customFormat="1">
+    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>267</v>
       </c>
@@ -2913,7 +2931,7 @@
       </c>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>337</v>
       </c>
@@ -2921,7 +2939,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>279</v>
       </c>
@@ -2932,7 +2950,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>376</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>371</v>
       </c>
@@ -2957,7 +2975,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>378</v>
       </c>
@@ -2971,7 +2989,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>374</v>
       </c>
@@ -2982,16 +3000,16 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3005,7 +3023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>286</v>
       </c>
@@ -3019,7 +3037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -3030,7 +3048,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -3038,7 +3056,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -3046,7 +3064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -3054,7 +3072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3062,7 +3080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="12" customFormat="1">
+    <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>122</v>
       </c>
@@ -3075,7 +3093,7 @@
       </c>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>143</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>285</v>
       </c>
@@ -3121,7 +3139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -3132,7 +3150,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>225</v>
       </c>
@@ -3143,7 +3161,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>263</v>
       </c>
@@ -3154,7 +3172,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>273</v>
       </c>
@@ -3162,7 +3180,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>305</v>
       </c>
@@ -3173,7 +3191,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>459</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>307</v>
       </c>
@@ -3200,7 +3218,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>457</v>
       </c>
@@ -3208,7 +3226,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>461</v>
       </c>
@@ -3219,7 +3237,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>308</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>309</v>
       </c>
@@ -3235,7 +3253,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>530</v>
       </c>
@@ -3249,7 +3267,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>531</v>
       </c>
@@ -3263,7 +3281,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>451</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>452</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>455</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>466</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>469</v>
       </c>
@@ -3306,40 +3324,40 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="15" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="24" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3347,7 +3365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>44</v>
       </c>
@@ -3355,7 +3373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>70</v>
       </c>
@@ -3371,7 +3389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3379,7 +3397,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -3390,7 +3408,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>228</v>
       </c>
@@ -3398,7 +3416,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>484</v>
       </c>
@@ -3406,7 +3424,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>486</v>
       </c>
@@ -3414,7 +3432,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>258</v>
       </c>
@@ -3422,7 +3440,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>482</v>
       </c>
@@ -3430,7 +3448,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>315</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>316</v>
       </c>
@@ -3446,7 +3464,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>423</v>
       </c>
@@ -3454,7 +3472,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>317</v>
       </c>
@@ -3462,7 +3480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>318</v>
       </c>
@@ -3470,7 +3488,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>319</v>
       </c>
@@ -3481,7 +3499,7 @@
       <c r="D79" s="12"/>
       <c r="E79" s="23"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
         <v>422</v>
       </c>
@@ -3489,16 +3507,16 @@
         <v>421</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="24" t="s">
+    <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -3512,7 +3530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -3523,7 +3541,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -3534,7 +3552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -3545,7 +3563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>200</v>
       </c>
@@ -3553,7 +3571,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>321</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>401</v>
       </c>
@@ -3569,7 +3587,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>547</v>
       </c>
@@ -3577,7 +3595,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>403</v>
       </c>
@@ -3585,7 +3603,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>399</v>
       </c>
@@ -3596,7 +3614,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>397</v>
       </c>
@@ -3604,16 +3622,16 @@
         <v>396</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="24" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>59</v>
       </c>
@@ -3621,7 +3639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -3629,7 +3647,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>250</v>
       </c>
@@ -3637,7 +3655,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>224</v>
       </c>
@@ -3645,7 +3663,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>260</v>
       </c>
@@ -3653,7 +3671,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>338</v>
       </c>
@@ -3661,7 +3679,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>339</v>
       </c>
@@ -3669,7 +3687,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>340</v>
       </c>
@@ -3677,7 +3695,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>432</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>439</v>
       </c>
@@ -3693,7 +3711,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>437</v>
       </c>
@@ -3704,7 +3722,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>435</v>
       </c>
@@ -3715,7 +3733,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>430</v>
       </c>
@@ -3723,16 +3741,16 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="24" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>174</v>
       </c>
@@ -3743,7 +3761,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>476</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>248</v>
       </c>
@@ -3762,7 +3780,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>247</v>
       </c>
@@ -3770,7 +3788,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>214</v>
       </c>
@@ -3781,7 +3799,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>448</v>
       </c>
@@ -3789,7 +3807,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>260</v>
       </c>
@@ -3797,7 +3815,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>306</v>
       </c>
@@ -3808,7 +3826,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>326</v>
       </c>
@@ -3816,7 +3834,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>327</v>
       </c>
@@ -3824,7 +3842,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>444</v>
       </c>
@@ -3832,7 +3850,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>450</v>
       </c>
@@ -3840,16 +3858,16 @@
         <v>449</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="24" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -3857,7 +3875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -3871,7 +3889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>84</v>
       </c>
@@ -3896,7 +3914,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>101</v>
       </c>
@@ -3907,18 +3925,18 @@
         <v>558</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="26" t="s">
         <v>198</v>
       </c>
       <c r="B126" t="s">
         <v>199</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="24" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>202</v>
       </c>
@@ -3929,8 +3947,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="8" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
         <v>206</v>
       </c>
       <c r="B128" t="s">
@@ -3940,1207 +3958,1222 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="8" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="12" t="s">
         <v>208</v>
       </c>
       <c r="B129" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="8" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" t="s">
+        <v>240</v>
+      </c>
+      <c r="D130" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B131" t="s">
-        <v>240</v>
-      </c>
       <c r="D131" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
         <v>270</v>
       </c>
       <c r="B132" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="8" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="12" t="s">
         <v>277</v>
       </c>
       <c r="B133" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="24" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B134" t="s">
+        <v>562</v>
+      </c>
+      <c r="D134" t="s">
+        <v>563</v>
+      </c>
+      <c r="E134" s="27"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>80</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>86</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>93</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>110</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="8" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>252</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>342</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>341</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="12" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="24" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>53</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="8" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="8" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>284</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="8" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>192</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>332</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="8" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>331</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>330</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>415</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="8" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="8" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="24" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>363</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>362</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>365</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>364</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="24" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B157" s="24"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>15</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>16</v>
-      </c>
-      <c r="C158" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B159" t="s">
-        <v>17</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>26</v>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="B161" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C161" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>26</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>49</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>50</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>55</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>56</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D164" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>409</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>95</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="8" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="8" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>181</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>184</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>187</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>188</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D171" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>196</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="8" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>217</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="8" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="8" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>288</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>479</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="24" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B179" s="24"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="8" t="s">
+      <c r="B180" s="25"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>132</v>
       </c>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>144</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>134</v>
       </c>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>145</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>488</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D183" s="7" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="8" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>135</v>
       </c>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="8" t="s">
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>136</v>
       </c>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>148</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>137</v>
       </c>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="8" t="s">
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>138</v>
       </c>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="8" t="s">
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>139</v>
       </c>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="8" t="s">
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>140</v>
       </c>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="8" t="s">
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="8" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>153</v>
       </c>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="8" t="s">
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>497</v>
       </c>
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>157</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>154</v>
       </c>
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="8" t="s">
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>155</v>
       </c>
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>160</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="8" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="8" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>213</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>221</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>219</v>
       </c>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>222</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="8" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="8" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="8" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="8" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>355</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="8" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="8" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>358</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>235</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="24" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B210" s="24"/>
-      <c r="C210" s="24"/>
-      <c r="D210" s="24"/>
-      <c r="E210" s="24"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>118</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="8" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>231</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="8" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>242</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="8" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="8" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="8" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="8" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="8" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="8" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="8" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="24" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B223" s="24"/>
-      <c r="C223" s="24"/>
-      <c r="D223" s="24"/>
-      <c r="E223" s="24"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
+      <c r="B224" s="25"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="25"/>
+      <c r="E224" s="25"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>47</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>61</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="10" customFormat="1">
-      <c r="A226" s="13" t="s">
+    <row r="227" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B226" s="21" t="s">
+      <c r="B227" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C226" s="21"/>
-      <c r="D226" s="21" t="s">
+      <c r="C227" s="21"/>
+      <c r="D227" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="E226" s="20"/>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
+      <c r="E227" s="20"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>77</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>115</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="24" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="B229" s="24"/>
-      <c r="C229" s="24"/>
-      <c r="D229" s="24"/>
-      <c r="E229" s="24"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
+      <c r="B230" s="25"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="25"/>
+      <c r="E230" s="25"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>471</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>473</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="24" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B233" s="24"/>
-      <c r="C233" s="24"/>
-      <c r="D233" s="24"/>
-      <c r="E233" s="24"/>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
+      <c r="B234" s="25"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="25"/>
+      <c r="E234" s="25"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>162</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>163</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="8" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="8" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="8" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="8" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="24" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B240" s="24"/>
-      <c r="C240" s="24"/>
-      <c r="D240" s="24"/>
-      <c r="E240" s="24"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="8" t="s">
+      <c r="B241" s="25"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="25"/>
+      <c r="E241" s="25"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>172</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D242" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
-      <c r="A242" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>361</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="24" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B243" s="24"/>
-      <c r="C243" s="24"/>
-      <c r="D243" s="24"/>
-      <c r="E243" s="24"/>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="8" t="s">
+      <c r="B244" s="25"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="25"/>
+      <c r="E244" s="25"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="8" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="8" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="8" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>490</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B249" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="24" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B249" s="24"/>
-      <c r="C249" s="24"/>
-      <c r="D249" s="24"/>
-      <c r="E249" s="24"/>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
+      <c r="B250" s="25"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="25"/>
+      <c r="E250" s="25"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>113</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
         <v>230</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>229</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="8" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>348</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="A254" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>501</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="24" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B255" s="24"/>
-      <c r="C255" s="24"/>
-      <c r="D255" s="24"/>
-      <c r="E255" s="24"/>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" t="s">
+      <c r="B256" s="25"/>
+      <c r="C256" s="25"/>
+      <c r="D256" s="25"/>
+      <c r="E256" s="25"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>91</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="8" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="8" t="s">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="8" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A260" t="s">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>346</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A261" s="8" t="s">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>384</v>
       </c>
-      <c r="D261" s="4" t="s">
+      <c r="D262" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A262" s="8" t="s">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="18">
-      <c r="A263" s="8" t="s">
+    <row r="264" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A264" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" t="s">
         <v>322</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D264" t="s">
         <v>282</v>
       </c>
-      <c r="E263" s="19" t="s">
+      <c r="E264" s="19" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A264" s="8" t="s">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B265" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A265" s="8" t="s">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B266" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A266" s="8" t="s">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B267" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D267" t="s">
         <v>395</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A244:E244"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A229:E229"/>
+    <mergeCell ref="A230:E230"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="A143:E143"/>
     <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:E135"/>
     <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:E158"/>
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="A120:E120"/>
     <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A240:E240"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D182" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D183" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383CC71B-2AB4-4565-9234-6B05022E9B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA59D4-5982-D54F-9996-4F1E0CBB9DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1460" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="565">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,10 +458,6 @@
   </si>
   <si>
     <t>编辑距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">yaoqiu </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2235,12 +2231,20 @@
     <t>约瑟夫环问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>L73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求常数空间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2304,7 +2308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2347,6 +2351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2379,7 +2389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2411,11 +2421,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2699,20 +2710,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="48.625" customWidth="1"/>
-    <col min="5" max="5" width="55.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -2729,16 +2740,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2749,20 +2760,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2774,7 +2785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -2785,12 +2796,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2799,44 +2810,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="C9" t="s">
-        <v>519</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2844,172 +2855,172 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
       <c r="C14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s">
         <v>166</v>
       </c>
-      <c r="B15" t="s">
-        <v>167</v>
-      </c>
       <c r="C15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>518</v>
+      </c>
+      <c r="D17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18">
+      <c r="A22" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" t="s">
+        <v>516</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>265</v>
-      </c>
-      <c r="B17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" t="s">
-        <v>519</v>
-      </c>
-      <c r="D17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="D23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" t="s">
         <v>516</v>
       </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B19" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B21" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B22" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" t="s">
-        <v>517</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B23" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" t="s">
-        <v>518</v>
-      </c>
-      <c r="D23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" t="s">
-        <v>373</v>
-      </c>
-      <c r="C24" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
+      <c r="A25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3023,9 +3034,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -3037,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -3045,10 +3056,10 @@
         <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -3056,7 +3067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -3064,7 +3075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -3072,7 +3083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -3080,284 +3091,284 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="12" customFormat="1">
       <c r="A33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>127</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
         <v>179</v>
       </c>
-      <c r="B37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s">
+        <v>523</v>
+      </c>
+      <c r="D39" t="s">
         <v>524</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>263</v>
-      </c>
-      <c r="B41" t="s">
-        <v>264</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B44" t="s">
+        <v>457</v>
+      </c>
+      <c r="D44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>305</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>300</v>
       </c>
-      <c r="D43" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="B44" t="s">
-        <v>458</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D48" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="12" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>306</v>
-      </c>
-      <c r="B45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>307</v>
-      </c>
-      <c r="B46" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B51" t="s">
+        <v>536</v>
+      </c>
+      <c r="C51" t="s">
+        <v>531</v>
+      </c>
+      <c r="D51" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B52" t="s">
+        <v>535</v>
+      </c>
+      <c r="C52" t="s">
+        <v>532</v>
+      </c>
+      <c r="D52" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D56" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>308</v>
-      </c>
-      <c r="B49" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B50" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="B51" t="s">
-        <v>537</v>
-      </c>
-      <c r="C51" t="s">
-        <v>532</v>
-      </c>
-      <c r="D51" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="B52" t="s">
-        <v>536</v>
-      </c>
-      <c r="C52" t="s">
-        <v>533</v>
-      </c>
-      <c r="D52" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B56" s="12" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="D56" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="14"/>
       <c r="B61" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3365,7 +3376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
         <v>44</v>
       </c>
@@ -3373,7 +3384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3381,7 +3392,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="12" t="s">
         <v>70</v>
       </c>
@@ -3389,7 +3400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3397,126 +3408,126 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s">
         <v>168</v>
       </c>
-      <c r="B68" t="s">
-        <v>169</v>
-      </c>
       <c r="D68" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
+        <v>483</v>
+      </c>
+      <c r="B70" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>485</v>
+      </c>
+      <c r="B71" t="s">
         <v>484</v>
       </c>
-      <c r="B70" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>486</v>
-      </c>
-      <c r="B71" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>481</v>
+      </c>
+      <c r="B73" t="s">
         <v>482</v>
       </c>
-      <c r="B73" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B75" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B76" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>318</v>
-      </c>
-      <c r="B78" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="23"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -3541,7 +3552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -3552,7 +3563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -3563,1491 +3574,1494 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" t="s">
         <v>200</v>
       </c>
-      <c r="B86" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16">
+      <c r="A89" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16">
+      <c r="A90" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="B89" s="6" t="s">
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>341</v>
+      </c>
+      <c r="B91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16">
+      <c r="A92" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D92" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D91" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B92" s="6" t="s">
+    <row r="93" spans="1:5" ht="16">
+      <c r="A93" s="12" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="B93" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" t="s">
         <v>204</v>
       </c>
-      <c r="B95" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97" t="s">
         <v>250</v>
       </c>
-      <c r="B96" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
-        <v>260</v>
-      </c>
       <c r="B98" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="12" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>337</v>
+      </c>
+      <c r="B100" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
         <v>339</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>340</v>
-      </c>
-      <c r="B101" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="12" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
-        <v>439</v>
-      </c>
       <c r="B103" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="12" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+      <c r="B104" t="s">
         <v>437</v>
       </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="D104" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
+      <c r="B105" t="s">
         <v>435</v>
-      </c>
-      <c r="B105" t="s">
-        <v>434</v>
       </c>
       <c r="D105" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="12" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D106" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="12" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>174</v>
-      </c>
-      <c r="B108" t="s">
-        <v>446</v>
-      </c>
-      <c r="D108" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
+      <c r="B107" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" t="s">
+        <v>445</v>
+      </c>
+      <c r="D109" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B110" t="s">
         <v>476</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D110" t="s">
         <v>477</v>
       </c>
-      <c r="D109" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B110" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
         <v>247</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B112" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" t="s">
         <v>214</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D113" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B114" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116" t="s">
+        <v>441</v>
+      </c>
+      <c r="D116" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B119" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B120" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" t="s">
+        <v>75</v>
+      </c>
+      <c r="D124" t="s">
+        <v>557</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" t="s">
+        <v>556</v>
+      </c>
+      <c r="D126" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" t="s">
+        <v>202</v>
+      </c>
+      <c r="D128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" t="s">
+        <v>206</v>
+      </c>
+      <c r="D129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B130" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" t="s">
+        <v>237</v>
+      </c>
+      <c r="D132" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B134" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B135" t="s">
+        <v>561</v>
+      </c>
+      <c r="D135" t="s">
+        <v>562</v>
+      </c>
+      <c r="E135" s="26"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>80</v>
+      </c>
+      <c r="B137" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>93</v>
+      </c>
+      <c r="B139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>563</v>
+      </c>
+      <c r="B140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D140" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B142" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B146" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B147" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B148" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B149" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>360</v>
+      </c>
+      <c r="B152" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B154" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B155" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B156" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B157" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>489</v>
+      </c>
+      <c r="B158" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>229</v>
+      </c>
+      <c r="B161" t="s">
+        <v>228</v>
+      </c>
+      <c r="D161" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B162" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>347</v>
+      </c>
+      <c r="B163" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>500</v>
+      </c>
+      <c r="B164" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B167" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B168" t="s">
+        <v>283</v>
+      </c>
+      <c r="D168" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B172" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>330</v>
+      </c>
+      <c r="B173" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>329</v>
+      </c>
+      <c r="B174" t="s">
+        <v>414</v>
+      </c>
+      <c r="D174" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B175" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B176" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" t="s">
+        <v>361</v>
+      </c>
+      <c r="D178" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179" t="s">
+        <v>363</v>
+      </c>
+      <c r="D179" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>26</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" t="s">
+        <v>50</v>
+      </c>
+      <c r="D185" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>408</v>
+      </c>
+      <c r="B187" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>95</v>
+      </c>
+      <c r="B188" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B189" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B190" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>180</v>
+      </c>
+      <c r="B191" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>183</v>
+      </c>
+      <c r="B192" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" t="s">
+        <v>187</v>
+      </c>
+      <c r="D193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D112" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B113" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
+      <c r="B195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>216</v>
+      </c>
+      <c r="B196" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B197" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B198" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>287</v>
+      </c>
+      <c r="B199" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>478</v>
+      </c>
+      <c r="B200" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B203" t="s">
+        <v>131</v>
+      </c>
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>143</v>
+      </c>
+      <c r="B204" t="s">
+        <v>133</v>
+      </c>
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>144</v>
+      </c>
+      <c r="B205" t="s">
+        <v>487</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B206" t="s">
+        <v>134</v>
+      </c>
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B207" t="s">
+        <v>135</v>
+      </c>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>147</v>
+      </c>
+      <c r="B208" t="s">
+        <v>136</v>
+      </c>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B209" t="s">
+        <v>137</v>
+      </c>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B210" t="s">
+        <v>138</v>
+      </c>
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B211" t="s">
+        <v>139</v>
+      </c>
+      <c r="D211" s="3"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B212" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B213" t="s">
+        <v>152</v>
+      </c>
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B214" t="s">
+        <v>496</v>
+      </c>
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>156</v>
+      </c>
+      <c r="B215" t="s">
+        <v>153</v>
+      </c>
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B216" t="s">
+        <v>154</v>
+      </c>
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>159</v>
+      </c>
+      <c r="B217" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B218" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B219" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>212</v>
+      </c>
+      <c r="B220" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>218</v>
+      </c>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B223" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B224" t="s">
         <v>260</v>
       </c>
-      <c r="B114" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>306</v>
-      </c>
-      <c r="B115" t="s">
-        <v>442</v>
-      </c>
-      <c r="D115" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B116" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B117" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B118" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B119" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>38</v>
-      </c>
-      <c r="B122" t="s">
-        <v>39</v>
-      </c>
-      <c r="D122" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>74</v>
-      </c>
-      <c r="B123" t="s">
-        <v>75</v>
-      </c>
-      <c r="D123" t="s">
-        <v>558</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B124" t="s">
-        <v>85</v>
-      </c>
-      <c r="D124" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B125" t="s">
-        <v>557</v>
-      </c>
-      <c r="D125" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B126" t="s">
-        <v>199</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B127" t="s">
-        <v>203</v>
-      </c>
-      <c r="D127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B128" t="s">
-        <v>207</v>
-      </c>
-      <c r="D128" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B129" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B130" t="s">
-        <v>240</v>
-      </c>
-      <c r="D130" t="s">
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B225" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B226" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>354</v>
+      </c>
+      <c r="B227" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B228" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B229" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>357</v>
+      </c>
+      <c r="B230" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B233" s="27"/>
+      <c r="C233" s="27"/>
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>117</v>
+      </c>
+      <c r="B234" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B235" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>230</v>
+      </c>
+      <c r="B236" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B131" t="s">
-        <v>238</v>
-      </c>
-      <c r="D131" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B132" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B133" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="B134" t="s">
-        <v>562</v>
-      </c>
-      <c r="D134" t="s">
-        <v>563</v>
-      </c>
-      <c r="E134" s="27"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>80</v>
-      </c>
-      <c r="B136" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B137" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>93</v>
-      </c>
-      <c r="B138" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>110</v>
-      </c>
-      <c r="B139" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B140" t="s">
-        <v>252</v>
-      </c>
-      <c r="D140" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>342</v>
-      </c>
-      <c r="B141" t="s">
-        <v>341</v>
-      </c>
-      <c r="D141" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B142" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>53</v>
-      </c>
-      <c r="B144" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B145" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B146" t="s">
-        <v>284</v>
-      </c>
-      <c r="D146" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B147" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>192</v>
-      </c>
-      <c r="B148" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>332</v>
-      </c>
-      <c r="B149" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B150" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>331</v>
-      </c>
-      <c r="B151" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>330</v>
-      </c>
-      <c r="B152" t="s">
-        <v>415</v>
-      </c>
-      <c r="D152" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B153" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B154" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B155" s="25"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>363</v>
-      </c>
-      <c r="B156" t="s">
-        <v>362</v>
-      </c>
-      <c r="D156" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>365</v>
-      </c>
-      <c r="B157" t="s">
-        <v>364</v>
-      </c>
-      <c r="D157" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B158" s="25"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B160" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B161" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>26</v>
-      </c>
-      <c r="B162" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>49</v>
-      </c>
-      <c r="B163" t="s">
-        <v>50</v>
-      </c>
-      <c r="D163" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>55</v>
-      </c>
-      <c r="B164" t="s">
-        <v>56</v>
-      </c>
-      <c r="D164" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>409</v>
-      </c>
-      <c r="B165" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>95</v>
-      </c>
-      <c r="B166" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B167" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B168" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>181</v>
-      </c>
-      <c r="B169" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>184</v>
-      </c>
-      <c r="B170" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>187</v>
-      </c>
-      <c r="B171" t="s">
-        <v>188</v>
-      </c>
-      <c r="D171" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>196</v>
-      </c>
-      <c r="B172" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B173" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>217</v>
-      </c>
-      <c r="B174" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B175" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B176" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>288</v>
-      </c>
-      <c r="B177" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>479</v>
-      </c>
-      <c r="B178" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B238" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B239" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B240" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246" s="27"/>
+      <c r="C246" s="27"/>
+      <c r="D246" s="27"/>
+      <c r="E246" s="27"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>47</v>
+      </c>
+      <c r="B247" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>61</v>
+      </c>
+      <c r="B248" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" s="10" customFormat="1">
+      <c r="A249" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B249" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B180" s="25"/>
-      <c r="C180" s="25"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B181" t="s">
-        <v>132</v>
-      </c>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>144</v>
-      </c>
-      <c r="B182" t="s">
-        <v>134</v>
-      </c>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>145</v>
-      </c>
-      <c r="B183" t="s">
-        <v>488</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B184" t="s">
-        <v>135</v>
-      </c>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B185" t="s">
-        <v>136</v>
-      </c>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>148</v>
-      </c>
-      <c r="B186" t="s">
-        <v>137</v>
-      </c>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B187" t="s">
-        <v>138</v>
-      </c>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B188" t="s">
-        <v>139</v>
-      </c>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B189" t="s">
-        <v>140</v>
-      </c>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B190" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B191" t="s">
-        <v>153</v>
-      </c>
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B192" t="s">
-        <v>497</v>
-      </c>
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>157</v>
-      </c>
-      <c r="B193" t="s">
-        <v>154</v>
-      </c>
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B194" t="s">
-        <v>155</v>
-      </c>
-      <c r="D194" s="3"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>160</v>
-      </c>
-      <c r="B195" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B196" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B197" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>213</v>
-      </c>
-      <c r="B198" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>221</v>
-      </c>
-      <c r="B199" t="s">
-        <v>219</v>
-      </c>
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>222</v>
-      </c>
-      <c r="B200" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B201" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B202" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B203" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B204" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>355</v>
-      </c>
-      <c r="B205" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B206" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B207" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>358</v>
-      </c>
-      <c r="B208" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>235</v>
-      </c>
-      <c r="B209" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="25" t="s">
+      <c r="E249" s="20"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>77</v>
+      </c>
+      <c r="B250" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>114</v>
+      </c>
+      <c r="B251" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="B252" s="27"/>
+      <c r="C252" s="27"/>
+      <c r="D252" s="27"/>
+      <c r="E252" s="27"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>470</v>
+      </c>
+      <c r="B253" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>472</v>
+      </c>
+      <c r="B254" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
         <v>117</v>
       </c>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>118</v>
-      </c>
-      <c r="B212" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B213" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>231</v>
-      </c>
-      <c r="B214" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B215" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>242</v>
-      </c>
-      <c r="B216" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="B217" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B218" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B224" s="25"/>
-      <c r="C224" s="25"/>
-      <c r="D224" s="25"/>
-      <c r="E224" s="25"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>47</v>
-      </c>
-      <c r="B225" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>61</v>
-      </c>
-      <c r="B226" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B227" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="E227" s="20"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>77</v>
-      </c>
-      <c r="B228" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>115</v>
-      </c>
-      <c r="B229" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="B230" s="25"/>
-      <c r="C230" s="25"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="25"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>471</v>
-      </c>
-      <c r="B231" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>473</v>
-      </c>
-      <c r="B232" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B234" s="25"/>
-      <c r="C234" s="25"/>
-      <c r="D234" s="25"/>
-      <c r="E234" s="25"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>162</v>
-      </c>
-      <c r="B235" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>163</v>
-      </c>
-      <c r="B236" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B237" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B238" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B239" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B240" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B241" s="25"/>
-      <c r="C241" s="25"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="25"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B242" t="s">
-        <v>172</v>
-      </c>
-      <c r="D242" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>361</v>
-      </c>
-      <c r="B243" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B244" s="25"/>
-      <c r="C244" s="25"/>
-      <c r="D244" s="25"/>
-      <c r="E244" s="25"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B245" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B246" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B247" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B248" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>490</v>
-      </c>
-      <c r="B249" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B250" s="25"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>113</v>
-      </c>
-      <c r="B251" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>230</v>
-      </c>
-      <c r="B252" t="s">
-        <v>229</v>
-      </c>
-      <c r="D252" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B253" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>348</v>
-      </c>
-      <c r="B254" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>501</v>
-      </c>
-      <c r="B255" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="25" t="s">
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B256" s="25"/>
-      <c r="C256" s="25"/>
-      <c r="D256" s="25"/>
-      <c r="E256" s="25"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B256" s="27"/>
+      <c r="C256" s="27"/>
+      <c r="D256" s="27"/>
+      <c r="E256" s="27"/>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -5055,125 +5069,125 @@
         <v>92</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B258" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B259" t="s">
         <v>503</v>
       </c>
-      <c r="B259" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B260" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A261" t="s">
         <v>345</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>346</v>
-      </c>
-      <c r="B261" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B262" t="s">
         <v>383</v>
       </c>
-      <c r="B262" t="s">
+      <c r="D262" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D262" s="4" t="s">
+    </row>
+    <row r="263" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A263" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B263" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="8" t="s">
+    <row r="264" spans="1:5" ht="18">
+      <c r="A264" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B264" t="s">
+        <v>321</v>
+      </c>
+      <c r="D264" t="s">
+        <v>281</v>
+      </c>
+      <c r="E264" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="B263" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A264" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B264" t="s">
-        <v>322</v>
-      </c>
-      <c r="D264" t="s">
-        <v>282</v>
-      </c>
-      <c r="E264" s="19" t="s">
+    </row>
+    <row r="265" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A265" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="8" t="s">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A266" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="8" t="s">
+    </row>
+    <row r="267" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A267" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B266" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="8" t="s">
+      <c r="D267" t="s">
         <v>394</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D267" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A244:E244"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A252:E252"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="A246:E246"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A202:E202"/>
     <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A153:E153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D183" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D205" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA59D4-5982-D54F-9996-4F1E0CBB9DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED28345-54AE-7A47-A36F-8B4096F02B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1460" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5060" yWindow="1740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="571">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,10 +689,6 @@
   </si>
   <si>
     <t>分割回文串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DP+DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2237,6 +2229,38 @@
   </si>
   <si>
     <t>要求常数空间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个专题还未整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划+深搜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈和队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串转整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长公共前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路比较巧妙，我觉得这道题不简单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2389,7 +2413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2423,10 +2447,11 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2708,10 +2733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2731,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -2741,13 +2766,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -2762,18 +2787,18 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" t="s">
         <v>509</v>
       </c>
-      <c r="B4" t="s">
-        <v>511</v>
-      </c>
       <c r="C4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2798,10 +2823,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2812,40 +2837,40 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -2855,15 +2880,15 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -2871,10 +2896,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -2882,143 +2907,143 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
       <c r="C14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="B15" t="s">
-        <v>166</v>
-      </c>
       <c r="C15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" t="s">
+        <v>514</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="C22" t="s">
-        <v>516</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" t="s">
+        <v>515</v>
+      </c>
+      <c r="D23" t="s">
         <v>376</v>
-      </c>
-      <c r="C23" t="s">
-        <v>517</v>
-      </c>
-      <c r="D23" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -3036,7 +3061,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -3050,101 +3075,101 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
       <c r="D28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
         <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
         <v>99</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
         <v>104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
         <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1">
       <c r="A33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
         <v>125</v>
       </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
       <c r="D34" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
         <v>127</v>
-      </c>
-      <c r="B35" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -3152,221 +3177,221 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D39" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D44" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B51" t="s">
+        <v>534</v>
+      </c>
+      <c r="C51" t="s">
         <v>529</v>
       </c>
-      <c r="B51" t="s">
-        <v>536</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>531</v>
-      </c>
-      <c r="D51" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B52" t="s">
+        <v>533</v>
+      </c>
+      <c r="C52" t="s">
         <v>530</v>
       </c>
-      <c r="B52" t="s">
-        <v>535</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>532</v>
-      </c>
-      <c r="D52" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D56" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="14"/>
       <c r="B61" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
@@ -3386,125 +3411,125 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
         <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
         <v>70</v>
-      </c>
-      <c r="B66" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
         <v>82</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" t="s">
         <v>167</v>
       </c>
-      <c r="B68" t="s">
-        <v>168</v>
-      </c>
       <c r="D68" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B76" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -3512,20 +3537,20 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B80" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
@@ -3543,21 +3568,21 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" t="s">
         <v>63</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
         <v>64</v>
-      </c>
-      <c r="D83" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" t="s">
         <v>66</v>
-      </c>
-      <c r="B84" t="s">
-        <v>67</v>
       </c>
       <c r="D84" t="s">
         <v>31</v>
@@ -3565,10 +3590,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
         <v>102</v>
-      </c>
-      <c r="B85" t="s">
-        <v>103</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
@@ -3576,318 +3601,318 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16">
       <c r="A90" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B91" t="s">
-        <v>340</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>280</v>
+        <v>338</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D92" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16">
       <c r="A93" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
+      <c r="A94" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" t="s">
         <v>59</v>
-      </c>
-      <c r="B95" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B104" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B105" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D105" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B106" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D106" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
+      <c r="A108" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B109" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D109" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B110" t="s">
+        <v>474</v>
+      </c>
+      <c r="D110" t="s">
         <v>475</v>
-      </c>
-      <c r="B110" t="s">
-        <v>476</v>
-      </c>
-      <c r="D110" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D113" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B114" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B116" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D116" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B117" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B118" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B119" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B120" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="27" t="s">
+      <c r="A121" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
@@ -3913,540 +3938,543 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" t="s">
         <v>74</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
+        <v>555</v>
+      </c>
+      <c r="E124" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="D124" t="s">
-        <v>557</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" t="s">
         <v>84</v>
       </c>
-      <c r="B125" t="s">
-        <v>85</v>
-      </c>
       <c r="D125" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B126" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D126" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B127" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B131" t="s">
+        <v>237</v>
+      </c>
+      <c r="D131" t="s">
         <v>238</v>
-      </c>
-      <c r="B131" t="s">
-        <v>239</v>
-      </c>
-      <c r="D131" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D132" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B135" t="s">
+        <v>559</v>
+      </c>
+      <c r="D135" t="s">
         <v>560</v>
       </c>
-      <c r="B135" t="s">
-        <v>561</v>
-      </c>
-      <c r="D135" t="s">
-        <v>562</v>
-      </c>
       <c r="E135" s="26"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
+      <c r="A136" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B137" t="s">
         <v>80</v>
-      </c>
-      <c r="B137" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138" t="s">
         <v>86</v>
-      </c>
-      <c r="B138" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
+        <v>92</v>
+      </c>
+      <c r="B139" t="s">
         <v>93</v>
-      </c>
-      <c r="B139" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B140" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D140" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
+        <v>249</v>
+      </c>
+      <c r="D141" t="s">
         <v>251</v>
-      </c>
-      <c r="D141" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B142" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
+      <c r="A143" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144" t="s">
-        <v>365</v>
+        <v>363</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B147" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B148" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B149" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="27" t="s">
+      <c r="A150" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="8" t="s">
+      <c r="B151" t="s">
         <v>170</v>
       </c>
-      <c r="B151" t="s">
-        <v>171</v>
-      </c>
       <c r="D151" t="s">
-        <v>172</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B152" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B153" s="27"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="8" t="s">
+      <c r="A154" t="s">
+        <v>566</v>
+      </c>
+      <c r="B154" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>568</v>
+      </c>
+      <c r="B155" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>487</v>
+      </c>
+      <c r="B156" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B157" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B155" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="8" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B158" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B159" t="s">
         <v>422</v>
       </c>
-      <c r="B156" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B157" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>489</v>
-      </c>
-      <c r="B158" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B159" s="27"/>
-      <c r="C159" s="27"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
+      <c r="D159" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>112</v>
-      </c>
-      <c r="B160" t="s">
-        <v>113</v>
-      </c>
+      <c r="A160" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
-      </c>
-      <c r="D161" t="s">
-        <v>379</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="8" t="s">
-        <v>275</v>
+      <c r="A162" t="s">
+        <v>227</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>226</v>
+      </c>
+      <c r="D162" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>347</v>
+      <c r="A163" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="B163" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="B164" t="s">
-        <v>501</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="27" t="s">
+      <c r="A165" t="s">
+        <v>498</v>
+      </c>
+      <c r="B165" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
         <v>52</v>
       </c>
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" t="s">
+      <c r="B167" t="s">
         <v>53</v>
-      </c>
-      <c r="B166" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B167" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B168" t="s">
-        <v>283</v>
-      </c>
-      <c r="D168" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="8" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="B169" t="s">
-        <v>190</v>
+        <v>281</v>
+      </c>
+      <c r="D169" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>191</v>
+      <c r="A170" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="8" t="s">
-        <v>412</v>
+      <c r="A172" t="s">
+        <v>329</v>
       </c>
       <c r="B172" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>330</v>
+      <c r="A173" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="B173" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B174" t="s">
-        <v>414</v>
-      </c>
-      <c r="D174" t="s">
-        <v>120</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="8" t="s">
-        <v>416</v>
+      <c r="A175" t="s">
+        <v>327</v>
       </c>
       <c r="B175" t="s">
-        <v>415</v>
+        <v>412</v>
+      </c>
+      <c r="D175" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B176" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
+      <c r="A177" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B177" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>362</v>
-      </c>
-      <c r="B178" t="s">
-        <v>361</v>
-      </c>
-      <c r="D178" t="s">
-        <v>381</v>
-      </c>
+      <c r="A178" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B179" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D179" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="27" t="s">
+      <c r="A180" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180" t="s">
+        <v>361</v>
+      </c>
+      <c r="D180" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
         <v>15</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>16</v>
-      </c>
-      <c r="C181" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B182" t="s">
-        <v>17</v>
       </c>
       <c r="C182" t="s">
         <v>21</v>
@@ -4454,21 +4482,21 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C183" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" t="s">
-        <v>26</v>
+      <c r="A184" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="B184" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C184" t="s">
         <v>21</v>
@@ -4476,718 +4504,729 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B185" t="s">
-        <v>50</v>
-      </c>
-      <c r="D185" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="C185" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D186" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>408</v>
+        <v>54</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>55</v>
+      </c>
+      <c r="D187" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
+        <v>406</v>
+      </c>
+      <c r="B188" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>94</v>
+      </c>
+      <c r="B189" t="s">
         <v>95</v>
-      </c>
-      <c r="B188" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B189" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
-        <v>176</v>
+        <v>403</v>
       </c>
       <c r="B190" t="s">
-        <v>177</v>
+        <v>404</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>180</v>
+      <c r="A191" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="B191" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B192" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B193" t="s">
-        <v>187</v>
-      </c>
-      <c r="D193" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+      <c r="D194" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="8" t="s">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" t="s">
         <v>215</v>
       </c>
-      <c r="B195" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>216</v>
-      </c>
-      <c r="B196" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="8" t="s">
-        <v>409</v>
+      <c r="A197" t="s">
+        <v>214</v>
       </c>
       <c r="B197" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B198" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>287</v>
+      <c r="A199" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="B199" t="s">
-        <v>286</v>
+        <v>409</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>478</v>
+        <v>285</v>
       </c>
       <c r="B200" t="s">
-        <v>479</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>491</v>
+        <v>476</v>
+      </c>
+      <c r="B201" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="27" t="s">
+      <c r="A202" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="28"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B204" t="s">
         <v>130</v>
-      </c>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B203" t="s">
-        <v>131</v>
-      </c>
-      <c r="D203" s="3"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>143</v>
-      </c>
-      <c r="B204" t="s">
-        <v>133</v>
       </c>
       <c r="D204" s="3"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B205" t="s">
-        <v>487</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>488</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D205" s="3"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="8" t="s">
-        <v>145</v>
+      <c r="A206" t="s">
+        <v>143</v>
       </c>
       <c r="B206" t="s">
-        <v>134</v>
-      </c>
-      <c r="D206" s="3"/>
+        <v>485</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B207" t="s">
+        <v>133</v>
+      </c>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B208" t="s">
+        <v>134</v>
+      </c>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
         <v>146</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B209" t="s">
         <v>135</v>
-      </c>
-      <c r="D207" s="3"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>147</v>
-      </c>
-      <c r="B208" t="s">
-        <v>136</v>
-      </c>
-      <c r="D208" s="3"/>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B209" t="s">
-        <v>137</v>
       </c>
       <c r="D209" s="3"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B210" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D210" s="3"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B211" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D211" s="3"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B212" t="s">
-        <v>140</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B213" t="s">
-        <v>152</v>
-      </c>
-      <c r="D213" s="3"/>
+        <v>139</v>
+      </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="8" t="s">
-        <v>495</v>
+        <v>154</v>
       </c>
       <c r="B214" t="s">
-        <v>496</v>
+        <v>151</v>
       </c>
       <c r="D214" s="3"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" t="s">
+      <c r="A215" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B215" t="s">
+        <v>494</v>
+      </c>
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" t="s">
+        <v>152</v>
+      </c>
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B217" t="s">
         <v>153</v>
       </c>
-      <c r="D215" s="3"/>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B216" t="s">
-        <v>154</v>
-      </c>
-      <c r="D216" s="3"/>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>158</v>
+      </c>
+      <c r="B218" t="s">
         <v>159</v>
-      </c>
-      <c r="B217" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B218" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="8" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="B219" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>212</v>
+      <c r="A220" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B220" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B221" t="s">
-        <v>218</v>
-      </c>
-      <c r="D221" s="3"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B222" t="s">
+        <v>216</v>
+      </c>
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="B223" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B224" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>497</v>
+        <v>259</v>
       </c>
       <c r="B225" t="s">
-        <v>498</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="B226" t="s">
-        <v>348</v>
+        <v>496</v>
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>354</v>
+      <c r="A227" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="B227" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="8" t="s">
-        <v>355</v>
+      <c r="A228" t="s">
+        <v>352</v>
       </c>
       <c r="B228" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B229" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>357</v>
+      <c r="A230" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="B230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>499</v>
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="27" t="s">
+      <c r="A233" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B234" s="28"/>
+      <c r="C234" s="28"/>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
         <v>116</v>
       </c>
-      <c r="B233" s="27"/>
-      <c r="C233" s="27"/>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
+      <c r="B235" t="s">
         <v>117</v>
       </c>
-      <c r="B234" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="8" t="s">
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B236" t="s">
         <v>163</v>
       </c>
-      <c r="B235" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>228</v>
+      </c>
+      <c r="B237" t="s">
         <v>230</v>
       </c>
-      <c r="B236" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="8" t="s">
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" t="s">
         <v>231</v>
       </c>
-      <c r="B237" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
-        <v>241</v>
-      </c>
-      <c r="B238" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="8" t="s">
-        <v>493</v>
+      <c r="A239" t="s">
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>494</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="8" t="s">
-        <v>403</v>
+        <v>491</v>
       </c>
       <c r="B240" t="s">
-        <v>404</v>
+        <v>492</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
-        <v>508</v>
+        <v>401</v>
+      </c>
+      <c r="B241" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="27" t="s">
+      <c r="A246" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B246" s="27"/>
-      <c r="C246" s="27"/>
-      <c r="D246" s="27"/>
-      <c r="E246" s="27"/>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
-        <v>47</v>
-      </c>
-      <c r="B247" t="s">
-        <v>48</v>
-      </c>
+      <c r="B247" s="28"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="28"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
+        <v>47</v>
+      </c>
+      <c r="B248" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>60</v>
+      </c>
+      <c r="B249" t="s">
         <v>61</v>
       </c>
-      <c r="B248" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" s="10" customFormat="1">
-      <c r="A249" s="13" t="s">
+    </row>
+    <row r="250" spans="1:5" s="10" customFormat="1">
+      <c r="A250" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B250" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B249" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C249" s="21"/>
-      <c r="D249" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E249" s="20"/>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
-        <v>77</v>
-      </c>
-      <c r="B250" t="s">
-        <v>78</v>
-      </c>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E250" s="20"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
+        <v>76</v>
+      </c>
+      <c r="B251" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>113</v>
+      </c>
+      <c r="B252" t="s">
         <v>114</v>
       </c>
-      <c r="B251" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="B252" s="27"/>
-      <c r="C252" s="27"/>
-      <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" t="s">
-        <v>470</v>
-      </c>
-      <c r="B253" t="s">
-        <v>471</v>
-      </c>
+      <c r="A253" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="B253" s="28"/>
+      <c r="C253" s="28"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B254" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>117</v>
+        <v>470</v>
+      </c>
+      <c r="B255" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="27" t="s">
+      <c r="A256" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B257" s="28"/>
+      <c r="C257" s="28"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="28"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
         <v>90</v>
       </c>
-      <c r="B256" s="27"/>
-      <c r="C256" s="27"/>
-      <c r="D256" s="27"/>
-      <c r="E256" s="27"/>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" t="s">
+      <c r="B258" t="s">
         <v>91</v>
-      </c>
-      <c r="B257" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B258" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
-        <v>502</v>
+        <v>173</v>
       </c>
       <c r="B259" t="s">
-        <v>503</v>
+        <v>172</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
       <c r="B260" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="8" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A261" t="s">
-        <v>345</v>
-      </c>
       <c r="B261" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A262" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A262" s="8" t="s">
-        <v>382</v>
-      </c>
       <c r="B262" t="s">
-        <v>383</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1">
       <c r="A263" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B263" t="s">
+        <v>381</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A264" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B264" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="18">
+      <c r="A265" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B265" t="s">
+        <v>319</v>
+      </c>
+      <c r="D265" t="s">
+        <v>279</v>
+      </c>
+      <c r="E265" s="19" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="18">
-      <c r="A264" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B264" t="s">
-        <v>321</v>
-      </c>
-      <c r="D264" t="s">
-        <v>281</v>
-      </c>
-      <c r="E264" s="19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A265" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1">
       <c r="A267" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B267" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A268" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D268" t="s">
         <v>392</v>
-      </c>
-      <c r="D267" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A153:E153"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A252:E252"/>
+    <mergeCell ref="A253:E253"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A246:E246"/>
-    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A166:E166"/>
     <mergeCell ref="A94:E94"/>
     <mergeCell ref="A136:E136"/>
     <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A181:E181"/>
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="A121:E121"/>
     <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A178:E178"/>
     <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A202:E202"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A153:E153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D205" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D206" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED28345-54AE-7A47-A36F-8B4096F02B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4B2D2-286D-9C4F-89CD-99A3B24DEAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="1740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,10 +1070,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最长上升子序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1501,10 +1497,6 @@
   </si>
   <si>
     <t>和L167类似（右端点剪枝，开方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆排：时间复杂度 O(NlogK)，空间复杂度 O(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2261,6 +2253,14 @@
   </si>
   <si>
     <t>思路比较巧妙，我觉得这道题不简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排：时间复杂度 O(NlogK)，空间复杂度 O(k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆（优先级队列）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2448,10 +2448,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2756,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -2766,13 +2766,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -2787,18 +2787,18 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" t="s">
         <v>507</v>
       </c>
-      <c r="B4" t="s">
-        <v>509</v>
-      </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2837,40 +2837,40 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -2880,15 +2880,15 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -2913,7 +2913,7 @@
         <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2924,7 +2924,7 @@
         <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2935,7 +2935,7 @@
         <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2946,10 +2946,10 @@
         <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1">
@@ -2960,90 +2960,90 @@
         <v>265</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" t="s">
         <v>276</v>
       </c>
-      <c r="B20" t="s">
-        <v>277</v>
-      </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="B22" t="s">
-        <v>367</v>
-      </c>
-      <c r="C22" t="s">
-        <v>514</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" t="s">
+        <v>513</v>
+      </c>
+      <c r="D23" t="s">
         <v>375</v>
-      </c>
-      <c r="B23" t="s">
-        <v>374</v>
-      </c>
-      <c r="C23" t="s">
-        <v>515</v>
-      </c>
-      <c r="D23" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -3061,7 +3061,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -3081,7 +3081,7 @@
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E33" s="18"/>
     </row>
@@ -3137,7 +3137,7 @@
         <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3156,7 +3156,7 @@
         <v>131</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3169,7 +3169,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -3180,10 +3180,10 @@
         <v>241</v>
       </c>
       <c r="B39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D39" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3194,7 +3194,7 @@
         <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3205,193 +3205,193 @@
         <v>261</v>
       </c>
       <c r="D41" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D44" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D48" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" t="s">
+        <v>532</v>
+      </c>
+      <c r="C51" t="s">
         <v>527</v>
       </c>
-      <c r="B51" t="s">
-        <v>534</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>529</v>
-      </c>
-      <c r="D51" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B52" t="s">
+        <v>531</v>
+      </c>
+      <c r="C52" t="s">
         <v>528</v>
       </c>
-      <c r="B52" t="s">
-        <v>533</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>530</v>
-      </c>
-      <c r="D52" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D56" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="14"/>
       <c r="B61" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
@@ -3441,7 +3441,7 @@
         <v>167</v>
       </c>
       <c r="D68" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3454,18 +3454,18 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B71" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3478,58 +3478,58 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B73" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B76" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -3537,20 +3537,20 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B80" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
@@ -3609,74 +3609,74 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16">
       <c r="A90" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16">
       <c r="A93" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="12" t="s">
@@ -3720,103 +3720,103 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B103" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B104" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D105" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B106" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D106" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B107" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>171</v>
       </c>
       <c r="B109" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D109" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B110" t="s">
+        <v>472</v>
+      </c>
+      <c r="D110" t="s">
         <v>473</v>
-      </c>
-      <c r="B110" t="s">
-        <v>474</v>
-      </c>
-      <c r="D110" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3843,15 +3843,15 @@
         <v>212</v>
       </c>
       <c r="D113" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3859,60 +3859,60 @@
         <v>257</v>
       </c>
       <c r="B115" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B116" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D116" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B119" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B120" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
@@ -3944,7 +3944,7 @@
         <v>74</v>
       </c>
       <c r="D124" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>75</v>
@@ -3958,7 +3958,7 @@
         <v>84</v>
       </c>
       <c r="D125" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3966,10 +3966,10 @@
         <v>100</v>
       </c>
       <c r="B126" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D126" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3980,7 +3980,7 @@
         <v>196</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4032,7 +4032,7 @@
         <v>235</v>
       </c>
       <c r="D132" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4045,32 +4045,32 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" t="s">
         <v>274</v>
-      </c>
-      <c r="B134" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B135" t="s">
+        <v>557</v>
+      </c>
+      <c r="D135" t="s">
         <v>558</v>
       </c>
-      <c r="B135" t="s">
-        <v>559</v>
-      </c>
-      <c r="D135" t="s">
-        <v>560</v>
-      </c>
       <c r="E135" s="26"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="28" t="s">
+      <c r="A136" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
@@ -4098,13 +4098,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B140" t="s">
         <v>109</v>
       </c>
       <c r="D140" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4120,30 +4120,30 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B142" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>160</v>
       </c>
       <c r="B144" t="s">
-        <v>363</v>
-      </c>
-      <c r="D144" s="29" t="s">
-        <v>563</v>
+        <v>362</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4151,49 +4151,49 @@
         <v>161</v>
       </c>
       <c r="B145" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B146" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B147" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B148" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B149" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="28" t="s">
+      <c r="A150" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="12" t="s">
@@ -4203,85 +4203,85 @@
         <v>170</v>
       </c>
       <c r="D151" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B154" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B155" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B156" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B157" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B158" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B159" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D159" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="28" t="s">
+      <c r="A160" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
@@ -4292,182 +4292,182 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>227</v>
+      <c r="A162" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
-      </c>
-      <c r="D162" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="8" t="s">
-        <v>273</v>
+      <c r="A163" t="s">
+        <v>496</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>497</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B164" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>498</v>
-      </c>
-      <c r="B165" t="s">
-        <v>499</v>
-      </c>
+      <c r="A165" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28"/>
+      <c r="A166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" t="s">
+        <v>226</v>
+      </c>
+      <c r="D166" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
+        <v>359</v>
+      </c>
+      <c r="B167" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>361</v>
+      </c>
+      <c r="B168" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
         <v>52</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B170" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="8" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B171" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="8" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B169" t="s">
-        <v>281</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="B172" t="s">
+        <v>280</v>
+      </c>
+      <c r="D172" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>189</v>
-      </c>
-      <c r="B171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>329</v>
-      </c>
-      <c r="B172" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="8" t="s">
-        <v>410</v>
+        <v>187</v>
       </c>
       <c r="B173" t="s">
-        <v>411</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="B174" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B175" t="s">
-        <v>412</v>
-      </c>
-      <c r="D175" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B176" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>327</v>
+      </c>
+      <c r="B177" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>326</v>
+      </c>
+      <c r="B178" t="s">
+        <v>410</v>
+      </c>
+      <c r="D178" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B179" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B180" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B177" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>360</v>
-      </c>
-      <c r="B179" t="s">
-        <v>359</v>
-      </c>
-      <c r="D179" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" t="s">
-        <v>362</v>
-      </c>
-      <c r="B180" t="s">
-        <v>361</v>
-      </c>
-      <c r="D180" t="s">
-        <v>378</v>
-      </c>
-    </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="28" t="s">
+      <c r="A181" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
@@ -4482,7 +4482,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>17</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>18</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B188" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4553,10 +4553,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B190" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4615,54 +4615,54 @@
         <v>214</v>
       </c>
       <c r="B197" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B198" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B199" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B201" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="28" t="s">
+      <c r="A203" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B203" s="28"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
-      <c r="E203" s="28"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="8" t="s">
@@ -4687,10 +4687,10 @@
         <v>143</v>
       </c>
       <c r="B206" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4766,10 +4766,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B215" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D215" s="3"/>
     </row>
@@ -4858,50 +4858,50 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B226" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B227" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B228" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B229" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B230" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B231" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4914,17 +4914,17 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="28" t="s">
+      <c r="A234" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B234" s="28"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="28"/>
-      <c r="E234" s="28"/>
+      <c r="B234" s="29"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="29"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
@@ -4968,53 +4968,53 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B240" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B241" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="28" t="s">
+      <c r="A247" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B247" s="28"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="28"/>
-      <c r="E247" s="28"/>
+      <c r="B247" s="29"/>
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C250" s="21"/>
       <c r="D250" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E250" s="20"/>
     </row>
@@ -5062,28 +5062,28 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="B253" s="28"/>
-      <c r="C253" s="28"/>
-      <c r="D253" s="28"/>
-      <c r="E253" s="28"/>
+      <c r="A253" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B253" s="29"/>
+      <c r="C253" s="29"/>
+      <c r="D253" s="29"/>
+      <c r="E253" s="29"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B254" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B255" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5092,13 +5092,13 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="28" t="s">
+      <c r="A257" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
-      <c r="E257" s="28"/>
+      <c r="B257" s="29"/>
+      <c r="C257" s="29"/>
+      <c r="D257" s="29"/>
+      <c r="E257" s="29"/>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
@@ -5118,102 +5118,96 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B260" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B261" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B262" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1">
       <c r="A263" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B263" t="s">
+        <v>379</v>
+      </c>
+      <c r="D263" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="B263" t="s">
-        <v>381</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B264" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="18">
       <c r="A265" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B265" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D265" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E265" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1">
       <c r="A267" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1">
       <c r="A268" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D268" t="s">
         <v>390</v>
-      </c>
-      <c r="D268" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A153:E153"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A253:E253"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A247:E247"/>
-    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="A169:E169"/>
     <mergeCell ref="A94:E94"/>
     <mergeCell ref="A136:E136"/>
     <mergeCell ref="A62:E62"/>
@@ -5221,8 +5215,14 @@
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="A121:E121"/>
     <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A165:E165"/>
     <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A153:E153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4B2D2-286D-9C4F-89CD-99A3B24DEAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AE016-4E5E-3D44-8FF2-80BDCEB04AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="1740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="571">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4375,7 +4375,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B171" t="s">
@@ -4383,7 +4383,7 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B172" t="s">
@@ -4394,7 +4394,7 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="12" t="s">
         <v>187</v>
       </c>
       <c r="B173" t="s">
@@ -4418,11 +4418,14 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="12" t="s">
         <v>408</v>
       </c>
       <c r="B176" t="s">
         <v>409</v>
+      </c>
+      <c r="D176" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4445,7 +4448,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="12" t="s">
         <v>412</v>
       </c>
       <c r="B179" t="s">
@@ -4453,7 +4456,7 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="12" t="s">
         <v>414</v>
       </c>
       <c r="B180" t="s">
@@ -5202,6 +5205,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A153:E153"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A253:E253"/>
@@ -5217,12 +5226,6 @@
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A165:E165"/>
     <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A153:E153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AE016-4E5E-3D44-8FF2-80BDCEB04AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC518682-3774-2C4A-BAE3-96DAD93AEBDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1740" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="1760" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排列与组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1847,10 +1843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>递归回溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">L51 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1938,10 +1930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以用动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L785</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2261,6 +2249,18 @@
   </si>
   <si>
     <t>堆（优先级队列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归与回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵中搜索单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以用动态规划做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2332,7 +2332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2381,6 +2381,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2413,7 +2419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2452,6 +2458,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2733,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2756,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -2787,18 +2794,18 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2823,10 +2830,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2837,35 +2844,35 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="29" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -2880,15 +2887,15 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -2896,10 +2903,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -2907,133 +2914,133 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
         <v>122</v>
       </c>
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
       <c r="C14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
         <v>164</v>
       </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s">
         <v>191</v>
       </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
       <c r="C16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" t="s">
         <v>262</v>
       </c>
-      <c r="B17" t="s">
-        <v>263</v>
-      </c>
       <c r="C17" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D17" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1">
       <c r="A18" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>265</v>
-      </c>
       <c r="C18" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" t="s">
         <v>275</v>
       </c>
-      <c r="B20" t="s">
-        <v>276</v>
-      </c>
       <c r="C20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="B22" t="s">
-        <v>366</v>
-      </c>
-      <c r="C22" t="s">
-        <v>512</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" t="s">
+        <v>510</v>
+      </c>
+      <c r="D23" t="s">
         <v>374</v>
-      </c>
-      <c r="B23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C23" t="s">
-        <v>513</v>
-      </c>
-      <c r="D23" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C24" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
@@ -3061,7 +3068,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -3075,170 +3082,167 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>515</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="12" customFormat="1">
-      <c r="A33" s="11" t="s">
+    </row>
+    <row r="32" spans="1:5" s="12" customFormat="1">
+      <c r="A32" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
         <v>516</v>
       </c>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D38" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="3" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" t="s">
         <v>519</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D43" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>260</v>
-      </c>
-      <c r="B41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="12" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>301</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>296</v>
       </c>
-      <c r="D43" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B44" t="s">
-        <v>453</v>
-      </c>
-      <c r="D44" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>302</v>
       </c>
@@ -3246,35 +3250,35 @@
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D47" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>303</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D48" t="s">
-        <v>534</v>
-      </c>
-    </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="A49" s="12" t="s">
         <v>304</v>
       </c>
       <c r="B49" t="s">
@@ -3283,37 +3287,37 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
-        <v>305</v>
+        <v>522</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>529</v>
+      </c>
+      <c r="C50" t="s">
+        <v>524</v>
+      </c>
+      <c r="D50" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B51" t="s">
+        <v>528</v>
+      </c>
+      <c r="C51" t="s">
         <v>525</v>
       </c>
-      <c r="B51" t="s">
-        <v>532</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>527</v>
-      </c>
-      <c r="D51" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="B52" t="s">
-        <v>531</v>
-      </c>
-      <c r="C52" t="s">
-        <v>528</v>
-      </c>
-      <c r="D52" t="s">
+        <v>445</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>530</v>
       </c>
     </row>
@@ -3322,12 +3326,12 @@
         <v>446</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>533</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>448</v>
@@ -3335,121 +3339,121 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>449</v>
+        <v>461</v>
+      </c>
+      <c r="D55" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="D56" t="s">
-        <v>535</v>
-      </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>463</v>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="14"/>
       <c r="B60" s="15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15" t="s">
-        <v>538</v>
-      </c>
+      <c r="A61" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>24</v>
+      <c r="A63" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="12" t="s">
-        <v>69</v>
+      <c r="A66" t="s">
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>166</v>
+      </c>
+      <c r="D67" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" t="s">
-        <v>541</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>477</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3457,269 +3461,269 @@
         <v>479</v>
       </c>
       <c r="B70" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>481</v>
+      <c r="A71" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="B71" t="s">
-        <v>480</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="12" t="s">
-        <v>255</v>
+      <c r="A72" t="s">
+        <v>475</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>477</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s">
-        <v>478</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" t="s">
+      <c r="A74" s="12" t="s">
         <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
-        <v>418</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s">
-        <v>419</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="12" t="s">
+      <c r="A77" t="s">
         <v>313</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" t="s">
+      <c r="A78" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B78" t="s">
-        <v>308</v>
-      </c>
+      <c r="B78" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="23"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A79" s="22" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="29" t="s">
+      <c r="B79" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A80" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D83" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>101</v>
+      <c r="A85" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="12" t="s">
-        <v>197</v>
+      <c r="A86" t="s">
+        <v>316</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>317</v>
-      </c>
-      <c r="B87" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16">
+      <c r="A87" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>395</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
-        <v>542</v>
+        <v>397</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="16">
-      <c r="A90" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>338</v>
-      </c>
-      <c r="B91" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
         <v>337</v>
       </c>
-      <c r="D91" s="27" t="s">
-        <v>277</v>
+      <c r="B90" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16">
+      <c r="A91" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D91" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D92" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="16">
-      <c r="A93" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>391</v>
-      </c>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="12" t="s">
-        <v>58</v>
+      <c r="A95" t="s">
+        <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>201</v>
+      <c r="A96" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="12" t="s">
-        <v>247</v>
+      <c r="A97" t="s">
+        <v>220</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>221</v>
+      <c r="A98" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="12" t="s">
-        <v>257</v>
+      <c r="A99" t="s">
+        <v>333</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" t="s">
+      <c r="A100" s="12" t="s">
         <v>334</v>
       </c>
       <c r="B100" t="s">
@@ -3727,7 +3731,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="12" t="s">
+      <c r="A101" t="s">
         <v>335</v>
       </c>
       <c r="B101" t="s">
@@ -3735,142 +3739,142 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>336</v>
+      <c r="A102" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="B102" t="s">
-        <v>332</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B103" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B104" t="s">
-        <v>433</v>
+        <v>430</v>
+      </c>
+      <c r="D104" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B105" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D105" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B106" t="s">
-        <v>429</v>
-      </c>
-      <c r="D106" t="s">
-        <v>548</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="B107" t="s">
-        <v>424</v>
-      </c>
+      <c r="A107" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
+      <c r="A108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>171</v>
+      <c r="A109" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="B109" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="D109" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="12" t="s">
-        <v>471</v>
+        <v>244</v>
       </c>
       <c r="B110" t="s">
-        <v>472</v>
-      </c>
-      <c r="D110" t="s">
-        <v>473</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="12" t="s">
-        <v>244</v>
+      <c r="A112" t="s">
+        <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>242</v>
+        <v>211</v>
+      </c>
+      <c r="D112" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>211</v>
+      <c r="A113" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
-      </c>
-      <c r="D113" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="12" t="s">
-        <v>443</v>
+        <v>256</v>
       </c>
       <c r="B114" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="12" t="s">
-        <v>257</v>
+      <c r="A115" t="s">
+        <v>301</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>436</v>
+      </c>
+      <c r="D115" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>302</v>
+      <c r="A116" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="B116" t="s">
-        <v>437</v>
-      </c>
-      <c r="D116" t="s">
-        <v>550</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3883,257 +3887,260 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="12" t="s">
-        <v>323</v>
+        <v>438</v>
       </c>
       <c r="B118" t="s">
-        <v>321</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="12" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B119" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B120" t="s">
-        <v>444</v>
-      </c>
+      <c r="A120" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="D122" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D123" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>73</v>
+      <c r="A124" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D124" t="s">
-        <v>553</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>75</v>
+        <v>548</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>84</v>
+        <v>549</v>
       </c>
       <c r="D125" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" t="s">
-        <v>552</v>
-      </c>
-      <c r="D126" t="s">
-        <v>553</v>
-      </c>
-    </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="25" t="s">
-        <v>195</v>
+      <c r="A127" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>196</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>554</v>
+        <v>199</v>
+      </c>
+      <c r="D127" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
-      </c>
-      <c r="D129" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="12" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>236</v>
+      </c>
+      <c r="D130" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D131" t="s">
-        <v>238</v>
+        <v>552</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="12" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="B132" t="s">
-        <v>235</v>
-      </c>
-      <c r="D132" t="s">
-        <v>555</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="12" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="12" t="s">
-        <v>273</v>
+        <v>553</v>
       </c>
       <c r="B134" t="s">
-        <v>274</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="D134" t="s">
+        <v>555</v>
+      </c>
+      <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="B135" t="s">
-        <v>557</v>
-      </c>
-      <c r="D135" t="s">
-        <v>558</v>
-      </c>
-      <c r="E135" s="26"/>
+      <c r="A135" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="29" t="s">
+      <c r="A136" t="s">
         <v>78</v>
       </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
+      <c r="B136" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B137" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B138" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>92</v>
+        <v>556</v>
       </c>
       <c r="B139" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="D139" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>559</v>
+      <c r="A140" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="D140" t="s">
-        <v>560</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="12" t="s">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
-      </c>
-      <c r="D141" t="s">
-        <v>251</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B142" t="s">
-        <v>547</v>
-      </c>
+      <c r="A142" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
+      <c r="A143" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>361</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
@@ -4142,13 +4149,10 @@
       <c r="B144" t="s">
         <v>362</v>
       </c>
-      <c r="D144" s="28" t="s">
-        <v>561</v>
-      </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>161</v>
+      <c r="A145" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B145" t="s">
         <v>363</v>
@@ -4156,7 +4160,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="B146" t="s">
         <v>364</v>
@@ -4164,10 +4168,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8" t="s">
-        <v>355</v>
+        <v>456</v>
       </c>
       <c r="B147" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4175,309 +4179,312 @@
         <v>457</v>
       </c>
       <c r="B148" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B149" t="s">
-        <v>459</v>
-      </c>
+      <c r="A149" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="29" t="s">
+      <c r="A150" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
+      <c r="B150" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="12" t="s">
-        <v>169</v>
+      <c r="A151" t="s">
+        <v>356</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
-      </c>
-      <c r="D151" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>561</v>
+      </c>
+      <c r="B153" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>357</v>
-      </c>
-      <c r="B152" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
+        <v>563</v>
+      </c>
+      <c r="B154" t="s">
         <v>564</v>
-      </c>
-      <c r="B154" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
       <c r="B155" t="s">
-        <v>567</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>485</v>
+      <c r="A156" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="B156" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="12" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B157" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="12" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B158" t="s">
-        <v>436</v>
+        <v>419</v>
+      </c>
+      <c r="D158" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B159" t="s">
-        <v>420</v>
-      </c>
-      <c r="D159" t="s">
-        <v>568</v>
-      </c>
+      <c r="A159" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="29" t="s">
+      <c r="A160" t="s">
         <v>110</v>
       </c>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
+      <c r="B160" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>111</v>
+      <c r="A161" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="B161" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="12" t="s">
-        <v>272</v>
+      <c r="A162" t="s">
+        <v>493</v>
       </c>
       <c r="B162" t="s">
-        <v>271</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>496</v>
+        <v>343</v>
       </c>
       <c r="B163" t="s">
-        <v>497</v>
+        <v>342</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>344</v>
-      </c>
-      <c r="B164" t="s">
-        <v>343</v>
-      </c>
+      <c r="A164" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
+      <c r="A165" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" t="s">
+        <v>225</v>
+      </c>
+      <c r="D165" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>358</v>
       </c>
       <c r="B166" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="D166" t="s">
-        <v>569</v>
+        <v>376</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
+        <v>360</v>
+      </c>
+      <c r="B167" t="s">
         <v>359</v>
       </c>
-      <c r="B167" t="s">
-        <v>358</v>
-      </c>
       <c r="D167" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>361</v>
-      </c>
-      <c r="B168" t="s">
-        <v>360</v>
-      </c>
-      <c r="D168" t="s">
-        <v>376</v>
-      </c>
+      <c r="A168" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
+      <c r="A169" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>52</v>
+      <c r="A170" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="12" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B171" t="s">
-        <v>106</v>
+        <v>279</v>
+      </c>
+      <c r="D171" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="12" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="B172" t="s">
-        <v>280</v>
-      </c>
-      <c r="D172" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="12" t="s">
-        <v>187</v>
+      <c r="A173" t="s">
+        <v>188</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="B174" t="s">
-        <v>190</v>
+        <v>323</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" t="s">
-        <v>328</v>
+      <c r="A175" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="B175" t="s">
+        <v>408</v>
+      </c>
+      <c r="D175" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>326</v>
+      </c>
+      <c r="B176" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B176" t="s">
-        <v>409</v>
-      </c>
-      <c r="D176" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B177" t="s">
-        <v>325</v>
+        <v>409</v>
+      </c>
+      <c r="D177" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>326</v>
+      <c r="A178" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="B178" t="s">
         <v>410</v>
       </c>
-      <c r="D178" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B179" t="s">
         <v>412</v>
       </c>
-      <c r="B179" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B180" t="s">
-        <v>413</v>
-      </c>
+      <c r="A180" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="29" t="s">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>15</v>
+      <c r="A182" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="B182" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C182" t="s">
         <v>21</v>
@@ -4488,18 +4495,18 @@
         <v>290</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C183" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="8" t="s">
-        <v>291</v>
+      <c r="A184" t="s">
+        <v>26</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C184" t="s">
         <v>21</v>
@@ -4507,72 +4514,69 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B185" t="s">
-        <v>27</v>
-      </c>
-      <c r="C185" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D185" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B186" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D186" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>54</v>
+        <v>403</v>
       </c>
       <c r="B187" t="s">
-        <v>55</v>
-      </c>
-      <c r="D187" t="s">
-        <v>56</v>
+        <v>402</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>404</v>
+        <v>93</v>
       </c>
       <c r="B188" t="s">
-        <v>403</v>
+        <v>94</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" t="s">
-        <v>94</v>
+      <c r="A189" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="B189" t="s">
-        <v>95</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="B190" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="8" t="s">
-        <v>174</v>
+      <c r="A191" t="s">
+        <v>177</v>
       </c>
       <c r="B191" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B192" t="s">
         <v>179</v>
@@ -4580,45 +4584,45 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B193" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+      <c r="D193" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>185</v>
-      </c>
-      <c r="D194" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>193</v>
+      <c r="A195" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="8" t="s">
+      <c r="A196" t="s">
         <v>213</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>474</v>
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>214</v>
+      <c r="A197" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="B197" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4626,53 +4630,54 @@
         <v>405</v>
       </c>
       <c r="B198" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="8" t="s">
-        <v>406</v>
+      <c r="A199" t="s">
+        <v>283</v>
       </c>
       <c r="B199" t="s">
-        <v>407</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>284</v>
+        <v>472</v>
       </c>
       <c r="B200" t="s">
-        <v>283</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>474</v>
-      </c>
-      <c r="B201" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>487</v>
-      </c>
+      <c r="A202" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="29"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="29" t="s">
+      <c r="A203" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B203" t="s">
         <v>129</v>
       </c>
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
+      <c r="D203" s="3"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="8" t="s">
-        <v>140</v>
+      <c r="A204" t="s">
+        <v>141</v>
       </c>
       <c r="B204" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D204" s="3"/>
     </row>
@@ -4681,20 +4686,20 @@
         <v>142</v>
       </c>
       <c r="B205" t="s">
+        <v>481</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B206" t="s">
         <v>132</v>
       </c>
-      <c r="D205" s="3"/>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>143</v>
-      </c>
-      <c r="B206" t="s">
-        <v>483</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>484</v>
-      </c>
+      <c r="D206" s="3"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
@@ -4706,7 +4711,7 @@
       <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="8" t="s">
+      <c r="A208" t="s">
         <v>145</v>
       </c>
       <c r="B208" t="s">
@@ -4715,7 +4720,7 @@
       <c r="D208" s="3"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" t="s">
+      <c r="A209" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B209" t="s">
@@ -4748,36 +4753,36 @@
       <c r="B212" t="s">
         <v>138</v>
       </c>
-      <c r="D212" s="3"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B213" t="s">
         <v>150</v>
       </c>
-      <c r="B213" t="s">
-        <v>139</v>
-      </c>
+      <c r="D213" s="3"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B214" t="s">
+        <v>489</v>
+      </c>
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
         <v>154</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>151</v>
       </c>
-      <c r="D214" s="3"/>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B215" t="s">
-        <v>492</v>
-      </c>
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" t="s">
+      <c r="A216" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B216" t="s">
@@ -4786,45 +4791,45 @@
       <c r="D216" s="3"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="8" t="s">
-        <v>156</v>
+      <c r="A217" t="s">
+        <v>157</v>
       </c>
       <c r="B217" t="s">
-        <v>153</v>
-      </c>
-      <c r="D217" s="3"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>158</v>
+      <c r="A218" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="8" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="8" t="s">
+      <c r="A220" t="s">
+        <v>209</v>
+      </c>
+      <c r="B220" t="s">
         <v>208</v>
-      </c>
-      <c r="B220" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B221" t="s">
-        <v>209</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D221" s="3"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
@@ -4833,42 +4838,41 @@
       <c r="B222" t="s">
         <v>216</v>
       </c>
-      <c r="D222" s="3"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>219</v>
+      <c r="A223" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="B223" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B224" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>259</v>
+        <v>490</v>
       </c>
       <c r="B225" t="s">
-        <v>258</v>
+        <v>491</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>493</v>
+        <v>349</v>
       </c>
       <c r="B226" t="s">
-        <v>494</v>
+        <v>344</v>
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="8" t="s">
+      <c r="A227" t="s">
         <v>350</v>
       </c>
       <c r="B227" t="s">
@@ -4876,11 +4880,11 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" t="s">
+      <c r="A228" s="8" t="s">
         <v>351</v>
       </c>
       <c r="B228" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4888,65 +4892,65 @@
         <v>352</v>
       </c>
       <c r="B229" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="8" t="s">
+      <c r="A230" t="s">
         <v>353</v>
       </c>
       <c r="B230" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>347</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>232</v>
-      </c>
-      <c r="B232" t="s">
-        <v>233</v>
+        <v>492</v>
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>495</v>
-      </c>
+      <c r="A233" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="29"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="29" t="s">
+      <c r="A234" t="s">
         <v>115</v>
       </c>
-      <c r="B234" s="29"/>
-      <c r="C234" s="29"/>
-      <c r="D234" s="29"/>
-      <c r="E234" s="29"/>
+      <c r="B234" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>116</v>
+      <c r="A235" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B235" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="8" t="s">
-        <v>162</v>
+      <c r="A236" t="s">
+        <v>227</v>
       </c>
       <c r="B236" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" t="s">
+      <c r="A237" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B237" t="s">
@@ -4954,65 +4958,65 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="8" t="s">
-        <v>229</v>
+      <c r="A238" t="s">
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" t="s">
-        <v>239</v>
+      <c r="A239" s="8" t="s">
+        <v>486</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>487</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="8" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="B240" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B241" t="s">
-        <v>400</v>
+        <v>501</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="8" t="s">
-        <v>503</v>
+      <c r="A246" t="s">
+        <v>115</v>
+      </c>
+      <c r="B246" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="29" t="s">
-        <v>46</v>
+        <v>568</v>
       </c>
       <c r="B247" s="29"/>
       <c r="C247" s="29"/>
@@ -5021,114 +5025,119 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
+        <v>46</v>
+      </c>
+      <c r="B248" t="s">
         <v>47</v>
-      </c>
-      <c r="B248" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
+        <v>59</v>
+      </c>
+      <c r="B249" t="s">
         <v>60</v>
-      </c>
-      <c r="B249" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="10" customFormat="1">
       <c r="A250" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B250" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="B250" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="C250" s="21"/>
       <c r="D250" s="21" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
       <c r="E250" s="20"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
+        <v>75</v>
+      </c>
+      <c r="B251" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="B251" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>113</v>
-      </c>
-      <c r="B252" t="s">
-        <v>114</v>
+        <v>464</v>
+      </c>
+      <c r="B252" s="30" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="B253" s="29"/>
-      <c r="C253" s="29"/>
-      <c r="D253" s="29"/>
-      <c r="E253" s="29"/>
+      <c r="A253" t="s">
+        <v>466</v>
+      </c>
+      <c r="B253" s="30" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>466</v>
+        <v>112</v>
       </c>
       <c r="B254" t="s">
-        <v>467</v>
+        <v>113</v>
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" t="s">
-        <v>468</v>
-      </c>
-      <c r="B255" t="s">
-        <v>469</v>
-      </c>
+      <c r="A255" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B255" s="29"/>
+      <c r="C255" s="29"/>
+      <c r="D255" s="29"/>
+      <c r="E255" s="29"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>116</v>
+        <v>86</v>
+      </c>
+      <c r="B256" t="s">
+        <v>87</v>
+      </c>
+      <c r="D256" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="29" t="s">
+      <c r="A257" t="s">
         <v>89</v>
       </c>
-      <c r="B257" s="29"/>
-      <c r="C257" s="29"/>
-      <c r="D257" s="29"/>
-      <c r="E257" s="29"/>
+      <c r="B257" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" t="s">
-        <v>90</v>
+      <c r="A258" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B258" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
-        <v>173</v>
+        <v>495</v>
       </c>
       <c r="B259" t="s">
-        <v>172</v>
+        <v>496</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
-        <v>498</v>
+        <v>340</v>
       </c>
       <c r="B260" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A261" t="s">
         <v>341</v>
       </c>
       <c r="B261" t="s">
@@ -5136,100 +5145,91 @@
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A262" t="s">
-        <v>342</v>
+      <c r="A262" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="B262" t="s">
-        <v>340</v>
+        <v>378</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1">
       <c r="A263" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B263" t="s">
-        <v>379</v>
-      </c>
-      <c r="D263" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1">
+    <row r="264" spans="1:5" ht="18">
       <c r="A264" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B264" t="s">
+        <v>317</v>
+      </c>
+      <c r="D264" t="s">
+        <v>277</v>
+      </c>
+      <c r="E264" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="B264" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="18">
+    </row>
+    <row r="265" spans="1:5" ht="15.75" customHeight="1">
       <c r="A265" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B265" t="s">
-        <v>318</v>
-      </c>
-      <c r="D265" t="s">
-        <v>278</v>
-      </c>
-      <c r="E265" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1">
       <c r="A267" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A268" s="8" t="s">
+      <c r="D267" t="s">
         <v>389</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D268" t="s">
-        <v>390</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A153:E153"/>
+  <mergeCells count="20">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A253:E253"/>
+    <mergeCell ref="A247:E247"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A181:E181"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A152:E152"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D206" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D205" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6212644B-F7EF-B140-B285-914837309DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660187E-D3C7-4D74-9477-EAD3FF709F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="2280" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="576">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2255,6 +2255,22 @@
   </si>
   <si>
     <t>python官方示例代码似乎更好理解；也可以转化成区间合并56那个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树+图的搜索+排列组合  这三类问题强烈依赖递归，所以一定要对递归的写法有个深层次的掌握</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归解决（考察点），也可以是动态规划解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2262,7 +2278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2337,6 +2353,15 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2428,7 +2453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2438,9 +2463,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2469,6 +2491,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2750,22 +2783,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D260" sqref="D260"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.625" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2782,3079 +2815,3102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
-      <c r="A18" s="12" t="s">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="14" t="s">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="14" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="16">
-      <c r="A23" s="10" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1">
-      <c r="A33" s="12" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="14" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="s">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="14" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="8" t="s">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8" t="s">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="8" t="s">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="14" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="14" t="s">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="8" t="s">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="8" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="14" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="14" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8" t="s">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="14" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="14" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="14" t="s">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="14" t="s">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="14" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="14" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="14" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="14" t="s">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="7" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="8" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="14" t="s">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="14" t="s">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="14" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="8" t="s">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="8" t="s">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8" t="s">
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="8" t="s">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="8" t="s">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="14" t="s">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="8" t="s">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="8" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="14" t="s">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="14" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="14" t="s">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="8" t="s">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="14" t="s">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="19"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="20" t="s">
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="18"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="7" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="8" t="s">
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="8" t="s">
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8" t="s">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="8" t="s">
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8" t="s">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="9"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="8" t="s">
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="14" t="s">
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="8" t="s">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="1:5" ht="16">
-      <c r="A88" s="14" t="s">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="1:5" ht="16">
-      <c r="A89" s="14" t="s">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="9"/>
-    </row>
-    <row r="90" spans="1:5" ht="16">
-      <c r="A90" s="14" t="s">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="9"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="8" t="s">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="22" t="s">
+      <c r="C91" s="7"/>
+      <c r="D91" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="E91" s="9"/>
-    </row>
-    <row r="92" spans="1:5" ht="16">
-      <c r="A92" s="14" t="s">
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8" t="s">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="E92" s="9"/>
-    </row>
-    <row r="93" spans="1:5" ht="16">
-      <c r="A93" s="14" t="s">
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="9"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="7" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="14" t="s">
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="9"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="8" t="s">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="14" t="s">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="9"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="8" t="s">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="9"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="14" t="s">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="9"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="8" t="s">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="9"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="14" t="s">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="9"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="8" t="s">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="9"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="14" t="s">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="9"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="14" t="s">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="9"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="14" t="s">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="8"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="E105" s="9"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="14" t="s">
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8" t="s">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="14" t="s">
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="7" t="s">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="8" t="s">
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8" t="s">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="E109" s="9"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="14" t="s">
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8" t="s">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="E110" s="9"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="14" t="s">
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="14" t="s">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="8" t="s">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8" t="s">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="E113" s="9"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="14" t="s">
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="9"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="14" t="s">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="8"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="8" t="s">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8" t="s">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="14" t="s">
+      <c r="E116" s="8"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="14" t="s">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="14" t="s">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="9"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="14" t="s">
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="8"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="7" t="s">
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="8"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="8" t="s">
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="8" t="s">
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="8"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8" t="s">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="8" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8" t="s">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="14" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8" t="s">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="E125" s="9"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="14" t="s">
+      <c r="E125" s="8"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8" t="s">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="E126" s="9"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="23" t="s">
+      <c r="E126" s="8"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="24" t="s">
+      <c r="C127" s="7"/>
+      <c r="D127" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="E127" s="9"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="14" t="s">
+      <c r="E127" s="8"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8" t="s">
+      <c r="C128" s="7"/>
+      <c r="D128" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E128" s="9"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="14" t="s">
+      <c r="E128" s="8"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8" t="s">
+      <c r="C129" s="7"/>
+      <c r="D129" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E129" s="9"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="14" t="s">
+      <c r="E129" s="8"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="9"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="14" t="s">
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="8"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8" t="s">
+      <c r="C131" s="7"/>
+      <c r="D131" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E131" s="9"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="14" t="s">
+      <c r="E131" s="8"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8" t="s">
+      <c r="C132" s="7"/>
+      <c r="D132" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="E132" s="9"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="14" t="s">
+      <c r="E132" s="8"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="9"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="14" t="s">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="8"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="9"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="14" t="s">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="8"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8" t="s">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E135" s="25"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="7" t="s">
+      <c r="E135" s="24"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="8" t="s">
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="9"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="8" t="s">
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="8"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="9"/>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="8" t="s">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="8"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="9"/>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="8" t="s">
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="8"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8" t="s">
+      <c r="C140" s="7"/>
+      <c r="D140" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="E140" s="9"/>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="14" t="s">
+      <c r="E140" s="8"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8" t="s">
+      <c r="C141" s="7"/>
+      <c r="D141" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E141" s="9"/>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="14" t="s">
+      <c r="E141" s="8"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="9"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="7" t="s">
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="8"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="8" t="s">
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="26" t="s">
+      <c r="C144" s="7"/>
+      <c r="D144" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="E144" s="9"/>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="8" t="s">
+      <c r="E144" s="8"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="9"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="11" t="s">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="9"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="11" t="s">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="8"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="9"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="11" t="s">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="8"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="9"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="11" t="s">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="9"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="7" t="s">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="14" t="s">
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8" t="s">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E151" s="9"/>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="8" t="s">
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="7" t="s">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="8" t="s">
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="9"/>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="8" t="s">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="9"/>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="8" t="s">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="9"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="14" t="s">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="9"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="14" t="s">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="9"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="14" t="s">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8" t="s">
+      <c r="C159" s="7"/>
+      <c r="D159" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="E159" s="9"/>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="7" t="s">
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="8" t="s">
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="9"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="14" t="s">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="8"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="9"/>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="8" t="s">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="9"/>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="8" t="s">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="9"/>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="7" t="s">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="8" t="s">
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8" t="s">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="8" t="s">
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8" t="s">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E167" s="9"/>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="8" t="s">
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8" t="s">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="7" t="s">
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="8" t="s">
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="9"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="14" t="s">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="8"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="9"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="14" t="s">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="8"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8" t="s">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E172" s="9"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="14" t="s">
+      <c r="E172" s="8"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="9"/>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="8" t="s">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="9"/>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="8" t="s">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="9"/>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="14" t="s">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8" t="s">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E176" s="9"/>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="8" t="s">
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="9"/>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="8" t="s">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8" t="s">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E178" s="9"/>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="14" t="s">
+      <c r="E178" s="8"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="9"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="14" t="s">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="9"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="7" t="s">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="8" t="s">
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D182" s="8"/>
-      <c r="E182" s="9"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="11" t="s">
+      <c r="D182" s="7"/>
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D183" s="8"/>
-      <c r="E183" s="9"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="11" t="s">
+      <c r="D183" s="7"/>
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D184" s="8"/>
-      <c r="E184" s="9"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="8" t="s">
+      <c r="D184" s="7"/>
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D185" s="8"/>
-      <c r="E185" s="9"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="8" t="s">
+      <c r="D185" s="7"/>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8" t="s">
+      <c r="C186" s="7"/>
+      <c r="D186" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E186" s="9"/>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="8" t="s">
+      <c r="E186" s="8"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8" t="s">
+      <c r="C187" s="7"/>
+      <c r="D187" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E187" s="9"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="8" t="s">
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="9"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="8" t="s">
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="11" t="s">
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="9"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="11" t="s">
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="9"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="8" t="s">
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="9"/>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="8" t="s">
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="9"/>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="8" t="s">
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8" t="s">
+      <c r="C194" s="7"/>
+      <c r="D194" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E194" s="9"/>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="8" t="s">
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="9"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="11" t="s">
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="9"/>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="8" t="s">
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="9"/>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="11" t="s">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="8"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="9"/>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="11" t="s">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="9"/>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="8" t="s">
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="9"/>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="8" t="s">
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="8"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="9"/>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="8" t="s">
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="9"/>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="7" t="s">
+      <c r="B202" s="7"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B203" s="31"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="31"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E204" s="8"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="8"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="8"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="8"/>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E208" s="8"/>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C209" s="7"/>
+      <c r="D209" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="E209" s="8"/>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="8"/>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B212" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="8"/>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B213" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="8"/>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B214" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E214" s="8"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="11" t="s">
+      <c r="B215" s="31"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="31"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B217" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C204" s="8"/>
-      <c r="D204" s="16"/>
-      <c r="E204" s="9"/>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="8" t="s">
+      <c r="C217" s="7"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="8"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B218" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C205" s="8"/>
-      <c r="D205" s="16"/>
-      <c r="E205" s="9"/>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="8" t="s">
+      <c r="C218" s="7"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="8"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B219" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C206" s="8"/>
-      <c r="D206" s="27" t="s">
+      <c r="C219" s="7"/>
+      <c r="D219" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="E206" s="9"/>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="11" t="s">
+      <c r="E219" s="8"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B220" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C207" s="8"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="9"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="11" t="s">
+      <c r="C220" s="7"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="8"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B221" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C208" s="8"/>
-      <c r="D208" s="16"/>
-      <c r="E208" s="9"/>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="8" t="s">
+      <c r="C221" s="7"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="8"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C209" s="8"/>
-      <c r="D209" s="16"/>
-      <c r="E209" s="9"/>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="11" t="s">
+      <c r="C222" s="7"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="8"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B223" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C210" s="8"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="9"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="11" t="s">
+      <c r="C223" s="7"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="8"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B224" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C211" s="8"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="9"/>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="11" t="s">
+      <c r="C224" s="7"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="8"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B225" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C212" s="8"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="9"/>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="11" t="s">
+      <c r="C225" s="7"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="8"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B226" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="9"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="11" t="s">
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="8"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B227" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C214" s="8"/>
-      <c r="D214" s="16"/>
-      <c r="E214" s="9"/>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="11" t="s">
+      <c r="C227" s="7"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="8"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B228" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="C215" s="8"/>
-      <c r="D215" s="16"/>
-      <c r="E215" s="9"/>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="8" t="s">
+      <c r="C228" s="7"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="8"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B229" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C216" s="8"/>
-      <c r="D216" s="16"/>
-      <c r="E216" s="9"/>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="11" t="s">
+      <c r="C229" s="7"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="8"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B230" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C217" s="8"/>
-      <c r="D217" s="16"/>
-      <c r="E217" s="9"/>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="8" t="s">
+      <c r="C230" s="7"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="8"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B231" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C218" s="8"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="9"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="11" t="s">
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="8"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B232" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="9"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="11" t="s">
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="8"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B233" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="9"/>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="8" t="s">
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="8"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C221" s="8"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="9"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C222" s="8"/>
-      <c r="D222" s="16"/>
-      <c r="E222" s="9"/>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="9"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C224" s="8"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="9"/>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C225" s="8"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="9"/>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="9"/>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="9"/>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="9"/>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="9"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="9"/>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="9"/>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="9"/>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="9"/>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B234" s="7"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
-      <c r="E234" s="7"/>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="8" t="s">
+      <c r="E234" s="8"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C235" s="7"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="8"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="8"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="8"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="8"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="8"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="8"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="8"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="8"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="8"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="8"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="8"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="8"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B247" s="31"/>
+      <c r="C247" s="31"/>
+      <c r="D247" s="31"/>
+      <c r="E247" s="31"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E248" s="8"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B249" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="9"/>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="11" t="s">
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="8"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B250" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="9"/>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="8" t="s">
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="8"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B251" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="9"/>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="11" t="s">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="8"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B252" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="9"/>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="8" t="s">
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="8"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B253" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="9"/>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="11" t="s">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="8"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B254" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="9"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="11" t="s">
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="8"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B255" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="9"/>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="11" t="s">
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="8"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="10" t="s">
         <v>497</v>
-      </c>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="9"/>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="9"/>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="9"/>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="9"/>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="9"/>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="9"/>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B248" s="7"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="7"/>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="9"/>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="9"/>
-    </row>
-    <row r="251" spans="1:5" s="2" customFormat="1">
-      <c r="A251" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B251" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C251" s="28"/>
-      <c r="D251" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="E251" s="29"/>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B252" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="9"/>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B253" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="9"/>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B254" s="30" t="s">
-        <v>463</v>
-      </c>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="9"/>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="9"/>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
-      <c r="E256" s="7"/>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E257" s="9"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="9"/>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="9"/>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C260" s="8"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="9"/>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A261" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="E261" s="9"/>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A262" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C262" s="8"/>
-      <c r="D262" s="31" t="s">
-        <v>568</v>
-      </c>
-      <c r="E262" s="9"/>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A263" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="9"/>
-    </row>
-    <row r="264" spans="1:5" ht="16">
-      <c r="A264" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E264" s="15" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A265" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B265" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="9"/>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A266" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B266" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="C266" s="8"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="9"/>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A267" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B267" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="C267" s="8"/>
-      <c r="D267" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="E267" s="9"/>
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="8"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="8"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B259" s="7"/>
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="8"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="8"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="8"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="B262" s="31"/>
+      <c r="C262" s="31"/>
+      <c r="D262" s="31"/>
+      <c r="E262" s="31"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="8"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="8"/>
+    </row>
+    <row r="265" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B265" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C265" s="27"/>
+      <c r="D265" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E265" s="28"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B266" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="8"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B267" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="8"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B268" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="8"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="8"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="34"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A256:E256"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A153:E153"/>
+  <mergeCells count="21">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A262:E262"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A94:E94"/>
@@ -5866,10 +5922,17 @@
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A165:E165"/>
     <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A153:E153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D206" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D219" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660187E-D3C7-4D74-9477-EAD3FF709F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69998D2E-2889-4C4D-990E-F925312B6004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2491,17 +2491,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2786,7 +2786,7 @@
   <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2816,13 +2816,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -2924,13 +2924,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -3134,13 +3134,13 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
@@ -3556,13 +3556,13 @@
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
@@ -3765,13 +3765,13 @@
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
@@ -3920,13 +3920,13 @@
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
@@ -4076,13 +4076,13 @@
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
@@ -4225,13 +4225,13 @@
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
@@ -4412,13 +4412,13 @@
       <c r="E135" s="24"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
@@ -4491,13 +4491,13 @@
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
@@ -4568,13 +4568,13 @@
       <c r="E149" s="8"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="31" t="s">
+      <c r="A150" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
@@ -4601,13 +4601,13 @@
       <c r="E152" s="8"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
@@ -4678,13 +4678,13 @@
       <c r="E159" s="8"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="31" t="s">
+      <c r="A160" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="31"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
@@ -4731,13 +4731,13 @@
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="31" t="s">
+      <c r="A165" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
@@ -4779,13 +4779,13 @@
       <c r="E168" s="8"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="31" t="s">
+      <c r="A169" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
@@ -4915,13 +4915,13 @@
       <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="31" t="s">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="31"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
@@ -5167,13 +5167,13 @@
       <c r="E202" s="8"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="31" t="s">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="31"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="31"/>
-      <c r="E203" s="31"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
@@ -5309,22 +5309,22 @@
       <c r="E214" s="8"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="31" t="s">
+      <c r="A215" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B215" s="31"/>
-      <c r="C215" s="31"/>
-      <c r="D215" s="31"/>
-      <c r="E215" s="31"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="33" t="s">
+      <c r="A216" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="B216" s="32"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="32"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="35"/>
+      <c r="D216" s="35"/>
+      <c r="E216" s="35"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
@@ -5648,35 +5648,35 @@
       <c r="E245" s="8"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="7" t="s">
+      <c r="A246" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E246" s="8"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B246" s="7"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="7"/>
-      <c r="E246" s="8"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="31" t="s">
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="8"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B247" s="31"/>
-      <c r="C247" s="31"/>
-      <c r="D247" s="31"/>
-      <c r="E247" s="31"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="E248" s="8"/>
+      <c r="B248" s="33"/>
+      <c r="C248" s="33"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="33"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
@@ -5812,13 +5812,13 @@
       <c r="E261" s="8"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="31" t="s">
+      <c r="A262" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="B262" s="31"/>
-      <c r="C262" s="31"/>
-      <c r="D262" s="31"/>
-      <c r="E262" s="31"/>
+      <c r="B262" s="33"/>
+      <c r="C262" s="33"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="33"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
@@ -5900,14 +5900,19 @@
       <c r="E269" s="8"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="34"/>
-      <c r="B270" s="34"/>
-      <c r="C270" s="34"/>
-      <c r="D270" s="34"/>
-      <c r="E270" s="35"/>
+      <c r="A270" s="31"/>
+      <c r="B270" s="31"/>
+      <c r="C270" s="31"/>
+      <c r="D270" s="31"/>
+      <c r="E270" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A153:E153"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A262:E262"/>
@@ -5924,11 +5929,6 @@
     <mergeCell ref="A150:E150"/>
     <mergeCell ref="A216:E216"/>
     <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A153:E153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69998D2E-2889-4C4D-990E-F925312B6004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DDF3DF-F5DA-48C6-A708-72D6005E5DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="577">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,10 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单词搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L84</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2032,10 +2028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>另外一种方法是深搜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最小硬币找零数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2271,6 +2263,18 @@
   </si>
   <si>
     <t>递归解决（考察点），也可以是动态规划解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格中从原点到特定点的最短路径长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2785,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2806,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -2839,20 +2843,20 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -2880,10 +2884,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>20</v>
@@ -2895,37 +2899,37 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -2940,17 +2944,17 @@
         <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
@@ -2960,10 +2964,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
@@ -2973,79 +2977,79 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="C18" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3053,36 +3057,36 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>20</v>
@@ -3092,43 +3096,43 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
@@ -3159,7 +3163,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>10</v>
@@ -3218,36 +3222,36 @@
     </row>
     <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -3255,23 +3259,23 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3279,7 +3283,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>9</v>
@@ -3290,78 +3294,76 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>515</v>
-      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>268</v>
+      <c r="A42" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>514</v>
+      </c>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>295</v>
+        <v>447</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>449</v>
+      <c r="A44" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>448</v>
+        <v>295</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
-        <v>517</v>
-      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3376,11 +3378,11 @@
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>297</v>
+      <c r="A46" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>445</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -3388,30 +3390,30 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>525</v>
+      </c>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>450</v>
+      <c r="A48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
-        <v>527</v>
-      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="13" t="s">
         <v>303</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -3423,43 +3425,43 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>304</v>
+        <v>516</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+        <v>523</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>520</v>
+      </c>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B52" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>523</v>
-      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3467,7 +3469,7 @@
         <v>441</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>526</v>
+        <v>442</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3475,7 +3477,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>443</v>
@@ -3486,34 +3488,32 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>526</v>
+      </c>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>457</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3522,16 +3522,16 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="s">
-        <v>529</v>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17" t="s">
+        <v>530</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -3540,36 +3540,38 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
+      <c r="A62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>24</v>
+      <c r="A63" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3577,10 +3579,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -3588,21 +3590,21 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>68</v>
+      <c r="A66" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -3610,34 +3612,34 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>532</v>
+      </c>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
-        <v>534</v>
-      </c>
+      <c r="D68" s="7"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>224</v>
+        <v>472</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>223</v>
+        <v>475</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -3645,32 +3647,32 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>475</v>
+      <c r="A71" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>474</v>
+        <v>252</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>254</v>
+      <c r="A72" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -3678,21 +3680,21 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>471</v>
+        <v>309</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>472</v>
+        <v>304</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="13" t="s">
         <v>310</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -3700,10 +3702,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>309</v>
+        <v>413</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -3711,139 +3713,139 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="7" t="s">
         <v>312</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8"/>
+      <c r="B78" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="18"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="A79" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="33" t="s">
+      <c r="B79" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>100</v>
+      <c r="A85" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="C85" s="7"/>
-      <c r="D85" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="D85" s="7"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>196</v>
+      <c r="A86" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>315</v>
+      <c r="A87" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>389</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3851,10 +3853,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>391</v>
+        <v>533</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>390</v>
+        <v>534</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3862,129 +3864,129 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>535</v>
+        <v>392</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>536</v>
+        <v>391</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>392</v>
+      <c r="A90" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="D90" s="21" t="s">
+        <v>275</v>
+      </c>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>336</v>
+      <c r="A91" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>387</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="21" t="s">
-        <v>276</v>
+      <c r="D91" s="7" t="s">
+        <v>535</v>
       </c>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
-        <v>537</v>
-      </c>
+      <c r="D92" s="7"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="8"/>
+      <c r="A93" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
+      <c r="A94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
-        <v>57</v>
+      <c r="A95" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>200</v>
+      <c r="A96" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
-        <v>246</v>
+      <c r="A97" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>220</v>
+      <c r="A98" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
-        <v>256</v>
+      <c r="A99" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="13" t="s">
         <v>333</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -3995,7 +3997,7 @@
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="7" t="s">
         <v>334</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -4006,11 +4008,11 @@
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>335</v>
+      <c r="A102" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -4018,10 +4020,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -4029,155 +4031,155 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>540</v>
+      </c>
       <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C106" s="7"/>
-      <c r="D106" s="7" t="s">
-        <v>541</v>
-      </c>
+      <c r="D106" s="7"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="8"/>
+      <c r="A107" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
+      <c r="A108" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>170</v>
+      <c r="A109" s="13" t="s">
+        <v>464</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>465</v>
+        <v>243</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>466</v>
+        <v>244</v>
       </c>
       <c r="C110" s="7"/>
-      <c r="D110" s="7" t="s">
-        <v>467</v>
-      </c>
+      <c r="D110" s="7"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
-        <v>243</v>
+      <c r="A112" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>463</v>
+      </c>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>210</v>
+      <c r="A113" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>211</v>
+        <v>436</v>
       </c>
       <c r="C113" s="7"/>
-      <c r="D113" s="7" t="s">
-        <v>464</v>
-      </c>
+      <c r="D113" s="7"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>438</v>
+        <v>255</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
-        <v>256</v>
+      <c r="A115" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
+      <c r="D115" s="7" t="s">
+        <v>541</v>
+      </c>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>301</v>
+      <c r="A116" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="C116" s="7"/>
-      <c r="D116" s="7" t="s">
-        <v>543</v>
-      </c>
+      <c r="D116" s="7"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4193,10 +4195,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>322</v>
+        <v>433</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>320</v>
+        <v>432</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4204,82 +4206,84 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="8"/>
+      <c r="A120" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
+      <c r="A121" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="8"/>
+      <c r="D122" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7" t="s">
-        <v>40</v>
+        <v>544</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>72</v>
+      <c r="A124" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>83</v>
+        <v>543</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7" t="s">
@@ -4288,100 +4292,98 @@
       <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="13" t="s">
-        <v>99</v>
+      <c r="A126" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="B126" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7" t="s">
-        <v>546</v>
-      </c>
       <c r="E126" s="8"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="22" t="s">
-        <v>194</v>
+      <c r="A127" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C127" s="7"/>
-      <c r="D127" s="23" t="s">
-        <v>547</v>
+      <c r="D127" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C129" s="7"/>
-      <c r="D129" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="D129" s="7"/>
       <c r="E129" s="8"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
+      <c r="D130" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="E130" s="8"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7" t="s">
-        <v>237</v>
+        <v>546</v>
       </c>
       <c r="E131" s="8"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="C132" s="7"/>
-      <c r="D132" s="7" t="s">
-        <v>548</v>
-      </c>
+      <c r="D132" s="7"/>
       <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4389,43 +4391,43 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>272</v>
+        <v>547</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>273</v>
+        <v>548</v>
       </c>
       <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="8"/>
+      <c r="D134" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E134" s="24"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E135" s="24"/>
+      <c r="A135" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
+      <c r="A136" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="8"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4433,10 +4435,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4444,60 +4446,62 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>91</v>
+        <v>550</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
+      <c r="D139" s="7" t="s">
+        <v>551</v>
+      </c>
       <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>552</v>
+      <c r="A140" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7" t="s">
-        <v>553</v>
+        <v>249</v>
       </c>
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>249</v>
+        <v>422</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>248</v>
+        <v>538</v>
       </c>
       <c r="C141" s="7"/>
-      <c r="D141" s="7" t="s">
-        <v>250</v>
-      </c>
+      <c r="D141" s="7"/>
       <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="8"/>
+      <c r="A142" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B143" s="33"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
+      <c r="A143" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
@@ -4507,14 +4511,12 @@
         <v>361</v>
       </c>
       <c r="C144" s="7"/>
-      <c r="D144" s="25" t="s">
-        <v>554</v>
-      </c>
+      <c r="D144" s="7"/>
       <c r="E144" s="8"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
-        <v>160</v>
+      <c r="A145" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>362</v>
@@ -4525,7 +4527,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>363</v>
@@ -4536,10 +4538,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
-        <v>354</v>
+        <v>451</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>364</v>
+        <v>454</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -4550,64 +4552,64 @@
         <v>452</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="8"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="8"/>
+      <c r="A149" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B150" s="33"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
+      <c r="B150" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E150" s="8"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
-        <v>168</v>
+      <c r="A151" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>169</v>
+        <v>354</v>
       </c>
       <c r="C151" s="7"/>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="7"/>
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E151" s="8"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="8"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
+      <c r="B153" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="8"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
@@ -4622,21 +4624,21 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>559</v>
+        <v>478</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="8"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
-        <v>479</v>
+      <c r="A156" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -4644,10 +4646,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -4655,54 +4657,54 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
+      <c r="D158" s="7" t="s">
+        <v>559</v>
+      </c>
       <c r="E158" s="8"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="E159" s="8"/>
+      <c r="A159" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
+      <c r="A160" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="8"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
-        <v>110</v>
+      <c r="A161" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="8"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="13" t="s">
-        <v>271</v>
+      <c r="A162" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>270</v>
+        <v>489</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -4710,89 +4712,89 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>489</v>
+        <v>342</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>490</v>
+        <v>341</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="8"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="8"/>
+      <c r="A164" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="B165" s="33"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
+      <c r="A165" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E165" s="8"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>225</v>
+        <v>356</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="7" t="s">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="E166" s="8"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E167" s="8"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E168" s="8"/>
+      <c r="A168" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
+      <c r="A169" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="8"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
-        <v>51</v>
+      <c r="A170" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
@@ -4800,34 +4802,34 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
+      <c r="D171" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="E171" s="8"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="C172" s="7"/>
-      <c r="D172" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="D172" s="7"/>
       <c r="E172" s="8"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
-        <v>186</v>
+      <c r="A173" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -4835,100 +4837,102 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="8"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
-        <v>327</v>
+      <c r="A175" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="B175" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="8"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="C176" s="7"/>
-      <c r="D176" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="D176" s="7"/>
       <c r="E176" s="8"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
+      <c r="D177" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="E177" s="8"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
-        <v>325</v>
+      <c r="A178" s="13" t="s">
+        <v>406</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>405</v>
       </c>
       <c r="C178" s="7"/>
-      <c r="D178" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="D178" s="7"/>
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="8"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="8"/>
+      <c r="A180" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" s="33"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
-        <v>15</v>
+      <c r="A182" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>21</v>
@@ -4941,7 +4945,7 @@
         <v>289</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>21</v>
@@ -4950,11 +4954,11 @@
       <c r="E183" s="8"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="10" t="s">
-        <v>290</v>
+      <c r="A184" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>21</v>
@@ -4964,60 +4968,58 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D185" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E186" s="8"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>53</v>
+        <v>398</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="C187" s="7"/>
-      <c r="D187" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="D187" s="7"/>
       <c r="E187" s="8"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>399</v>
+        <v>93</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>398</v>
+        <v>94</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="8"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="7" t="s">
-        <v>93</v>
+      <c r="A189" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>94</v>
+        <v>396</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -5025,21 +5027,21 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
-        <v>396</v>
+        <v>172</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>397</v>
+        <v>173</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="8"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="10" t="s">
-        <v>173</v>
+      <c r="A191" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
@@ -5047,7 +5049,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>178</v>
@@ -5058,56 +5060,56 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
+      <c r="D193" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C194" s="7"/>
-      <c r="D194" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="D194" s="7"/>
       <c r="E194" s="8"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
-        <v>192</v>
+      <c r="A195" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="8"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>214</v>
+        <v>469</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="8"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
-        <v>213</v>
+      <c r="A197" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
@@ -5118,18 +5120,18 @@
         <v>400</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="8"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="10" t="s">
-        <v>401</v>
+      <c r="A199" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>402</v>
+        <v>281</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
@@ -5137,10 +5139,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>283</v>
+        <v>467</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>282</v>
+        <v>468</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
@@ -5148,52 +5150,52 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>469</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="B201" s="7"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B202" s="7"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="8"/>
+      <c r="A202" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B202" s="33"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
+      <c r="A203" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E203" s="8"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C204" s="7"/>
-      <c r="D204" s="7" t="s">
-        <v>508</v>
-      </c>
+      <c r="D204" s="7"/>
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
-        <v>89</v>
+      <c r="A205" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
@@ -5201,84 +5203,84 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
-        <v>172</v>
+        <v>339</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="8"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="13" t="s">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="7" t="s">
         <v>340</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>338</v>
       </c>
       <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
+      <c r="D207" s="7" t="s">
+        <v>565</v>
+      </c>
       <c r="E207" s="8"/>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
-        <v>341</v>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="13" t="s">
+        <v>376</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="C208" s="7"/>
-      <c r="D208" s="7" t="s">
-        <v>567</v>
+      <c r="D208" s="30" t="s">
+        <v>566</v>
       </c>
       <c r="E208" s="8"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>378</v>
       </c>
       <c r="C209" s="7"/>
-      <c r="D209" s="30" t="s">
-        <v>568</v>
-      </c>
+      <c r="D209" s="7"/>
       <c r="E209" s="8"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B211" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="8"/>
-    </row>
-    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="C211" s="7"/>
-      <c r="D211" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E211" s="14" t="s">
-        <v>569</v>
-      </c>
+      <c r="D211" s="7"/>
+      <c r="E211" s="8"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B212" s="30" t="s">
         <v>382</v>
-      </c>
-      <c r="B212" s="30" t="s">
-        <v>381</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
@@ -5289,49 +5291,49 @@
         <v>384</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>383</v>
+        <v>568</v>
       </c>
       <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
+      <c r="D213" s="7" t="s">
+        <v>569</v>
+      </c>
       <c r="E213" s="8"/>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B214" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="E214" s="8"/>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B214" s="33"/>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="33" t="s">
+      <c r="A215" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="B215" s="35"/>
+      <c r="C215" s="35"/>
+      <c r="D215" s="35"/>
+      <c r="E215" s="35"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B216" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="B216" s="35"/>
-      <c r="C216" s="35"/>
-      <c r="D216" s="35"/>
-      <c r="E216" s="35"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="8"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="10" t="s">
-        <v>139</v>
+      <c r="A217" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="15"/>
@@ -5342,23 +5344,23 @@
         <v>141</v>
       </c>
       <c r="B218" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C218" s="7"/>
+      <c r="D218" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="E218" s="8"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B219" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C218" s="7"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="8"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>477</v>
-      </c>
       <c r="C219" s="7"/>
-      <c r="D219" s="26" t="s">
-        <v>478</v>
-      </c>
+      <c r="D219" s="15"/>
       <c r="E219" s="8"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -5373,7 +5375,7 @@
       <c r="E220" s="8"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="10" t="s">
+      <c r="A221" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B221" s="7" t="s">
@@ -5384,7 +5386,7 @@
       <c r="E221" s="8"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B222" s="7" t="s">
@@ -5424,44 +5426,44 @@
         <v>137</v>
       </c>
       <c r="C225" s="7"/>
-      <c r="D225" s="15"/>
+      <c r="D225" s="7"/>
       <c r="E225" s="8"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B226" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
+      <c r="D226" s="15"/>
       <c r="E226" s="8"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
-        <v>153</v>
+        <v>483</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>150</v>
+        <v>484</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="15"/>
       <c r="E227" s="8"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="10" t="s">
-        <v>484</v>
+      <c r="A228" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>485</v>
+        <v>150</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="15"/>
       <c r="E228" s="8"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
+      <c r="A229" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B229" s="7" t="s">
@@ -5472,22 +5474,22 @@
       <c r="E229" s="8"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="10" t="s">
-        <v>155</v>
+      <c r="A230" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C230" s="7"/>
-      <c r="D230" s="15"/>
+      <c r="D230" s="7"/>
       <c r="E230" s="8"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
-        <v>157</v>
+      <c r="A231" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
@@ -5495,21 +5497,21 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="8"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
@@ -5517,13 +5519,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
+      <c r="D234" s="15"/>
       <c r="E234" s="8"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -5534,15 +5536,15 @@
         <v>215</v>
       </c>
       <c r="C235" s="7"/>
-      <c r="D235" s="15"/>
+      <c r="D235" s="7"/>
       <c r="E235" s="8"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="7" t="s">
-        <v>218</v>
+      <c r="A236" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
@@ -5550,10 +5552,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
@@ -5561,10 +5563,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
-        <v>258</v>
+        <v>485</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
@@ -5572,17 +5574,17 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
-        <v>486</v>
+        <v>348</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="8"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B240" s="7" t="s">
@@ -5593,11 +5595,11 @@
       <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="10" t="s">
         <v>350</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
@@ -5608,18 +5610,18 @@
         <v>351</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
@@ -5627,85 +5629,91 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="8"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="7" t="s">
-        <v>231</v>
+      <c r="A245" s="13" t="s">
+        <v>570</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>232</v>
+        <v>571</v>
       </c>
       <c r="C245" s="7"/>
-      <c r="D245" s="7"/>
+      <c r="D245" s="7" t="s">
+        <v>573</v>
+      </c>
       <c r="E245" s="8"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>573</v>
-      </c>
+      <c r="A246" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
-      <c r="D246" s="7" t="s">
-        <v>575</v>
-      </c>
+      <c r="D246" s="7"/>
       <c r="E246" s="8"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B247" s="7"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="8"/>
+      <c r="A247" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B247" s="33"/>
+      <c r="C247" s="33"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="33"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B248" s="33"/>
-      <c r="C248" s="33"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
+      <c r="A248" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E248" s="8"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
+      <c r="D249" s="7" t="s">
+        <v>576</v>
+      </c>
       <c r="E249" s="8"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="10" t="s">
-        <v>161</v>
+      <c r="A250" s="7" t="s">
+        <v>574</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>162</v>
+        <v>575</v>
       </c>
       <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
+      <c r="D250" s="7" t="s">
+        <v>576</v>
+      </c>
       <c r="E250" s="8"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>229</v>
+        <v>563</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
@@ -5713,10 +5721,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
@@ -5724,10 +5732,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
@@ -5735,21 +5743,21 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
-        <v>482</v>
+        <v>227</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>483</v>
+        <v>229</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="8"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="10" t="s">
-        <v>394</v>
+      <c r="A255" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>395</v>
+        <v>238</v>
       </c>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
@@ -5757,16 +5765,18 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B256" s="7"/>
+        <v>481</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>482</v>
+      </c>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="8"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -5775,7 +5785,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -5784,7 +5794,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -5793,7 +5803,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -5801,19 +5811,17 @@
       <c r="E260" s="8"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>565</v>
-      </c>
+      <c r="A261" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B261" s="7"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="8"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B262" s="33"/>
       <c r="C262" s="33"/>
@@ -5851,7 +5859,7 @@
       </c>
       <c r="C265" s="27"/>
       <c r="D265" s="27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E265" s="28"/>
     </row>
@@ -5868,10 +5876,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B267" s="29" t="s">
         <v>460</v>
-      </c>
-      <c r="B267" s="29" t="s">
-        <v>461</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
@@ -5879,10 +5887,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B268" s="29" t="s">
         <v>462</v>
-      </c>
-      <c r="B268" s="29" t="s">
-        <v>463</v>
       </c>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
@@ -5908,31 +5916,31 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A153:E153"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A262:E262"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A181:E181"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A152:E152"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D219" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
+    <hyperlink ref="D218" r:id="rId1" xr:uid="{1C8E0DC6-1CD3-4FCB-9509-F39BD747E7D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7770860-5D61-4999-9F47-04D5F2D1E429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC85F7-CC99-4071-A007-7A0B298E251E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="634">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2495,6 +2495,18 @@
   </si>
   <si>
     <t>回溯：回溯属于 DFS，和DFS稍有区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的二叉搜索树 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和96的区别是要返回生成的树，96只要求计算种类数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2712,6 +2724,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2722,9 +2737,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3014,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E288" sqref="E288"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3047,13 +3059,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -3155,13 +3167,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -3365,13 +3377,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -3774,13 +3786,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -3983,13 +3995,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -4138,13 +4150,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
@@ -4294,13 +4306,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
@@ -4443,13 +4455,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="38" t="s">
+      <c r="A120" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="38"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
@@ -4630,13 +4642,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="38" t="s">
+      <c r="A135" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
@@ -4709,13 +4721,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="38" t="s">
+      <c r="A142" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="38"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="38"/>
-      <c r="E142" s="38"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
@@ -4784,13 +4796,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
@@ -4817,13 +4829,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="38" t="s">
+      <c r="A152" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="38"/>
-      <c r="C152" s="38"/>
-      <c r="D152" s="38"/>
-      <c r="E152" s="38"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="34"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -4894,13 +4906,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="38" t="s">
+      <c r="A159" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="38"/>
-      <c r="C159" s="38"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="38"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
@@ -4947,13 +4959,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="38"/>
-      <c r="C164" s="38"/>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="34"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
@@ -5006,13 +5018,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="38"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
@@ -5142,13 +5154,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="38" t="s">
+      <c r="A181" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="38"/>
-      <c r="C181" s="38"/>
-      <c r="D181" s="38"/>
-      <c r="E181" s="38"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
@@ -5396,13 +5408,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="38" t="s">
+      <c r="A203" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="38"/>
-      <c r="C203" s="38"/>
-      <c r="D203" s="38"/>
-      <c r="E203" s="38"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="34"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
@@ -5538,13 +5550,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="38" t="s">
+      <c r="A215" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="38"/>
-      <c r="C215" s="38"/>
-      <c r="D215" s="38"/>
-      <c r="E215" s="38"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="34"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="39" t="s">
@@ -5943,24 +5955,26 @@
       <c r="E249" s="7"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="6" t="s">
-        <v>137</v>
+      <c r="A250" s="12" t="s">
+        <v>633</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>128</v>
+        <v>631</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="E250" s="7"/>
+      <c r="E250" s="7" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="9" t="s">
-        <v>144</v>
+      <c r="A251" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6" t="s">
@@ -5970,10 +5984,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
-        <v>606</v>
+        <v>144</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>607</v>
+        <v>133</v>
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="6" t="s">
@@ -5982,11 +5996,11 @@
       <c r="E252" s="7"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="6" t="s">
-        <v>202</v>
+      <c r="A253" s="9" t="s">
+        <v>606</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>201</v>
+        <v>607</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="6" t="s">
@@ -5996,10 +6010,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6" t="s">
@@ -6009,45 +6023,45 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
+      <c r="D255" s="6" t="s">
+        <v>601</v>
+      </c>
       <c r="E255" s="7"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>625</v>
+        <v>211</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>626</v>
+        <v>209</v>
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="12" t="s">
-        <v>612</v>
+      <c r="A257" s="6" t="s">
+        <v>625</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="C257" s="6"/>
-      <c r="D257" s="6" t="s">
-        <v>601</v>
-      </c>
+      <c r="D257" s="6"/>
       <c r="E257" s="7"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6" t="s">
@@ -6057,10 +6071,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="6" t="s">
@@ -6070,10 +6084,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="6" t="s">
@@ -6083,10 +6097,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6" t="s">
@@ -6095,31 +6109,31 @@
       <c r="E261" s="7"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="34"/>
-      <c r="B262" s="34"/>
-      <c r="C262" s="34"/>
-      <c r="D262" s="34"/>
-      <c r="E262" s="34"/>
+      <c r="A262" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="35"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="35"/>
+      <c r="D263" s="35"/>
+      <c r="E263" s="35"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B264" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="E263" s="7"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="6" t="s">
@@ -6128,33 +6142,33 @@
       <c r="E264" s="7"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="38" t="s">
+      <c r="A265" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E265" s="7"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="B265" s="38"/>
-      <c r="C265" s="38"/>
-      <c r="D265" s="38"/>
-      <c r="E265" s="38"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="6" t="s">
+      <c r="B266" s="34"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="34"/>
+      <c r="E266" s="34"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B267" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="E266" s="7"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6" t="s">
@@ -6164,58 +6178,58 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
-        <v>468</v>
+        <v>221</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>469</v>
+        <v>577</v>
       </c>
       <c r="C268" s="6"/>
       <c r="D268" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E268" s="7"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
-        <v>580</v>
+        <v>468</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>582</v>
+        <v>469</v>
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E269" s="7"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C270" s="6"/>
+      <c r="D270" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="E269" s="7" t="s">
+      <c r="E270" s="7" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="34"/>
-      <c r="B270" s="34"/>
-      <c r="C270" s="34"/>
-      <c r="D270" s="34"/>
-      <c r="E270" s="35"/>
-    </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="12" t="s">
+      <c r="A271" s="35"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="35"/>
+      <c r="E271" s="36"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B272" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="C271" s="6"/>
-      <c r="D271" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="E271" s="7"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="6" t="s">
@@ -6224,11 +6238,11 @@
       <c r="E272" s="7"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="9" t="s">
-        <v>554</v>
+      <c r="A273" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>555</v>
+        <v>250</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="6" t="s">
@@ -6237,31 +6251,31 @@
       <c r="E273" s="7"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="36"/>
-      <c r="B274" s="36"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="36"/>
-      <c r="E274" s="37"/>
+      <c r="A274" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="9" t="s">
+      <c r="A275" s="37"/>
+      <c r="B275" s="37"/>
+      <c r="C275" s="37"/>
+      <c r="D275" s="37"/>
+      <c r="E275" s="38"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B276" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E275" s="7"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="6" t="s">
@@ -6270,11 +6284,11 @@
       <c r="E276" s="7"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="9" t="s">
-        <v>480</v>
+      <c r="A277" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6" t="s">
@@ -6284,10 +6298,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="6" t="s">
@@ -6297,10 +6311,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="6" t="s">
@@ -6308,34 +6322,34 @@
       </c>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="38" t="s">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E280" s="7"/>
+    </row>
+    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="B280" s="38"/>
-      <c r="C280" s="38"/>
-      <c r="D280" s="38"/>
-      <c r="E280" s="38"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C281" s="6"/>
-      <c r="D281" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="E281" s="7"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="34"/>
+      <c r="D281" s="34"/>
+      <c r="E281" s="34"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="31" t="s">
@@ -6344,11 +6358,11 @@
       <c r="E282" s="7"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="9" t="s">
-        <v>574</v>
+      <c r="A283" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>575</v>
+        <v>60</v>
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="31" t="s">
@@ -6356,51 +6370,51 @@
       </c>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="26" t="s">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C284" s="6"/>
+      <c r="D284" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="E284" s="7"/>
+    </row>
+    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B284" s="26" t="s">
+      <c r="B285" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="C284" s="26"/>
-      <c r="D284" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="E284" s="27"/>
-    </row>
-    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="B285" s="26" t="s">
-        <v>569</v>
       </c>
       <c r="C285" s="26"/>
       <c r="D285" s="31" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B286" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C286" s="6"/>
+    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="B286" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C286" s="26"/>
       <c r="D286" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="E286" s="7"/>
+      <c r="E286" s="27"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="9" t="s">
-        <v>566</v>
+      <c r="A287" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>567</v>
+        <v>76</v>
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="31" t="s">
@@ -6409,11 +6423,11 @@
       <c r="E287" s="7"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="s">
-        <v>447</v>
+      <c r="A288" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="31" t="s">
@@ -6423,10 +6437,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="31" t="s">
@@ -6436,10 +6450,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>113</v>
+        <v>449</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="31" t="s">
@@ -6448,11 +6462,11 @@
       <c r="E290" s="7"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="9" t="s">
-        <v>572</v>
+      <c r="A291" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>573</v>
+        <v>113</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="31" t="s">
@@ -6461,37 +6475,37 @@
       <c r="E291" s="7"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
+      <c r="A292" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C292" s="6"/>
+      <c r="D292" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="E292" s="7"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B293" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6" t="s">
+      <c r="C293" s="6"/>
+      <c r="D293" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="E292" s="7"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="B293" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="C293" s="6"/>
-      <c r="D293" s="31" t="s">
-        <v>563</v>
       </c>
       <c r="E293" s="7"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="31" t="s">
@@ -6500,19 +6514,40 @@
       <c r="E294" s="7"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="29"/>
-      <c r="B295" s="29"/>
-      <c r="C295" s="29"/>
-      <c r="D295" s="29"/>
-      <c r="E295" s="30"/>
+      <c r="A295" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C295" s="6"/>
+      <c r="D295" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="E295" s="7"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="29"/>
+      <c r="B296" s="29"/>
+      <c r="C296" s="29"/>
+      <c r="D296" s="29"/>
+      <c r="E296" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A280:E280"/>
+    <mergeCell ref="A281:E281"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A93:E93"/>
@@ -6524,14 +6559,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A270:E270"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A262:E262"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A265:E265"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC85F7-CC99-4071-A007-7A0B298E251E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6FDA70-B0F2-6340-8B6E-530E7252F9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="1260" windowWidth="23320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2514,7 +2514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2724,9 +2724,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2737,6 +2734,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3028,20 +3028,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.625" customWidth="1"/>
-    <col min="5" max="5" width="55.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3058,16 +3058,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>481</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>277</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>276</v>
       </c>
@@ -3166,16 +3166,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>275</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>274</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>183</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>251</v>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
         <v>322</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>264</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>359</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
         <v>476</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="8" t="s">
         <v>354</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
         <v>361</v>
       </c>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
         <v>357</v>
       </c>
@@ -3376,16 +3376,16 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:5" s="1" customFormat="1">
+      <c r="A26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>271</v>
       </c>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>97</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>106</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="3" customFormat="1">
       <c r="A33" s="10" t="s">
         <v>117</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>121</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>123</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
         <v>136</v>
       </c>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>169</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
         <v>270</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
         <v>230</v>
       </c>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
         <v>214</v>
       </c>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
         <v>258</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
         <v>290</v>
       </c>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
         <v>436</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
         <v>291</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
         <v>292</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="12" t="s">
         <v>434</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
         <v>438</v>
       </c>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
         <v>293</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
         <v>294</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
         <v>500</v>
       </c>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
         <v>501</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
         <v>428</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
         <v>429</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
         <v>432</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
         <v>443</v>
       </c>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
         <v>446</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>512</v>
@@ -3758,7 +3758,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>511</v>
@@ -3767,7 +3767,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
         <v>514</v>
@@ -3776,7 +3776,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="16" t="s">
         <v>513</v>
@@ -3785,16 +3785,16 @@
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="12" t="s">
         <v>44</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
         <v>66</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
         <v>80</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
         <v>159</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
         <v>217</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
         <v>459</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
         <v>461</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="12" t="s">
         <v>244</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
         <v>457</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
         <v>300</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="12" t="s">
         <v>301</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
         <v>401</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
         <v>302</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="6" t="s">
         <v>303</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="12" t="s">
         <v>304</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="18" t="s">
         <v>400</v>
       </c>
@@ -3994,16 +3994,16 @@
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="34" t="s">
+    <row r="80" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A80" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
         <v>61</v>
       </c>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
         <v>64</v>
       </c>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
         <v>100</v>
       </c>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="12" t="s">
         <v>189</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
         <v>306</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="16">
       <c r="A87" s="12" t="s">
         <v>379</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
         <v>517</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
         <v>381</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
         <v>327</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="16">
       <c r="A91" s="12" t="s">
         <v>377</v>
       </c>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
         <v>375</v>
       </c>
@@ -4149,16 +4149,16 @@
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="34" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
         <v>57</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
         <v>193</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="12" t="s">
         <v>236</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
         <v>213</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="12" t="s">
         <v>246</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
         <v>323</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="12" t="s">
         <v>324</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
         <v>325</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
         <v>410</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
         <v>417</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
         <v>415</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
         <v>413</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="12" t="s">
         <v>408</v>
       </c>
@@ -4305,16 +4305,16 @@
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="34" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="12" t="s">
         <v>452</v>
       </c>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="12" t="s">
         <v>234</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
         <v>233</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
         <v>203</v>
       </c>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="12" t="s">
         <v>425</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="12" t="s">
         <v>246</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
         <v>291</v>
       </c>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="12" t="s">
         <v>311</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="12" t="s">
         <v>312</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="12" t="s">
         <v>422</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="12" t="s">
         <v>427</v>
       </c>
@@ -4454,16 +4454,16 @@
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="34" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
         <v>36</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
         <v>38</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="6" t="s">
         <v>72</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" s="12" t="s">
         <v>82</v>
       </c>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="12" t="s">
         <v>99</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="21" t="s">
         <v>187</v>
       </c>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="12" t="s">
         <v>191</v>
       </c>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="12" t="s">
         <v>195</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" s="12" t="s">
         <v>197</v>
       </c>
@@ -4580,7 +4580,7 @@
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="12" t="s">
         <v>226</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" s="12" t="s">
         <v>224</v>
       </c>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="12" t="s">
         <v>256</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="12" t="s">
         <v>262</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="12" t="s">
         <v>531</v>
       </c>
@@ -4641,16 +4641,16 @@
       </c>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="34" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="34"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="38"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="38"/>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
         <v>78</v>
       </c>
@@ -4661,7 +4661,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" s="6" t="s">
         <v>84</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" s="6" t="s">
         <v>91</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" s="6" t="s">
         <v>534</v>
       </c>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" s="12" t="s">
         <v>239</v>
       </c>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" s="12" t="s">
         <v>411</v>
       </c>
@@ -4720,16 +4720,16 @@
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="34" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
         <v>154</v>
       </c>
@@ -4740,7 +4740,7 @@
       <c r="D143" s="24"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" s="6" t="s">
         <v>155</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="D144" s="6"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="9" t="s">
         <v>259</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="9" t="s">
         <v>342</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
         <v>439</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" s="9" t="s">
         <v>440</v>
       </c>
@@ -4795,16 +4795,16 @@
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="34" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
         <v>162</v>
       </c>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="6" t="s">
         <v>344</v>
       </c>
@@ -4828,16 +4828,16 @@
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="34" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="38"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="38"/>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
         <v>538</v>
       </c>
@@ -4848,7 +4848,7 @@
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="6" t="s">
         <v>540</v>
       </c>
@@ -4859,7 +4859,7 @@
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="6" t="s">
         <v>465</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="12" t="s">
         <v>406</v>
       </c>
@@ -4881,7 +4881,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="12" t="s">
         <v>418</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="12" t="s">
         <v>404</v>
       </c>
@@ -4905,16 +4905,16 @@
       </c>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="34" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="34"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="38"/>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
         <v>110</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="12" t="s">
         <v>261</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="6" t="s">
         <v>474</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="6" t="s">
         <v>333</v>
       </c>
@@ -4958,16 +4958,16 @@
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="34" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="34"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="38"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="38"/>
+      <c r="E164" s="38"/>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
         <v>219</v>
       </c>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="6" t="s">
         <v>346</v>
       </c>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="6" t="s">
         <v>348</v>
       </c>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="9" t="s">
         <v>627</v>
       </c>
@@ -5017,16 +5017,16 @@
       <c r="D168" s="6"/>
       <c r="E168" s="23"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="34" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="34"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="38"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
         <v>51</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="12" t="s">
         <v>104</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="12" t="s">
         <v>115</v>
       </c>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="12" t="s">
         <v>179</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="6" t="s">
         <v>181</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="6" t="s">
         <v>317</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="12" t="s">
         <v>391</v>
       </c>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" s="6" t="s">
         <v>316</v>
       </c>
@@ -5118,7 +5118,7 @@
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="6" t="s">
         <v>315</v>
       </c>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="12" t="s">
         <v>395</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="12" t="s">
         <v>397</v>
       </c>
@@ -5153,16 +5153,16 @@
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="34" t="s">
+    <row r="181" spans="1:5">
+      <c r="A181" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="34"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="38"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="38"/>
+      <c r="E181" s="38"/>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
         <v>15</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" s="9" t="s">
         <v>279</v>
       </c>
@@ -5188,7 +5188,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="9" t="s">
         <v>280</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
         <v>26</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="6" t="s">
         <v>48</v>
       </c>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="6" t="s">
         <v>53</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="6" t="s">
         <v>387</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
         <v>93</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="9" t="s">
         <v>384</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
         <v>167</v>
       </c>
@@ -5284,7 +5284,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
         <v>171</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" s="6" t="s">
         <v>185</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" s="9" t="s">
         <v>205</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="6" t="s">
         <v>206</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="9" t="s">
         <v>388</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="9" t="s">
         <v>389</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" s="6" t="s">
         <v>273</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="6" t="s">
         <v>454</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="6" t="s">
         <v>467</v>
       </c>
@@ -5407,16 +5407,16 @@
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="34" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="34"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="38"/>
+      <c r="C203" s="38"/>
+      <c r="D203" s="38"/>
+      <c r="E203" s="38"/>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
         <v>86</v>
       </c>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="6" t="s">
         <v>89</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="12" t="s">
         <v>166</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="12" t="s">
         <v>330</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="6" t="s">
         <v>331</v>
       </c>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="12" t="s">
         <v>365</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="12" t="s">
         <v>368</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="16">
       <c r="A211" s="12" t="s">
         <v>308</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1">
       <c r="A212" s="12" t="s">
         <v>370</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="12" t="s">
         <v>372</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="12" t="s">
         <v>373</v>
       </c>
@@ -5549,16 +5549,16 @@
       </c>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="34" t="s">
+    <row r="215" spans="1:5">
+      <c r="A215" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="34"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="38"/>
+      <c r="C215" s="38"/>
+      <c r="D215" s="38"/>
+      <c r="E215" s="38"/>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="39" t="s">
         <v>553</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="D216" s="40"/>
       <c r="E216" s="40"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="6" t="s">
         <v>138</v>
       </c>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="6" t="s">
         <v>141</v>
       </c>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="9" t="s">
         <v>145</v>
       </c>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="9" t="s">
         <v>148</v>
       </c>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="9" t="s">
         <v>470</v>
       </c>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="9" t="s">
         <v>200</v>
       </c>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="6" t="s">
         <v>587</v>
       </c>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="9" t="s">
         <v>472</v>
       </c>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" s="9" t="s">
         <v>338</v>
       </c>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="9" t="s">
         <v>339</v>
       </c>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" s="9" t="s">
         <v>340</v>
       </c>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" s="6" t="s">
         <v>341</v>
       </c>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" s="6" t="s">
         <v>589</v>
       </c>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="6" t="s">
         <v>585</v>
       </c>
@@ -5749,14 +5749,14 @@
       </c>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="9" t="s">
         <v>139</v>
       </c>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="9" t="s">
         <v>140</v>
       </c>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="6" t="s">
         <v>591</v>
       </c>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="6" t="s">
         <v>595</v>
       </c>
@@ -5808,14 +5808,14 @@
       </c>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" s="9" t="s">
         <v>175</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="D237" s="6"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" s="9" t="s">
         <v>597</v>
       </c>
@@ -5837,7 +5837,7 @@
       <c r="D238" s="6"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" s="9" t="s">
         <v>135</v>
       </c>
@@ -5848,14 +5848,14 @@
       <c r="D239" s="14"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240" s="12"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="14"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" s="9" t="s">
         <v>142</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="D241" s="14"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="9" t="s">
         <v>143</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="D242" s="14"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
         <v>149</v>
       </c>
@@ -5888,7 +5888,7 @@
       <c r="D243" s="14"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="9" t="s">
         <v>150</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="D244" s="14"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="6" t="s">
         <v>152</v>
       </c>
@@ -5910,7 +5910,7 @@
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" s="9" t="s">
         <v>242</v>
       </c>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" s="9" t="s">
         <v>248</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" s="12" t="s">
         <v>551</v>
       </c>
@@ -5947,14 +5947,14 @@
       </c>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249" s="12"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250" s="12" t="s">
         <v>633</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" s="6" t="s">
         <v>137</v>
       </c>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" s="9" t="s">
         <v>144</v>
       </c>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" s="9" t="s">
         <v>606</v>
       </c>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254" s="6" t="s">
         <v>202</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255" s="6" t="s">
         <v>210</v>
       </c>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256" s="6" t="s">
         <v>211</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" s="6" t="s">
         <v>625</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="D257" s="6"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="12" t="s">
         <v>612</v>
       </c>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" s="12" t="s">
         <v>610</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="12" t="s">
         <v>605</v>
       </c>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" s="12" t="s">
         <v>608</v>
       </c>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" s="12" t="s">
         <v>602</v>
       </c>
@@ -6121,14 +6121,14 @@
       </c>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="35"/>
-      <c r="B263" s="35"/>
-      <c r="C263" s="35"/>
-      <c r="D263" s="35"/>
-      <c r="E263" s="35"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
         <v>222</v>
       </c>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" s="12" t="s">
         <v>616</v>
       </c>
@@ -6154,16 +6154,16 @@
       </c>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="34" t="s">
+    <row r="266" spans="1:5">
+      <c r="A266" s="38" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="34"/>
-      <c r="C266" s="34"/>
-      <c r="D266" s="34"/>
-      <c r="E266" s="34"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="38"/>
+      <c r="C266" s="38"/>
+      <c r="D266" s="38"/>
+      <c r="E266" s="38"/>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" s="9" t="s">
         <v>221</v>
       </c>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269" s="9" t="s">
         <v>468</v>
       </c>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270" s="9" t="s">
         <v>580</v>
       </c>
@@ -6217,14 +6217,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="35"/>
-      <c r="B271" s="35"/>
-      <c r="C271" s="35"/>
-      <c r="D271" s="35"/>
-      <c r="E271" s="36"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="35"/>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
         <v>382</v>
       </c>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" s="6" t="s">
         <v>249</v>
       </c>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" s="9" t="s">
         <v>554</v>
       </c>
@@ -6263,14 +6263,14 @@
       </c>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="37"/>
-      <c r="B275" s="37"/>
-      <c r="C275" s="37"/>
-      <c r="D275" s="37"/>
-      <c r="E275" s="38"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="37"/>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
         <v>156</v>
       </c>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" s="6" t="s">
         <v>229</v>
       </c>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" s="9" t="s">
         <v>480</v>
       </c>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" s="9" t="s">
         <v>479</v>
       </c>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" s="9" t="s">
         <v>478</v>
       </c>
@@ -6335,16 +6335,16 @@
       </c>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="34" t="s">
+    <row r="281" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A281" s="38" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="34"/>
-      <c r="C281" s="34"/>
-      <c r="D281" s="34"/>
-      <c r="E281" s="34"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="38"/>
+      <c r="C281" s="38"/>
+      <c r="D281" s="38"/>
+      <c r="E281" s="38"/>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
         <v>46</v>
       </c>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" s="6" t="s">
         <v>59</v>
       </c>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" s="9" t="s">
         <v>574</v>
       </c>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" s="2" customFormat="1">
       <c r="A285" s="26" t="s">
         <v>70</v>
       </c>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" s="2" customFormat="1">
       <c r="A286" s="32" t="s">
         <v>568</v>
       </c>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" s="6" t="s">
         <v>75</v>
       </c>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" s="9" t="s">
         <v>566</v>
       </c>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" s="6" t="s">
         <v>447</v>
       </c>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" s="6" t="s">
         <v>449</v>
       </c>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" s="6" t="s">
         <v>112</v>
       </c>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" s="9" t="s">
         <v>572</v>
       </c>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" s="6" t="s">
         <v>114</v>
       </c>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294" s="9" t="s">
         <v>564</v>
       </c>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="E294" s="7"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295" s="9" t="s">
         <v>570</v>
       </c>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="E295" s="7"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -6535,14 +6535,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6559,6 +6551,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6FDA70-B0F2-6340-8B6E-530E7252F9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B4B701-12B7-0F49-A6B2-1C46BB40B69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1260" windowWidth="23320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2724,6 +2724,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2734,9 +2737,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3028,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E230" sqref="E230"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3059,13 +3059,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -3167,13 +3167,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
@@ -3377,13 +3377,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
@@ -3786,13 +3786,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
@@ -3995,13 +3995,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
@@ -4150,13 +4150,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
@@ -4306,13 +4306,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
@@ -4455,13 +4455,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="38" t="s">
+      <c r="A120" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="38"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
@@ -4642,13 +4642,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="38" t="s">
+      <c r="A135" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
@@ -4721,13 +4721,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="38" t="s">
+      <c r="A142" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="38"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="38"/>
-      <c r="E142" s="38"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
@@ -4796,13 +4796,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
@@ -4829,13 +4829,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="38" t="s">
+      <c r="A152" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="38"/>
-      <c r="C152" s="38"/>
-      <c r="D152" s="38"/>
-      <c r="E152" s="38"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="34"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
@@ -4906,13 +4906,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="38" t="s">
+      <c r="A159" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="38"/>
-      <c r="C159" s="38"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="38"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
@@ -4959,13 +4959,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="38"/>
-      <c r="C164" s="38"/>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="34"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
@@ -5018,13 +5018,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="38"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
@@ -5154,13 +5154,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="38" t="s">
+      <c r="A181" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="38"/>
-      <c r="C181" s="38"/>
-      <c r="D181" s="38"/>
-      <c r="E181" s="38"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
@@ -5408,13 +5408,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="38" t="s">
+      <c r="A203" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="38"/>
-      <c r="C203" s="38"/>
-      <c r="D203" s="38"/>
-      <c r="E203" s="38"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="34"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
@@ -5550,13 +5550,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="38" t="s">
+      <c r="A215" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="38"/>
-      <c r="C215" s="38"/>
-      <c r="D215" s="38"/>
-      <c r="E215" s="38"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="34"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="39" t="s">
@@ -6122,11 +6122,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
+      <c r="A263" s="35"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="35"/>
+      <c r="D263" s="35"/>
+      <c r="E263" s="35"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
@@ -6155,13 +6155,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="38" t="s">
+      <c r="A266" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="38"/>
-      <c r="C266" s="38"/>
-      <c r="D266" s="38"/>
-      <c r="E266" s="38"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="34"/>
+      <c r="E266" s="34"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
@@ -6218,11 +6218,11 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="35"/>
+      <c r="A271" s="35"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="35"/>
+      <c r="E271" s="36"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
@@ -6264,11 +6264,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
-      <c r="D275" s="36"/>
-      <c r="E275" s="37"/>
+      <c r="A275" s="37"/>
+      <c r="B275" s="37"/>
+      <c r="C275" s="37"/>
+      <c r="D275" s="37"/>
+      <c r="E275" s="38"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
@@ -6336,13 +6336,13 @@
       <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="38" t="s">
+      <c r="A281" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="38"/>
-      <c r="C281" s="38"/>
-      <c r="D281" s="38"/>
-      <c r="E281" s="38"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="34"/>
+      <c r="D281" s="34"/>
+      <c r="E281" s="34"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
@@ -6535,6 +6535,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6551,14 +6559,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B4B701-12B7-0F49-A6B2-1C46BB40B69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A62F79-08B6-4ACD-8B95-4F605A42A716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1260" windowWidth="23320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2514,7 +2514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2683,7 +2683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2720,11 +2720,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2737,6 +2733,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3029,19 +3028,19 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A266" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.625" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3054,20 +3053,20 @@
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3080,7 +3079,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>481</v>
       </c>
@@ -3093,7 +3092,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3121,7 +3120,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>277</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>276</v>
       </c>
@@ -3166,16 +3165,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -3188,7 +3187,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>275</v>
       </c>
@@ -3201,7 +3200,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>274</v>
       </c>
@@ -3214,7 +3213,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3227,7 +3226,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
@@ -3240,7 +3239,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>183</v>
       </c>
@@ -3253,7 +3252,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>251</v>
       </c>
@@ -3268,7 +3267,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
@@ -3283,7 +3282,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>322</v>
       </c>
@@ -3294,7 +3293,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>264</v>
       </c>
@@ -3307,7 +3306,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>359</v>
       </c>
@@ -3320,7 +3319,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>476</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="16">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>354</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>361</v>
       </c>
@@ -3363,7 +3362,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>357</v>
       </c>
@@ -3376,16 +3375,16 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -3400,7 +3399,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>271</v>
       </c>
@@ -3415,7 +3414,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -3426,7 +3425,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>97</v>
       </c>
@@ -3437,7 +3436,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -3448,7 +3447,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>106</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>117</v>
       </c>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>121</v>
       </c>
@@ -3485,7 +3484,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>123</v>
       </c>
@@ -3496,7 +3495,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>136</v>
       </c>
@@ -3509,7 +3508,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>169</v>
       </c>
@@ -3520,7 +3519,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>270</v>
       </c>
@@ -3531,7 +3530,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>230</v>
       </c>
@@ -3544,7 +3543,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>214</v>
       </c>
@@ -3557,7 +3556,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>258</v>
       </c>
@@ -3568,7 +3567,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>290</v>
       </c>
@@ -3581,7 +3580,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>436</v>
       </c>
@@ -3594,7 +3593,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>291</v>
       </c>
@@ -3605,7 +3604,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>292</v>
       </c>
@@ -3616,7 +3615,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>434</v>
       </c>
@@ -3627,7 +3626,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>438</v>
       </c>
@@ -3640,7 +3639,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>293</v>
       </c>
@@ -3651,7 +3650,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>294</v>
       </c>
@@ -3662,7 +3661,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>500</v>
       </c>
@@ -3677,7 +3676,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>501</v>
       </c>
@@ -3692,7 +3691,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>428</v>
       </c>
@@ -3703,7 +3702,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>429</v>
       </c>
@@ -3714,7 +3713,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>432</v>
       </c>
@@ -3725,7 +3724,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>443</v>
       </c>
@@ -3738,7 +3737,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>446</v>
       </c>
@@ -3749,7 +3748,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>512</v>
@@ -3758,7 +3757,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>511</v>
@@ -3767,7 +3766,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
         <v>514</v>
@@ -3776,7 +3775,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="16" t="s">
         <v>513</v>
@@ -3785,16 +3784,16 @@
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +3804,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>44</v>
       </c>
@@ -3816,7 +3815,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>66</v>
       </c>
@@ -3827,7 +3826,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3838,7 +3837,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>80</v>
       </c>
@@ -3849,7 +3848,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>159</v>
       </c>
@@ -3862,7 +3861,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>217</v>
       </c>
@@ -3873,7 +3872,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>459</v>
       </c>
@@ -3884,7 +3883,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>461</v>
       </c>
@@ -3895,7 +3894,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>244</v>
       </c>
@@ -3906,7 +3905,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>457</v>
       </c>
@@ -3917,7 +3916,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>300</v>
       </c>
@@ -3928,7 +3927,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>301</v>
       </c>
@@ -3939,7 +3938,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>401</v>
       </c>
@@ -3950,7 +3949,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>302</v>
       </c>
@@ -3961,7 +3960,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>303</v>
       </c>
@@ -3972,7 +3971,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>304</v>
       </c>
@@ -3983,7 +3982,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>400</v>
       </c>
@@ -3994,16 +3993,16 @@
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="34" t="s">
+    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -4018,7 +4017,7 @@
       </c>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>61</v>
       </c>
@@ -4031,7 +4030,7 @@
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>64</v>
       </c>
@@ -4044,7 +4043,7 @@
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>100</v>
       </c>
@@ -4057,7 +4056,7 @@
       </c>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>189</v>
       </c>
@@ -4068,7 +4067,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>306</v>
       </c>
@@ -4079,7 +4078,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" ht="16">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>379</v>
       </c>
@@ -4090,7 +4089,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" ht="16">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>517</v>
       </c>
@@ -4101,7 +4100,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" ht="16">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>381</v>
       </c>
@@ -4112,7 +4111,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>327</v>
       </c>
@@ -4125,7 +4124,7 @@
       </c>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" ht="16">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>377</v>
       </c>
@@ -4138,7 +4137,7 @@
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" ht="16">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>375</v>
       </c>
@@ -4149,16 +4148,16 @@
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="34" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>57</v>
       </c>
@@ -4169,7 +4168,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>193</v>
       </c>
@@ -4180,7 +4179,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>236</v>
       </c>
@@ -4191,7 +4190,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>213</v>
       </c>
@@ -4202,7 +4201,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>246</v>
       </c>
@@ -4213,7 +4212,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>323</v>
       </c>
@@ -4224,7 +4223,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>324</v>
       </c>
@@ -4235,7 +4234,7 @@
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>325</v>
       </c>
@@ -4246,7 +4245,7 @@
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>410</v>
       </c>
@@ -4257,7 +4256,7 @@
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>417</v>
       </c>
@@ -4268,7 +4267,7 @@
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>415</v>
       </c>
@@ -4281,7 +4280,7 @@
       </c>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>413</v>
       </c>
@@ -4294,7 +4293,7 @@
       </c>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>408</v>
       </c>
@@ -4305,16 +4304,16 @@
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="34" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
@@ -4327,7 +4326,7 @@
       </c>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>452</v>
       </c>
@@ -4340,7 +4339,7 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>234</v>
       </c>
@@ -4351,7 +4350,7 @@
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>233</v>
       </c>
@@ -4362,7 +4361,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>203</v>
       </c>
@@ -4375,7 +4374,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>425</v>
       </c>
@@ -4386,7 +4385,7 @@
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>246</v>
       </c>
@@ -4397,7 +4396,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>291</v>
       </c>
@@ -4410,7 +4409,7 @@
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>311</v>
       </c>
@@ -4421,7 +4420,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>312</v>
       </c>
@@ -4432,7 +4431,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>422</v>
       </c>
@@ -4443,7 +4442,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>427</v>
       </c>
@@ -4454,16 +4453,16 @@
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="34" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>36</v>
       </c>
@@ -4474,7 +4473,7 @@
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>38</v>
       </c>
@@ -4489,7 +4488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>72</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>82</v>
       </c>
@@ -4517,7 +4516,7 @@
       </c>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>99</v>
       </c>
@@ -4530,7 +4529,7 @@
       </c>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
         <v>187</v>
       </c>
@@ -4543,7 +4542,7 @@
       </c>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>191</v>
       </c>
@@ -4556,7 +4555,7 @@
       </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>195</v>
       </c>
@@ -4569,7 +4568,7 @@
       </c>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>197</v>
       </c>
@@ -4580,7 +4579,7 @@
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>226</v>
       </c>
@@ -4593,7 +4592,7 @@
       </c>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>224</v>
       </c>
@@ -4606,7 +4605,7 @@
       </c>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>256</v>
       </c>
@@ -4617,7 +4616,7 @@
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>262</v>
       </c>
@@ -4628,7 +4627,7 @@
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>531</v>
       </c>
@@ -4641,16 +4640,16 @@
       </c>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="34" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="34"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>78</v>
       </c>
@@ -4661,7 +4660,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>84</v>
       </c>
@@ -4672,7 +4671,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>91</v>
       </c>
@@ -4683,7 +4682,7 @@
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>534</v>
       </c>
@@ -4696,7 +4695,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>239</v>
       </c>
@@ -4709,7 +4708,7 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>411</v>
       </c>
@@ -4720,16 +4719,16 @@
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="34" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>154</v>
       </c>
@@ -4740,7 +4739,7 @@
       <c r="D143" s="24"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>155</v>
       </c>
@@ -4751,7 +4750,7 @@
       <c r="D144" s="6"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>259</v>
       </c>
@@ -4762,7 +4761,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>342</v>
       </c>
@@ -4773,7 +4772,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>439</v>
       </c>
@@ -4784,7 +4783,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>440</v>
       </c>
@@ -4795,16 +4794,16 @@
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="34" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
         <v>162</v>
       </c>
@@ -4817,7 +4816,7 @@
       </c>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>344</v>
       </c>
@@ -4828,16 +4827,16 @@
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="34" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>538</v>
       </c>
@@ -4848,7 +4847,7 @@
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>540</v>
       </c>
@@ -4859,7 +4858,7 @@
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>465</v>
       </c>
@@ -4870,7 +4869,7 @@
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>406</v>
       </c>
@@ -4881,7 +4880,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
         <v>418</v>
       </c>
@@ -4892,7 +4891,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>404</v>
       </c>
@@ -4905,16 +4904,16 @@
       </c>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="34" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="34"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>110</v>
       </c>
@@ -4925,7 +4924,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
         <v>261</v>
       </c>
@@ -4936,7 +4935,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>474</v>
       </c>
@@ -4947,7 +4946,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>333</v>
       </c>
@@ -4958,16 +4957,16 @@
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="34" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="34"/>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>219</v>
       </c>
@@ -4980,7 +4979,7 @@
       </c>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>346</v>
       </c>
@@ -4993,7 +4992,7 @@
       </c>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>348</v>
       </c>
@@ -5006,7 +5005,7 @@
       </c>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>627</v>
       </c>
@@ -5017,16 +5016,16 @@
       <c r="D168" s="6"/>
       <c r="E168" s="23"/>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="34" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="34"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>51</v>
       </c>
@@ -5037,7 +5036,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>104</v>
       </c>
@@ -5048,7 +5047,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>115</v>
       </c>
@@ -5061,7 +5060,7 @@
       </c>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>179</v>
       </c>
@@ -5072,7 +5071,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>181</v>
       </c>
@@ -5083,7 +5082,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>317</v>
       </c>
@@ -5094,7 +5093,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
         <v>391</v>
       </c>
@@ -5107,7 +5106,7 @@
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>316</v>
       </c>
@@ -5118,7 +5117,7 @@
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>315</v>
       </c>
@@ -5131,7 +5130,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>395</v>
       </c>
@@ -5142,7 +5141,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>397</v>
       </c>
@@ -5153,16 +5152,16 @@
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="34" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="34"/>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>15</v>
       </c>
@@ -5175,7 +5174,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>279</v>
       </c>
@@ -5188,7 +5187,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>280</v>
       </c>
@@ -5201,7 +5200,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>26</v>
       </c>
@@ -5214,7 +5213,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>48</v>
       </c>
@@ -5227,7 +5226,7 @@
       </c>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>53</v>
       </c>
@@ -5240,7 +5239,7 @@
       </c>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>387</v>
       </c>
@@ -5251,7 +5250,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>93</v>
       </c>
@@ -5262,7 +5261,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>384</v>
       </c>
@@ -5273,7 +5272,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>167</v>
       </c>
@@ -5284,7 +5283,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>171</v>
       </c>
@@ -5295,7 +5294,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -5306,7 +5305,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -5319,7 +5318,7 @@
       </c>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>185</v>
       </c>
@@ -5330,7 +5329,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>205</v>
       </c>
@@ -5341,7 +5340,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>206</v>
       </c>
@@ -5352,7 +5351,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>388</v>
       </c>
@@ -5363,7 +5362,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>389</v>
       </c>
@@ -5374,7 +5373,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>273</v>
       </c>
@@ -5385,7 +5384,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>454</v>
       </c>
@@ -5396,7 +5395,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>467</v>
       </c>
@@ -5407,16 +5406,16 @@
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="34" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="34"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>86</v>
       </c>
@@ -5429,7 +5428,7 @@
       </c>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>89</v>
       </c>
@@ -5440,7 +5439,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
         <v>166</v>
       </c>
@@ -5451,7 +5450,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
         <v>330</v>
       </c>
@@ -5462,7 +5461,7 @@
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>331</v>
       </c>
@@ -5475,7 +5474,7 @@
       </c>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>365</v>
       </c>
@@ -5488,7 +5487,7 @@
       </c>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
         <v>368</v>
       </c>
@@ -5499,7 +5498,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" ht="16">
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>308</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>370</v>
       </c>
@@ -5525,7 +5524,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>372</v>
       </c>
@@ -5536,7 +5535,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>373</v>
       </c>
@@ -5549,25 +5548,25 @@
       </c>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="34" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="34"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34"/>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="39" t="s">
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="B216" s="40"/>
-      <c r="C216" s="40"/>
-      <c r="D216" s="40"/>
-      <c r="E216" s="40"/>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="B216" s="39"/>
+      <c r="C216" s="39"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="39"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>138</v>
       </c>
@@ -5580,7 +5579,7 @@
       </c>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>141</v>
       </c>
@@ -5593,7 +5592,7 @@
       </c>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>145</v>
       </c>
@@ -5606,7 +5605,7 @@
       </c>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>148</v>
       </c>
@@ -5619,7 +5618,7 @@
       </c>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>470</v>
       </c>
@@ -5632,7 +5631,7 @@
       </c>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>200</v>
       </c>
@@ -5645,7 +5644,7 @@
       </c>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>587</v>
       </c>
@@ -5658,7 +5657,7 @@
       </c>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>472</v>
       </c>
@@ -5671,7 +5670,7 @@
       </c>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>338</v>
       </c>
@@ -5684,7 +5683,7 @@
       </c>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>339</v>
       </c>
@@ -5697,7 +5696,7 @@
       </c>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>340</v>
       </c>
@@ -5710,7 +5709,7 @@
       </c>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>341</v>
       </c>
@@ -5723,7 +5722,7 @@
       </c>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>589</v>
       </c>
@@ -5736,7 +5735,7 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>585</v>
       </c>
@@ -5749,14 +5748,14 @@
       </c>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>139</v>
       </c>
@@ -5769,7 +5768,7 @@
       </c>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>140</v>
       </c>
@@ -5782,7 +5781,7 @@
       </c>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>591</v>
       </c>
@@ -5795,7 +5794,7 @@
       </c>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>595</v>
       </c>
@@ -5808,14 +5807,14 @@
       </c>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>175</v>
       </c>
@@ -5826,7 +5825,7 @@
       <c r="D237" s="6"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>597</v>
       </c>
@@ -5837,7 +5836,7 @@
       <c r="D238" s="6"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>135</v>
       </c>
@@ -5848,14 +5847,14 @@
       <c r="D239" s="14"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="14"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>142</v>
       </c>
@@ -5866,7 +5865,7 @@
       <c r="D241" s="14"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>143</v>
       </c>
@@ -5877,7 +5876,7 @@
       <c r="D242" s="14"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>149</v>
       </c>
@@ -5888,7 +5887,7 @@
       <c r="D243" s="14"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>150</v>
       </c>
@@ -5899,7 +5898,7 @@
       <c r="D244" s="14"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>152</v>
       </c>
@@ -5910,7 +5909,7 @@
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>242</v>
       </c>
@@ -5923,7 +5922,7 @@
       </c>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>248</v>
       </c>
@@ -5934,7 +5933,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
         <v>551</v>
       </c>
@@ -5947,14 +5946,14 @@
       </c>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
         <v>633</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>137</v>
       </c>
@@ -5982,7 +5981,7 @@
       </c>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>144</v>
       </c>
@@ -5995,7 +5994,7 @@
       </c>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>606</v>
       </c>
@@ -6008,7 +6007,7 @@
       </c>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>202</v>
       </c>
@@ -6021,7 +6020,7 @@
       </c>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>210</v>
       </c>
@@ -6034,7 +6033,7 @@
       </c>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>211</v>
       </c>
@@ -6045,7 +6044,7 @@
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>625</v>
       </c>
@@ -6056,7 +6055,7 @@
       <c r="D257" s="6"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
         <v>612</v>
       </c>
@@ -6069,7 +6068,7 @@
       </c>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
         <v>610</v>
       </c>
@@ -6082,7 +6081,7 @@
       </c>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
         <v>605</v>
       </c>
@@ -6095,7 +6094,7 @@
       </c>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
         <v>608</v>
       </c>
@@ -6108,7 +6107,7 @@
       </c>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
         <v>602</v>
       </c>
@@ -6121,14 +6120,14 @@
       </c>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="35"/>
-      <c r="B263" s="35"/>
-      <c r="C263" s="35"/>
-      <c r="D263" s="35"/>
-      <c r="E263" s="35"/>
-    </row>
-    <row r="264" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>222</v>
       </c>
@@ -6141,7 +6140,7 @@
       </c>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
         <v>616</v>
       </c>
@@ -6154,16 +6153,16 @@
       </c>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="34" t="s">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="34"/>
-      <c r="C266" s="34"/>
-      <c r="D266" s="34"/>
-      <c r="E266" s="34"/>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
@@ -6176,7 +6175,7 @@
       </c>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>221</v>
       </c>
@@ -6189,7 +6188,7 @@
       </c>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>468</v>
       </c>
@@ -6202,7 +6201,7 @@
       </c>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>580</v>
       </c>
@@ -6217,14 +6216,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="35"/>
-      <c r="B271" s="35"/>
-      <c r="C271" s="35"/>
-      <c r="D271" s="35"/>
-      <c r="E271" s="36"/>
-    </row>
-    <row r="272" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
         <v>382</v>
       </c>
@@ -6237,7 +6236,7 @@
       </c>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>249</v>
       </c>
@@ -6250,7 +6249,7 @@
       </c>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>554</v>
       </c>
@@ -6263,14 +6262,14 @@
       </c>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="37"/>
-      <c r="B275" s="37"/>
-      <c r="C275" s="37"/>
-      <c r="D275" s="37"/>
-      <c r="E275" s="38"/>
-    </row>
-    <row r="276" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="36"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>156</v>
       </c>
@@ -6283,7 +6282,7 @@
       </c>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>229</v>
       </c>
@@ -6296,7 +6295,7 @@
       </c>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>480</v>
       </c>
@@ -6309,7 +6308,7 @@
       </c>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>479</v>
       </c>
@@ -6322,7 +6321,7 @@
       </c>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
         <v>478</v>
       </c>
@@ -6335,16 +6334,16 @@
       </c>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="34" t="s">
+    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="34"/>
-      <c r="C281" s="34"/>
-      <c r="D281" s="34"/>
-      <c r="E281" s="34"/>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="B281" s="37"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>46</v>
       </c>
@@ -6357,7 +6356,7 @@
       </c>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>59</v>
       </c>
@@ -6370,7 +6369,7 @@
       </c>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="9" t="s">
         <v>574</v>
       </c>
@@ -6383,7 +6382,7 @@
       </c>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" s="2" customFormat="1">
+    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="26" t="s">
         <v>70</v>
       </c>
@@ -6396,8 +6395,8 @@
       </c>
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="1:5" s="2" customFormat="1">
-      <c r="A286" s="32" t="s">
+    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="26" t="s">
         <v>568</v>
       </c>
       <c r="B286" s="26" t="s">
@@ -6409,7 +6408,7 @@
       </c>
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>75</v>
       </c>
@@ -6422,7 +6421,7 @@
       </c>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="9" t="s">
         <v>566</v>
       </c>
@@ -6435,7 +6434,7 @@
       </c>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>447</v>
       </c>
@@ -6448,7 +6447,7 @@
       </c>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>449</v>
       </c>
@@ -6461,7 +6460,7 @@
       </c>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>112</v>
       </c>
@@ -6474,7 +6473,7 @@
       </c>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
         <v>572</v>
       </c>
@@ -6487,7 +6486,7 @@
       </c>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>114</v>
       </c>
@@ -6500,7 +6499,7 @@
       </c>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="9" t="s">
         <v>564</v>
       </c>
@@ -6513,7 +6512,7 @@
       </c>
       <c r="E294" s="7"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="9" t="s">
         <v>570</v>
       </c>
@@ -6526,7 +6525,7 @@
       </c>
       <c r="E295" s="7"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -6535,14 +6534,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6559,6 +6550,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A62F79-08B6-4ACD-8B95-4F605A42A716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6AA576-7EB5-2B4D-9F69-5B9FEBCA656F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2514,7 +2514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2723,6 +2723,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2733,9 +2736,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3028,19 +3028,19 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A266" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D279" sqref="D279"/>
+      <selection activeCell="E278" sqref="E278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.625" customWidth="1"/>
-    <col min="5" max="5" width="55.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3057,16 +3057,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>481</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>277</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>276</v>
       </c>
@@ -3165,16 +3165,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>275</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>274</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>183</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>251</v>
       </c>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
         <v>322</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>264</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>359</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
         <v>476</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="8" t="s">
         <v>354</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
         <v>361</v>
       </c>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
         <v>357</v>
       </c>
@@ -3375,16 +3375,16 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:5" s="1" customFormat="1">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>271</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>97</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>106</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="3" customFormat="1">
       <c r="A33" s="10" t="s">
         <v>117</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>121</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>123</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
         <v>136</v>
       </c>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>169</v>
       </c>
@@ -3519,7 +3519,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
         <v>270</v>
       </c>
@@ -3530,7 +3530,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
         <v>230</v>
       </c>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
         <v>214</v>
       </c>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
         <v>258</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
         <v>290</v>
       </c>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
         <v>436</v>
       </c>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
         <v>291</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
         <v>292</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="12" t="s">
         <v>434</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
         <v>438</v>
       </c>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
         <v>293</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
         <v>294</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
         <v>500</v>
       </c>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
         <v>501</v>
       </c>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
         <v>428</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
         <v>429</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
         <v>432</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
         <v>443</v>
       </c>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
         <v>446</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>512</v>
@@ -3757,7 +3757,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>511</v>
@@ -3766,7 +3766,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
         <v>514</v>
@@ -3775,7 +3775,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="16" t="s">
         <v>513</v>
@@ -3784,16 +3784,16 @@
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="37" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
         <v>24</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="12" t="s">
         <v>44</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
         <v>66</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
         <v>80</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
         <v>159</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
         <v>217</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
         <v>459</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
         <v>461</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="12" t="s">
         <v>244</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
         <v>457</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
         <v>300</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="12" t="s">
         <v>301</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
         <v>401</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
         <v>302</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="6" t="s">
         <v>303</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="12" t="s">
         <v>304</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="18" t="s">
         <v>400</v>
       </c>
@@ -3993,16 +3993,16 @@
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+    <row r="80" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
         <v>61</v>
       </c>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
         <v>64</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
         <v>100</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="12" t="s">
         <v>189</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
         <v>306</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="16">
       <c r="A87" s="12" t="s">
         <v>379</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
         <v>517</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
         <v>381</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
         <v>327</v>
       </c>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="16">
       <c r="A91" s="12" t="s">
         <v>377</v>
       </c>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
         <v>375</v>
       </c>
@@ -4148,16 +4148,16 @@
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
         <v>57</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
         <v>193</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="12" t="s">
         <v>236</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
         <v>213</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="12" t="s">
         <v>246</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
         <v>323</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="12" t="s">
         <v>324</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
         <v>325</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
         <v>410</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
         <v>417</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
         <v>415</v>
       </c>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
         <v>413</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="12" t="s">
         <v>408</v>
       </c>
@@ -4304,16 +4304,16 @@
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="12" t="s">
         <v>452</v>
       </c>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="12" t="s">
         <v>234</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
         <v>233</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
         <v>203</v>
       </c>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="12" t="s">
         <v>425</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="12" t="s">
         <v>246</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
         <v>291</v>
       </c>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="12" t="s">
         <v>311</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="12" t="s">
         <v>312</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="12" t="s">
         <v>422</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="12" t="s">
         <v>427</v>
       </c>
@@ -4453,16 +4453,16 @@
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="37" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
         <v>36</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
         <v>38</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="6" t="s">
         <v>72</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" s="12" t="s">
         <v>82</v>
       </c>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="12" t="s">
         <v>99</v>
       </c>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="21" t="s">
         <v>187</v>
       </c>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="12" t="s">
         <v>191</v>
       </c>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="12" t="s">
         <v>195</v>
       </c>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" s="12" t="s">
         <v>197</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="12" t="s">
         <v>226</v>
       </c>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" s="12" t="s">
         <v>224</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="12" t="s">
         <v>256</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="12" t="s">
         <v>262</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="12" t="s">
         <v>531</v>
       </c>
@@ -4640,16 +4640,16 @@
       </c>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="37" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
         <v>78</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" s="6" t="s">
         <v>84</v>
       </c>
@@ -4671,7 +4671,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" s="6" t="s">
         <v>91</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" s="6" t="s">
         <v>534</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" s="12" t="s">
         <v>239</v>
       </c>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" s="12" t="s">
         <v>411</v>
       </c>
@@ -4719,16 +4719,16 @@
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="37" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
         <v>154</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="D143" s="24"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" s="6" t="s">
         <v>155</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="D144" s="6"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="9" t="s">
         <v>259</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="9" t="s">
         <v>342</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
         <v>439</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" s="9" t="s">
         <v>440</v>
       </c>
@@ -4794,16 +4794,16 @@
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="37" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
         <v>162</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="6" t="s">
         <v>344</v>
       </c>
@@ -4827,16 +4827,16 @@
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="37" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
         <v>538</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="6" t="s">
         <v>540</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="6" t="s">
         <v>465</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="12" t="s">
         <v>406</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="12" t="s">
         <v>418</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="12" t="s">
         <v>404</v>
       </c>
@@ -4904,16 +4904,16 @@
       </c>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="37" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
         <v>110</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="12" t="s">
         <v>261</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="6" t="s">
         <v>474</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="6" t="s">
         <v>333</v>
       </c>
@@ -4957,16 +4957,16 @@
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="37" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
         <v>219</v>
       </c>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="6" t="s">
         <v>346</v>
       </c>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="6" t="s">
         <v>348</v>
       </c>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="9" t="s">
         <v>627</v>
       </c>
@@ -5016,16 +5016,16 @@
       <c r="D168" s="6"/>
       <c r="E168" s="23"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="37" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
         <v>51</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="12" t="s">
         <v>104</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="12" t="s">
         <v>115</v>
       </c>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="12" t="s">
         <v>179</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="6" t="s">
         <v>181</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="6" t="s">
         <v>317</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="12" t="s">
         <v>391</v>
       </c>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" s="6" t="s">
         <v>316</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="6" t="s">
         <v>315</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="12" t="s">
         <v>395</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="12" t="s">
         <v>397</v>
       </c>
@@ -5152,16 +5152,16 @@
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="37" t="s">
+    <row r="181" spans="1:5">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
         <v>15</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" s="9" t="s">
         <v>279</v>
       </c>
@@ -5187,7 +5187,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="9" t="s">
         <v>280</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
         <v>26</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="6" t="s">
         <v>48</v>
       </c>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="6" t="s">
         <v>53</v>
       </c>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="6" t="s">
         <v>387</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
         <v>93</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="9" t="s">
         <v>384</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
         <v>167</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
         <v>171</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" s="6" t="s">
         <v>185</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" s="9" t="s">
         <v>205</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="6" t="s">
         <v>206</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="9" t="s">
         <v>388</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="9" t="s">
         <v>389</v>
       </c>
@@ -5373,7 +5373,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" s="6" t="s">
         <v>273</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="6" t="s">
         <v>454</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="6" t="s">
         <v>467</v>
       </c>
@@ -5406,16 +5406,16 @@
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="37" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
         <v>86</v>
       </c>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="6" t="s">
         <v>89</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="12" t="s">
         <v>166</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="12" t="s">
         <v>330</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="6" t="s">
         <v>331</v>
       </c>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="12" t="s">
         <v>365</v>
       </c>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="12" t="s">
         <v>368</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="16">
       <c r="A211" s="12" t="s">
         <v>308</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1">
       <c r="A212" s="12" t="s">
         <v>370</v>
       </c>
@@ -5524,7 +5524,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="12" t="s">
         <v>372</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="12" t="s">
         <v>373</v>
       </c>
@@ -5548,16 +5548,16 @@
       </c>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="37" t="s">
+    <row r="215" spans="1:5">
+      <c r="A215" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="38" t="s">
         <v>553</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="D216" s="39"/>
       <c r="E216" s="39"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="6" t="s">
         <v>138</v>
       </c>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="6" t="s">
         <v>141</v>
       </c>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="9" t="s">
         <v>145</v>
       </c>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="9" t="s">
         <v>148</v>
       </c>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="9" t="s">
         <v>470</v>
       </c>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="9" t="s">
         <v>200</v>
       </c>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="6" t="s">
         <v>587</v>
       </c>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="9" t="s">
         <v>472</v>
       </c>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" s="9" t="s">
         <v>338</v>
       </c>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="9" t="s">
         <v>339</v>
       </c>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" s="9" t="s">
         <v>340</v>
       </c>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" s="6" t="s">
         <v>341</v>
       </c>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" s="6" t="s">
         <v>589</v>
       </c>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="6" t="s">
         <v>585</v>
       </c>
@@ -5748,14 +5748,14 @@
       </c>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="9" t="s">
         <v>139</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="9" t="s">
         <v>140</v>
       </c>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="6" t="s">
         <v>591</v>
       </c>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="6" t="s">
         <v>595</v>
       </c>
@@ -5807,14 +5807,14 @@
       </c>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" s="9" t="s">
         <v>175</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="D237" s="6"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" s="9" t="s">
         <v>597</v>
       </c>
@@ -5836,7 +5836,7 @@
       <c r="D238" s="6"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" s="9" t="s">
         <v>135</v>
       </c>
@@ -5847,14 +5847,14 @@
       <c r="D239" s="14"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240" s="12"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="14"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" s="9" t="s">
         <v>142</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="D241" s="14"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="9" t="s">
         <v>143</v>
       </c>
@@ -5876,7 +5876,7 @@
       <c r="D242" s="14"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
         <v>149</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="D243" s="14"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="9" t="s">
         <v>150</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="D244" s="14"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="6" t="s">
         <v>152</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" s="9" t="s">
         <v>242</v>
       </c>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" s="9" t="s">
         <v>248</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" s="12" t="s">
         <v>551</v>
       </c>
@@ -5946,14 +5946,14 @@
       </c>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249" s="12"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250" s="12" t="s">
         <v>633</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" s="6" t="s">
         <v>137</v>
       </c>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" s="9" t="s">
         <v>144</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" s="9" t="s">
         <v>606</v>
       </c>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254" s="6" t="s">
         <v>202</v>
       </c>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255" s="6" t="s">
         <v>210</v>
       </c>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256" s="6" t="s">
         <v>211</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" s="6" t="s">
         <v>625</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="D257" s="6"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="12" t="s">
         <v>612</v>
       </c>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" s="12" t="s">
         <v>610</v>
       </c>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="12" t="s">
         <v>605</v>
       </c>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" s="12" t="s">
         <v>608</v>
       </c>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" s="12" t="s">
         <v>602</v>
       </c>
@@ -6120,14 +6120,14 @@
       </c>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
         <v>222</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" s="12" t="s">
         <v>616</v>
       </c>
@@ -6153,16 +6153,16 @@
       </c>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="37" t="s">
+    <row r="266" spans="1:5">
+      <c r="A266" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="37"/>
-      <c r="E266" s="37"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" s="9" t="s">
         <v>221</v>
       </c>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269" s="9" t="s">
         <v>468</v>
       </c>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270" s="9" t="s">
         <v>580</v>
       </c>
@@ -6216,14 +6216,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="35"/>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
         <v>382</v>
       </c>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" s="6" t="s">
         <v>249</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" s="9" t="s">
         <v>554</v>
       </c>
@@ -6262,14 +6262,14 @@
       </c>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="36"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="37"/>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
         <v>156</v>
       </c>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" s="6" t="s">
         <v>229</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" s="9" t="s">
         <v>480</v>
       </c>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" s="9" t="s">
         <v>479</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" s="9" t="s">
         <v>478</v>
       </c>
@@ -6334,16 +6334,16 @@
       </c>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="37" t="s">
+    <row r="281" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A281" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="37"/>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
         <v>46</v>
       </c>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" s="6" t="s">
         <v>59</v>
       </c>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" s="9" t="s">
         <v>574</v>
       </c>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" s="2" customFormat="1">
       <c r="A285" s="26" t="s">
         <v>70</v>
       </c>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" s="2" customFormat="1">
       <c r="A286" s="26" t="s">
         <v>568</v>
       </c>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" s="6" t="s">
         <v>75</v>
       </c>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" s="9" t="s">
         <v>566</v>
       </c>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" s="6" t="s">
         <v>447</v>
       </c>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" s="6" t="s">
         <v>449</v>
       </c>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" s="6" t="s">
         <v>112</v>
       </c>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" s="9" t="s">
         <v>572</v>
       </c>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" s="6" t="s">
         <v>114</v>
       </c>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294" s="9" t="s">
         <v>564</v>
       </c>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="E294" s="7"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295" s="9" t="s">
         <v>570</v>
       </c>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="E295" s="7"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -6534,6 +6534,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6550,14 +6558,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6AA576-7EB5-2B4D-9F69-5B9FEBCA656F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3188A94-BE61-954E-8616-40C6AD9E50AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2723,9 +2723,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2736,6 +2733,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E278" sqref="E278"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3058,13 +3058,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -3166,13 +3166,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
@@ -3376,13 +3376,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
@@ -3785,13 +3785,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
@@ -3994,13 +3994,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
@@ -4149,13 +4149,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
@@ -4305,13 +4305,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
@@ -4454,13 +4454,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
@@ -4641,13 +4641,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
@@ -4720,13 +4720,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
@@ -4795,13 +4795,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
@@ -4828,13 +4828,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
@@ -4905,13 +4905,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
@@ -4958,13 +4958,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
@@ -5017,13 +5017,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
@@ -5153,13 +5153,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
@@ -5407,13 +5407,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="33" t="s">
+      <c r="A203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
@@ -5549,13 +5549,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="33" t="s">
+      <c r="A215" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="38" t="s">
@@ -6121,11 +6121,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
@@ -6154,13 +6154,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="33" t="s">
+      <c r="A266" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
@@ -6217,11 +6217,11 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="35"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
@@ -6263,11 +6263,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
-      <c r="D275" s="36"/>
-      <c r="E275" s="37"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="36"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
@@ -6335,13 +6335,13 @@
       <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="33" t="s">
+      <c r="A281" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="33"/>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
+      <c r="B281" s="37"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
@@ -6422,7 +6422,7 @@
       <c r="E287" s="7"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="9" t="s">
+      <c r="A288" s="12" t="s">
         <v>566</v>
       </c>
       <c r="B288" s="12" t="s">
@@ -6534,14 +6534,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6558,6 +6550,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3188A94-BE61-954E-8616-40C6AD9E50AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE5A014-D057-FE4E-B935-3664ADAEE823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2723,6 +2723,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2733,9 +2736,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D284" sqref="D284"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3058,13 +3058,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -3166,13 +3166,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
@@ -3376,13 +3376,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
@@ -3785,13 +3785,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
@@ -3994,13 +3994,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
@@ -4149,13 +4149,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
@@ -4305,13 +4305,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
@@ -4454,13 +4454,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
@@ -4641,13 +4641,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
@@ -4720,13 +4720,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
@@ -4795,13 +4795,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
@@ -4828,13 +4828,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
@@ -4905,13 +4905,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
@@ -4958,13 +4958,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
@@ -5017,13 +5017,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
@@ -5153,13 +5153,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
@@ -5407,13 +5407,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
@@ -5549,13 +5549,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="38" t="s">
@@ -6121,11 +6121,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
@@ -6154,13 +6154,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="37" t="s">
+      <c r="A266" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="37"/>
-      <c r="E266" s="37"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
@@ -6217,11 +6217,11 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="35"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
@@ -6263,11 +6263,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="36"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="37"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
@@ -6335,13 +6335,13 @@
       <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="37" t="s">
+      <c r="A281" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="37"/>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
@@ -6534,6 +6534,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6550,14 +6558,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE5A014-D057-FE4E-B935-3664ADAEE823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0639D38-701A-464D-8883-BE5101E0C450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2723,9 +2723,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2736,6 +2733,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D293" activeCellId="1" sqref="D289 D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3058,13 +3058,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -3166,13 +3166,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
@@ -3376,13 +3376,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
@@ -3785,13 +3785,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
@@ -3994,13 +3994,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
@@ -4149,13 +4149,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
@@ -4305,13 +4305,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
@@ -4454,13 +4454,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
@@ -4641,13 +4641,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
@@ -4720,13 +4720,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
@@ -4795,13 +4795,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
@@ -4828,13 +4828,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
@@ -4905,13 +4905,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
@@ -4958,13 +4958,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
@@ -5017,13 +5017,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
@@ -5153,13 +5153,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
@@ -5407,13 +5407,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="33" t="s">
+      <c r="A203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
@@ -5549,13 +5549,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="33" t="s">
+      <c r="A215" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="38" t="s">
@@ -6121,11 +6121,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
@@ -6154,13 +6154,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="33" t="s">
+      <c r="A266" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
@@ -6217,11 +6217,11 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="35"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
@@ -6263,11 +6263,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
-      <c r="D275" s="36"/>
-      <c r="E275" s="37"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="36"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
@@ -6335,13 +6335,13 @@
       <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="33" t="s">
+      <c r="A281" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="33"/>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
+      <c r="B281" s="37"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
@@ -6474,7 +6474,7 @@
       <c r="E291" s="7"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="12" t="s">
         <v>572</v>
       </c>
       <c r="B292" s="6" t="s">
@@ -6534,14 +6534,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6558,6 +6550,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0639D38-701A-464D-8883-BE5101E0C450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343C64F-BE52-0D49-94B9-4DF213348321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2723,6 +2723,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2733,9 +2736,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3028,7 +3028,7 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D293" activeCellId="1" sqref="D289 D293"/>
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3058,13 +3058,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -3166,13 +3166,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
@@ -3376,13 +3376,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
@@ -3785,13 +3785,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
@@ -3994,13 +3994,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
@@ -4149,13 +4149,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
@@ -4305,13 +4305,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
@@ -4454,13 +4454,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
@@ -4641,13 +4641,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
@@ -4720,13 +4720,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
@@ -4795,13 +4795,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
@@ -4828,13 +4828,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
@@ -4905,13 +4905,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
@@ -4958,13 +4958,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
@@ -5017,13 +5017,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
@@ -5153,13 +5153,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
@@ -5407,13 +5407,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
@@ -5549,13 +5549,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="38" t="s">
@@ -6121,11 +6121,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
@@ -6154,13 +6154,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="37" t="s">
+      <c r="A266" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="37"/>
-      <c r="E266" s="37"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
@@ -6217,11 +6217,11 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="35"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
@@ -6263,11 +6263,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="36"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="37"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
@@ -6335,13 +6335,13 @@
       <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="37" t="s">
+      <c r="A281" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="37"/>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
@@ -6513,7 +6513,7 @@
       <c r="E294" s="7"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="9" t="s">
+      <c r="A295" s="12" t="s">
         <v>570</v>
       </c>
       <c r="B295" s="12" t="s">
@@ -6534,6 +6534,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6550,14 +6558,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343C64F-BE52-0D49-94B9-4DF213348321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A5FC4-D9C7-4D41-8825-15F6555006F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2723,9 +2723,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2736,6 +2733,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3027,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3058,13 +3058,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -3166,13 +3166,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
@@ -3376,13 +3376,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
@@ -3785,13 +3785,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
@@ -3994,13 +3994,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
@@ -4149,13 +4149,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
@@ -4305,13 +4305,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
@@ -4454,13 +4454,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
@@ -4641,13 +4641,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
@@ -4720,13 +4720,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
@@ -4795,13 +4795,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
@@ -4828,13 +4828,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
@@ -4905,13 +4905,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
@@ -4958,13 +4958,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
@@ -5017,13 +5017,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
@@ -5153,13 +5153,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
@@ -5407,13 +5407,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="33" t="s">
+      <c r="A203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
@@ -5549,13 +5549,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="33" t="s">
+      <c r="A215" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="38" t="s">
@@ -6121,11 +6121,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
@@ -6154,13 +6154,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="33" t="s">
+      <c r="A266" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
@@ -6217,11 +6217,11 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="35"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
@@ -6263,11 +6263,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
-      <c r="D275" s="36"/>
-      <c r="E275" s="37"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="36"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
@@ -6335,13 +6335,13 @@
       <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="33" t="s">
+      <c r="A281" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="33"/>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
+      <c r="B281" s="37"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
@@ -6409,11 +6409,11 @@
       <c r="E286" s="27"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="6" t="s">
-        <v>75</v>
+      <c r="A287" s="12" t="s">
+        <v>570</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>76</v>
+        <v>571</v>
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="31" t="s">
@@ -6422,11 +6422,11 @@
       <c r="E287" s="7"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="12" t="s">
-        <v>566</v>
+      <c r="A288" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>567</v>
+        <v>76</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="31" t="s">
@@ -6435,11 +6435,11 @@
       <c r="E288" s="7"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="6" t="s">
-        <v>447</v>
+      <c r="A289" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="31" t="s">
@@ -6449,10 +6449,10 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="31" t="s">
@@ -6462,10 +6462,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>113</v>
+        <v>449</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="31" t="s">
@@ -6474,11 +6474,11 @@
       <c r="E291" s="7"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="12" t="s">
-        <v>572</v>
+      <c r="A292" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>573</v>
+        <v>113</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="31" t="s">
@@ -6487,37 +6487,37 @@
       <c r="E292" s="7"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C293" s="6"/>
+      <c r="D293" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="E293" s="7"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B294" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6" t="s">
+      <c r="C294" s="6"/>
+      <c r="D294" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="E293" s="7"/>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="B294" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="C294" s="6"/>
-      <c r="D294" s="31" t="s">
-        <v>563</v>
       </c>
       <c r="E294" s="7"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="12" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C295" s="6"/>
       <c r="D295" s="31" t="s">
@@ -6534,14 +6534,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6558,6 +6550,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A5FC4-D9C7-4D41-8825-15F6555006F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D471E38-17D2-4E47-87DE-D374359651CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="635">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2507,6 +2507,10 @@
   </si>
   <si>
     <t>L95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断已经填入的受罪是否有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2723,6 +2727,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2733,9 +2740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3027,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3058,13 +3062,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -3166,13 +3170,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
@@ -3376,13 +3380,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
@@ -3785,13 +3789,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
@@ -3823,7 +3827,9 @@
         <v>67</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>634</v>
+      </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5">
@@ -3994,13 +4000,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
@@ -4149,13 +4155,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
@@ -4305,13 +4311,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
@@ -4454,13 +4460,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
@@ -4641,13 +4647,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
@@ -4720,13 +4726,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
@@ -4795,13 +4801,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
@@ -4828,13 +4834,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
@@ -4905,13 +4911,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
@@ -4958,13 +4964,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
@@ -5017,13 +5023,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
@@ -5153,13 +5159,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
@@ -5407,13 +5413,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
@@ -5549,13 +5555,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="38" t="s">
@@ -6121,11 +6127,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
@@ -6154,13 +6160,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="37" t="s">
+      <c r="A266" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="37"/>
-      <c r="E266" s="37"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
@@ -6217,11 +6223,11 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="35"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
@@ -6263,11 +6269,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="36"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="37"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
@@ -6335,13 +6341,13 @@
       <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="37" t="s">
+      <c r="A281" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="37"/>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
@@ -6534,6 +6540,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6550,14 +6564,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D471E38-17D2-4E47-87DE-D374359651CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A1281-8607-4CC5-8A28-0F8BCED7799E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2518,7 +2518,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2727,9 +2727,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2740,6 +2737,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3031,20 +3031,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.625" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3061,16 +3061,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>481</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>277</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>276</v>
       </c>
@@ -3169,16 +3169,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>275</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>274</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>183</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>251</v>
       </c>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>322</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>264</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>359</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>476</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="16">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>354</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>361</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>357</v>
       </c>
@@ -3379,16 +3379,16 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>271</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>97</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>106</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>117</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>121</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>123</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>136</v>
       </c>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>169</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>270</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>230</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>214</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>258</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>290</v>
       </c>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>436</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>291</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>292</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>434</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>438</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>293</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>294</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>500</v>
       </c>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>501</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>428</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>429</v>
       </c>
@@ -3717,7 +3717,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>432</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>443</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>446</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>512</v>
@@ -3761,7 +3761,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>511</v>
@@ -3770,7 +3770,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
         <v>514</v>
@@ -3779,7 +3779,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="16" t="s">
         <v>513</v>
@@ -3788,16 +3788,16 @@
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="33" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>24</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>44</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>66</v>
       </c>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>80</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>159</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>217</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>459</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>461</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>244</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>457</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>300</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>301</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>401</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>302</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>303</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>304</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>400</v>
       </c>
@@ -3999,16 +3999,16 @@
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="33" t="s">
+    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>61</v>
       </c>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>64</v>
       </c>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>100</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>189</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>306</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" ht="16">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>379</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" ht="16">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>517</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" ht="16">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>381</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>327</v>
       </c>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" ht="16">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>377</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" ht="16">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>375</v>
       </c>
@@ -4154,16 +4154,16 @@
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="33" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>57</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>193</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>236</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>213</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>246</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>323</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>324</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>325</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>410</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>417</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>415</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>413</v>
       </c>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>408</v>
       </c>
@@ -4310,16 +4310,16 @@
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="33" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>452</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>234</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>233</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>203</v>
       </c>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>425</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>246</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>291</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>311</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>312</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>422</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>427</v>
       </c>
@@ -4459,16 +4459,16 @@
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="33" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>36</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>38</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>72</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>82</v>
       </c>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>99</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
         <v>187</v>
       </c>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>191</v>
       </c>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>195</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>197</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>226</v>
       </c>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>224</v>
       </c>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>256</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>262</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>531</v>
       </c>
@@ -4646,16 +4646,16 @@
       </c>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="33" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>78</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>84</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>91</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>534</v>
       </c>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>239</v>
       </c>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>411</v>
       </c>
@@ -4725,16 +4725,16 @@
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="33" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>154</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="D143" s="24"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>155</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="D144" s="6"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>259</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>342</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>439</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>440</v>
       </c>
@@ -4800,16 +4800,16 @@
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="33" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
         <v>162</v>
       </c>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>344</v>
       </c>
@@ -4833,16 +4833,16 @@
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="33" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>538</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>540</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>465</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>406</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
         <v>418</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>404</v>
       </c>
@@ -4910,16 +4910,16 @@
       </c>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="33" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>110</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
         <v>261</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>474</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>333</v>
       </c>
@@ -4963,16 +4963,16 @@
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="33" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>219</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>346</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>348</v>
       </c>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>627</v>
       </c>
@@ -5022,16 +5022,16 @@
       <c r="D168" s="6"/>
       <c r="E168" s="23"/>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="33" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>51</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>104</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>115</v>
       </c>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>179</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>181</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>317</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
         <v>391</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>316</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>315</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>395</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>397</v>
       </c>
@@ -5158,16 +5158,16 @@
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="33" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>15</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>279</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>280</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>26</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>48</v>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>53</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>387</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>93</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>384</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>167</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>171</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>185</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>205</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>206</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>388</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>389</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>273</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>454</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>467</v>
       </c>
@@ -5412,16 +5412,16 @@
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="33" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>86</v>
       </c>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>89</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
         <v>166</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
         <v>330</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>331</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>365</v>
       </c>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
         <v>368</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" ht="16">
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>308</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>370</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>372</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>373</v>
       </c>
@@ -5554,16 +5554,16 @@
       </c>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="33" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="38" t="s">
         <v>553</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="D216" s="39"/>
       <c r="E216" s="39"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>138</v>
       </c>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>141</v>
       </c>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>145</v>
       </c>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>148</v>
       </c>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>470</v>
       </c>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>200</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>587</v>
       </c>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>472</v>
       </c>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>338</v>
       </c>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>339</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>340</v>
       </c>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>341</v>
       </c>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>589</v>
       </c>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>585</v>
       </c>
@@ -5754,14 +5754,14 @@
       </c>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>139</v>
       </c>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>140</v>
       </c>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>591</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>595</v>
       </c>
@@ -5813,14 +5813,14 @@
       </c>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>175</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="D237" s="6"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>597</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="D238" s="6"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>135</v>
       </c>
@@ -5853,14 +5853,14 @@
       <c r="D239" s="14"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="14"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>142</v>
       </c>
@@ -5871,7 +5871,7 @@
       <c r="D241" s="14"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>143</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="D242" s="14"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>149</v>
       </c>
@@ -5893,7 +5893,7 @@
       <c r="D243" s="14"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>150</v>
       </c>
@@ -5904,7 +5904,7 @@
       <c r="D244" s="14"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>152</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>242</v>
       </c>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>248</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
         <v>551</v>
       </c>
@@ -5952,14 +5952,14 @@
       </c>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
         <v>633</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>137</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>144</v>
       </c>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>606</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>202</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>210</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>211</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>625</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="D257" s="6"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
         <v>612</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
         <v>610</v>
       </c>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
         <v>605</v>
       </c>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
         <v>608</v>
       </c>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
         <v>602</v>
       </c>
@@ -6126,14 +6126,14 @@
       </c>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
-    </row>
-    <row r="264" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>222</v>
       </c>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
         <v>616</v>
       </c>
@@ -6159,16 +6159,16 @@
       </c>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="33" t="s">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>221</v>
       </c>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>468</v>
       </c>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>580</v>
       </c>
@@ -6222,14 +6222,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="35"/>
-    </row>
-    <row r="272" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
         <v>382</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>249</v>
       </c>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>554</v>
       </c>
@@ -6268,14 +6268,14 @@
       </c>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
-      <c r="D275" s="36"/>
-      <c r="E275" s="37"/>
-    </row>
-    <row r="276" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="36"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>156</v>
       </c>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>229</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>480</v>
       </c>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>479</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
         <v>478</v>
       </c>
@@ -6340,16 +6340,16 @@
       </c>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="33" t="s">
+    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="33"/>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="B281" s="37"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>46</v>
       </c>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>59</v>
       </c>
@@ -6375,8 +6375,8 @@
       </c>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="9" t="s">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="12" t="s">
         <v>574</v>
       </c>
       <c r="B284" s="6" t="s">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" s="2" customFormat="1">
+    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="26" t="s">
         <v>70</v>
       </c>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="1:5" s="2" customFormat="1">
+    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="26" t="s">
         <v>568</v>
       </c>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="12" t="s">
         <v>570</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>75</v>
       </c>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="12" t="s">
         <v>566</v>
       </c>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>447</v>
       </c>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>449</v>
       </c>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>112</v>
       </c>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
         <v>572</v>
       </c>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>114</v>
       </c>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E294" s="7"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="s">
         <v>564</v>
       </c>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E295" s="7"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -6540,14 +6540,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6564,6 +6556,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A1281-8607-4CC5-8A28-0F8BCED7799E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CFEB5D-8012-6445-B9D2-1772813923F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2518,7 +2518,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2727,6 +2727,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2737,9 +2740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3031,20 +3031,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D294" sqref="D294"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.625" customWidth="1"/>
-    <col min="5" max="5" width="55.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3061,16 +3061,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>481</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>277</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>276</v>
       </c>
@@ -3169,16 +3169,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>275</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>274</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>183</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>251</v>
       </c>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
         <v>322</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>264</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>359</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
         <v>476</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="8" t="s">
         <v>354</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
         <v>361</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
         <v>357</v>
       </c>
@@ -3379,16 +3379,16 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:5" s="1" customFormat="1">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
         <v>271</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
         <v>97</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
         <v>106</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="3" customFormat="1">
       <c r="A33" s="10" t="s">
         <v>117</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>121</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>123</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
         <v>136</v>
       </c>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>169</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
         <v>270</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
         <v>230</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
         <v>214</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="6" t="s">
         <v>258</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
         <v>290</v>
       </c>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
         <v>436</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
         <v>291</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="6" t="s">
         <v>292</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="12" t="s">
         <v>434</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
         <v>438</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
         <v>293</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
         <v>294</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
         <v>500</v>
       </c>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
         <v>501</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="12" t="s">
         <v>428</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="12" t="s">
         <v>429</v>
       </c>
@@ -3717,7 +3717,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="12" t="s">
         <v>432</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="12" t="s">
         <v>443</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="12" t="s">
         <v>446</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>512</v>
@@ -3761,7 +3761,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>511</v>
@@ -3770,7 +3770,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
         <v>514</v>
@@ -3779,7 +3779,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="16" t="s">
         <v>513</v>
@@ -3788,16 +3788,16 @@
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="37" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
         <v>24</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="12" t="s">
         <v>44</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="12" t="s">
         <v>66</v>
       </c>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
         <v>80</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
         <v>159</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
         <v>217</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
         <v>459</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
         <v>461</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="12" t="s">
         <v>244</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
         <v>457</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
         <v>300</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="12" t="s">
         <v>301</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="12" t="s">
         <v>401</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="12" t="s">
         <v>302</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="6" t="s">
         <v>303</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="12" t="s">
         <v>304</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="18" t="s">
         <v>400</v>
       </c>
@@ -3999,16 +3999,16 @@
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+    <row r="80" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
         <v>61</v>
       </c>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
         <v>64</v>
       </c>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="6" t="s">
         <v>100</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="12" t="s">
         <v>189</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="6" t="s">
         <v>306</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="16">
       <c r="A87" s="12" t="s">
         <v>379</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="16">
       <c r="A88" s="12" t="s">
         <v>517</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="16">
       <c r="A89" s="12" t="s">
         <v>381</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
         <v>327</v>
       </c>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="16">
       <c r="A91" s="12" t="s">
         <v>377</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="16">
       <c r="A92" s="12" t="s">
         <v>375</v>
       </c>
@@ -4154,16 +4154,16 @@
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="12" t="s">
         <v>57</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
         <v>193</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="12" t="s">
         <v>236</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="6" t="s">
         <v>213</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="12" t="s">
         <v>246</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="6" t="s">
         <v>323</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="12" t="s">
         <v>324</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="6" t="s">
         <v>325</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
         <v>410</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
         <v>417</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
         <v>415</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
         <v>413</v>
       </c>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="12" t="s">
         <v>408</v>
       </c>
@@ -4310,16 +4310,16 @@
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="12" t="s">
         <v>452</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="12" t="s">
         <v>234</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="12" t="s">
         <v>233</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
         <v>203</v>
       </c>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="12" t="s">
         <v>425</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="12" t="s">
         <v>246</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
         <v>291</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="12" t="s">
         <v>311</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="12" t="s">
         <v>312</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="12" t="s">
         <v>422</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="12" t="s">
         <v>427</v>
       </c>
@@ -4459,16 +4459,16 @@
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="37" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
         <v>36</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
         <v>38</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="6" t="s">
         <v>72</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" s="12" t="s">
         <v>82</v>
       </c>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="12" t="s">
         <v>99</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="21" t="s">
         <v>187</v>
       </c>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="12" t="s">
         <v>191</v>
       </c>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="12" t="s">
         <v>195</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" s="12" t="s">
         <v>197</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="12" t="s">
         <v>226</v>
       </c>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" s="12" t="s">
         <v>224</v>
       </c>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="12" t="s">
         <v>256</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="12" t="s">
         <v>262</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="12" t="s">
         <v>531</v>
       </c>
@@ -4646,16 +4646,16 @@
       </c>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="37" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
         <v>78</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" s="6" t="s">
         <v>84</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" s="6" t="s">
         <v>91</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" s="6" t="s">
         <v>534</v>
       </c>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" s="12" t="s">
         <v>239</v>
       </c>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" s="12" t="s">
         <v>411</v>
       </c>
@@ -4725,16 +4725,16 @@
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="37" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="6" t="s">
         <v>154</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="D143" s="24"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" s="6" t="s">
         <v>155</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="D144" s="6"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="9" t="s">
         <v>259</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="9" t="s">
         <v>342</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
         <v>439</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" s="9" t="s">
         <v>440</v>
       </c>
@@ -4800,16 +4800,16 @@
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="37" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="12" t="s">
         <v>162</v>
       </c>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="6" t="s">
         <v>344</v>
       </c>
@@ -4833,16 +4833,16 @@
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="37" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="6" t="s">
         <v>538</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="6" t="s">
         <v>540</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="6" t="s">
         <v>465</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="12" t="s">
         <v>406</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="12" t="s">
         <v>418</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="12" t="s">
         <v>404</v>
       </c>
@@ -4910,16 +4910,16 @@
       </c>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="37" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="6" t="s">
         <v>110</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="12" t="s">
         <v>261</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="6" t="s">
         <v>474</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="6" t="s">
         <v>333</v>
       </c>
@@ -4963,16 +4963,16 @@
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="37" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
         <v>219</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="6" t="s">
         <v>346</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="6" t="s">
         <v>348</v>
       </c>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="9" t="s">
         <v>627</v>
       </c>
@@ -5022,16 +5022,16 @@
       <c r="D168" s="6"/>
       <c r="E168" s="23"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="37" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
         <v>51</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="12" t="s">
         <v>104</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="12" t="s">
         <v>115</v>
       </c>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="12" t="s">
         <v>179</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="6" t="s">
         <v>181</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="6" t="s">
         <v>317</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="12" t="s">
         <v>391</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" s="6" t="s">
         <v>316</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="6" t="s">
         <v>315</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="12" t="s">
         <v>395</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="12" t="s">
         <v>397</v>
       </c>
@@ -5158,16 +5158,16 @@
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="37" t="s">
+    <row r="181" spans="1:5">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
         <v>15</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" s="9" t="s">
         <v>279</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="9" t="s">
         <v>280</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
         <v>26</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="6" t="s">
         <v>48</v>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="6" t="s">
         <v>53</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="6" t="s">
         <v>387</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
         <v>93</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="9" t="s">
         <v>384</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
         <v>167</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
         <v>171</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" s="6" t="s">
         <v>185</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" s="9" t="s">
         <v>205</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="6" t="s">
         <v>206</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="9" t="s">
         <v>388</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="9" t="s">
         <v>389</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" s="6" t="s">
         <v>273</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="6" t="s">
         <v>454</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="6" t="s">
         <v>467</v>
       </c>
@@ -5412,16 +5412,16 @@
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="37" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
         <v>86</v>
       </c>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="6" t="s">
         <v>89</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="12" t="s">
         <v>166</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="12" t="s">
         <v>330</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="6" t="s">
         <v>331</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="12" t="s">
         <v>365</v>
       </c>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="12" t="s">
         <v>368</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="16">
       <c r="A211" s="12" t="s">
         <v>308</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1">
       <c r="A212" s="12" t="s">
         <v>370</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="12" t="s">
         <v>372</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="12" t="s">
         <v>373</v>
       </c>
@@ -5554,16 +5554,16 @@
       </c>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="37" t="s">
+    <row r="215" spans="1:5">
+      <c r="A215" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="38" t="s">
         <v>553</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="D216" s="39"/>
       <c r="E216" s="39"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="6" t="s">
         <v>138</v>
       </c>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="6" t="s">
         <v>141</v>
       </c>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="9" t="s">
         <v>145</v>
       </c>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="9" t="s">
         <v>148</v>
       </c>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="9" t="s">
         <v>470</v>
       </c>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="9" t="s">
         <v>200</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="6" t="s">
         <v>587</v>
       </c>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="9" t="s">
         <v>472</v>
       </c>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" s="9" t="s">
         <v>338</v>
       </c>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="9" t="s">
         <v>339</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" s="9" t="s">
         <v>340</v>
       </c>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" s="6" t="s">
         <v>341</v>
       </c>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" s="6" t="s">
         <v>589</v>
       </c>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="6" t="s">
         <v>585</v>
       </c>
@@ -5754,14 +5754,14 @@
       </c>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="9" t="s">
         <v>139</v>
       </c>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="9" t="s">
         <v>140</v>
       </c>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="6" t="s">
         <v>591</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="6" t="s">
         <v>595</v>
       </c>
@@ -5813,14 +5813,14 @@
       </c>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" s="9" t="s">
         <v>175</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="D237" s="6"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" s="9" t="s">
         <v>597</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="D238" s="6"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" s="9" t="s">
         <v>135</v>
       </c>
@@ -5853,14 +5853,14 @@
       <c r="D239" s="14"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240" s="12"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="14"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" s="9" t="s">
         <v>142</v>
       </c>
@@ -5871,7 +5871,7 @@
       <c r="D241" s="14"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="9" t="s">
         <v>143</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="D242" s="14"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
         <v>149</v>
       </c>
@@ -5893,7 +5893,7 @@
       <c r="D243" s="14"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="9" t="s">
         <v>150</v>
       </c>
@@ -5904,7 +5904,7 @@
       <c r="D244" s="14"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="6" t="s">
         <v>152</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" s="9" t="s">
         <v>242</v>
       </c>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" s="9" t="s">
         <v>248</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" s="12" t="s">
         <v>551</v>
       </c>
@@ -5952,14 +5952,14 @@
       </c>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249" s="12"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250" s="12" t="s">
         <v>633</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" s="6" t="s">
         <v>137</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" s="9" t="s">
         <v>144</v>
       </c>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" s="9" t="s">
         <v>606</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254" s="6" t="s">
         <v>202</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255" s="6" t="s">
         <v>210</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256" s="6" t="s">
         <v>211</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" s="6" t="s">
         <v>625</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="D257" s="6"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="12" t="s">
         <v>612</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" s="12" t="s">
         <v>610</v>
       </c>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="12" t="s">
         <v>605</v>
       </c>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" s="12" t="s">
         <v>608</v>
       </c>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" s="12" t="s">
         <v>602</v>
       </c>
@@ -6126,14 +6126,14 @@
       </c>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
         <v>222</v>
       </c>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" s="12" t="s">
         <v>616</v>
       </c>
@@ -6159,16 +6159,16 @@
       </c>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="37" t="s">
+    <row r="266" spans="1:5">
+      <c r="A266" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="37"/>
-      <c r="E266" s="37"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" s="9" t="s">
         <v>221</v>
       </c>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269" s="9" t="s">
         <v>468</v>
       </c>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270" s="9" t="s">
         <v>580</v>
       </c>
@@ -6222,14 +6222,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="35"/>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="12" t="s">
         <v>382</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" s="6" t="s">
         <v>249</v>
       </c>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" s="9" t="s">
         <v>554</v>
       </c>
@@ -6268,15 +6268,15 @@
       </c>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="36"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="9" t="s">
+    <row r="275" spans="1:5">
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="37"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B276" s="6" t="s">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" s="6" t="s">
         <v>229</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" s="9" t="s">
         <v>480</v>
       </c>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" s="9" t="s">
         <v>479</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" s="9" t="s">
         <v>478</v>
       </c>
@@ -6340,16 +6340,16 @@
       </c>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="37" t="s">
+    <row r="281" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A281" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="37"/>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
         <v>46</v>
       </c>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" s="6" t="s">
         <v>59</v>
       </c>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" s="12" t="s">
         <v>574</v>
       </c>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" s="2" customFormat="1">
       <c r="A285" s="26" t="s">
         <v>70</v>
       </c>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" s="2" customFormat="1">
       <c r="A286" s="26" t="s">
         <v>568</v>
       </c>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" s="12" t="s">
         <v>570</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" s="6" t="s">
         <v>75</v>
       </c>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" s="12" t="s">
         <v>566</v>
       </c>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" s="6" t="s">
         <v>447</v>
       </c>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" s="6" t="s">
         <v>449</v>
       </c>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" s="6" t="s">
         <v>112</v>
       </c>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" s="12" t="s">
         <v>572</v>
       </c>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294" s="6" t="s">
         <v>114</v>
       </c>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E294" s="7"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295" s="12" t="s">
         <v>564</v>
       </c>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E295" s="7"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -6540,6 +6540,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6556,14 +6564,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CFEB5D-8012-6445-B9D2-1772813923F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3129D74-C67C-4E2E-A5AE-00EAE6E17B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2060" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2518,7 +2518,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2727,9 +2727,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2740,6 +2737,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3032,19 +3032,19 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A263" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="52.625" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3061,16 +3061,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>481</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>277</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>276</v>
       </c>
@@ -3169,16 +3169,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>275</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>274</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>183</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>251</v>
       </c>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>253</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>322</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>264</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>359</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>476</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="16">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>354</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>361</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>357</v>
       </c>
@@ -3379,16 +3379,16 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>271</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>97</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>106</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>117</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>121</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>123</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>136</v>
       </c>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>169</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>270</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>230</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>214</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>258</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>290</v>
       </c>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>436</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>291</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>292</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>434</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>438</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>293</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>294</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>500</v>
       </c>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>501</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>428</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>429</v>
       </c>
@@ -3717,7 +3717,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>432</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>443</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>446</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>512</v>
@@ -3761,7 +3761,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>511</v>
@@ -3770,7 +3770,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
         <v>514</v>
@@ -3779,7 +3779,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="16" t="s">
         <v>513</v>
@@ -3788,16 +3788,16 @@
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="33" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>24</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>44</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>66</v>
       </c>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>80</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>159</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>217</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>459</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>461</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>244</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>457</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>300</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>301</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>401</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>302</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>303</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>304</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>400</v>
       </c>
@@ -3999,16 +3999,16 @@
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A80" s="33" t="s">
+    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>61</v>
       </c>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>64</v>
       </c>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>100</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>189</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>306</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" ht="16">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>379</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" ht="16">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>517</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" ht="16">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>381</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>327</v>
       </c>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" ht="16">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>377</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" ht="16">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>375</v>
       </c>
@@ -4154,16 +4154,16 @@
       <c r="D92" s="6"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="33" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>57</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>193</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>236</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>213</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>246</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>323</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>324</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>325</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>410</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>417</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>415</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>413</v>
       </c>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>408</v>
       </c>
@@ -4310,16 +4310,16 @@
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="33" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>452</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>234</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>233</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>203</v>
       </c>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>425</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>246</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>291</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>311</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>312</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>422</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>427</v>
       </c>
@@ -4459,16 +4459,16 @@
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="33" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>36</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>38</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>72</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>82</v>
       </c>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>99</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
         <v>187</v>
       </c>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>191</v>
       </c>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>195</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>197</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>226</v>
       </c>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>224</v>
       </c>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>256</v>
       </c>
@@ -4622,7 +4622,7 @@
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>262</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>531</v>
       </c>
@@ -4646,16 +4646,16 @@
       </c>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="33" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>78</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>84</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>91</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>534</v>
       </c>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>239</v>
       </c>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>411</v>
       </c>
@@ -4725,16 +4725,16 @@
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="33" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>154</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="D143" s="24"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>155</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="D144" s="6"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>259</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>342</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>439</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>440</v>
       </c>
@@ -4800,16 +4800,16 @@
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="33" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
         <v>162</v>
       </c>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>344</v>
       </c>
@@ -4833,16 +4833,16 @@
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="33" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>538</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>540</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>465</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>406</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
         <v>418</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>404</v>
       </c>
@@ -4910,16 +4910,16 @@
       </c>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="33" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>110</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
         <v>261</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>474</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>333</v>
       </c>
@@ -4963,16 +4963,16 @@
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="33" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>219</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>346</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>348</v>
       </c>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>627</v>
       </c>
@@ -5022,16 +5022,16 @@
       <c r="D168" s="6"/>
       <c r="E168" s="23"/>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="33" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>51</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>104</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>115</v>
       </c>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>179</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>181</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>317</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
         <v>391</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>316</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>315</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>395</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>397</v>
       </c>
@@ -5158,16 +5158,16 @@
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="33" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>15</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>279</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>280</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>26</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>48</v>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>53</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>387</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>93</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>384</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>167</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>171</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>185</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>205</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>206</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>388</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>389</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>273</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>454</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>467</v>
       </c>
@@ -5412,16 +5412,16 @@
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="33" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>86</v>
       </c>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>89</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
         <v>166</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
         <v>330</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>331</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>365</v>
       </c>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
         <v>368</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" ht="16">
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>308</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>370</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>372</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>373</v>
       </c>
@@ -5554,16 +5554,16 @@
       </c>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="33" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="38" t="s">
         <v>553</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="D216" s="39"/>
       <c r="E216" s="39"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>138</v>
       </c>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>141</v>
       </c>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>145</v>
       </c>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>148</v>
       </c>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>470</v>
       </c>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>200</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>587</v>
       </c>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>472</v>
       </c>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>338</v>
       </c>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>339</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>340</v>
       </c>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>341</v>
       </c>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>589</v>
       </c>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>585</v>
       </c>
@@ -5754,14 +5754,14 @@
       </c>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>139</v>
       </c>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>140</v>
       </c>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>591</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>595</v>
       </c>
@@ -5813,14 +5813,14 @@
       </c>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>175</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="D237" s="6"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>597</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="D238" s="6"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>135</v>
       </c>
@@ -5853,14 +5853,14 @@
       <c r="D239" s="14"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="14"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>142</v>
       </c>
@@ -5871,7 +5871,7 @@
       <c r="D241" s="14"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>143</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="D242" s="14"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>149</v>
       </c>
@@ -5893,7 +5893,7 @@
       <c r="D243" s="14"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>150</v>
       </c>
@@ -5904,7 +5904,7 @@
       <c r="D244" s="14"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>152</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>242</v>
       </c>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>248</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
         <v>551</v>
       </c>
@@ -5952,14 +5952,14 @@
       </c>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
         <v>633</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>137</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>144</v>
       </c>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>606</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>202</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>210</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>211</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>625</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="D257" s="6"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
         <v>612</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
         <v>610</v>
       </c>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
         <v>605</v>
       </c>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
         <v>608</v>
       </c>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
         <v>602</v>
       </c>
@@ -6126,14 +6126,14 @@
       </c>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
-    </row>
-    <row r="264" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>222</v>
       </c>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
         <v>616</v>
       </c>
@@ -6159,16 +6159,16 @@
       </c>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="33" t="s">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>221</v>
       </c>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>468</v>
       </c>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>580</v>
       </c>
@@ -6222,14 +6222,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="35"/>
-    </row>
-    <row r="272" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
         <v>382</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>249</v>
       </c>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>554</v>
       </c>
@@ -6268,14 +6268,14 @@
       </c>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
-      <c r="D275" s="36"/>
-      <c r="E275" s="37"/>
-    </row>
-    <row r="276" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="36"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="12" t="s">
         <v>156</v>
       </c>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>229</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>480</v>
       </c>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>479</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
         <v>478</v>
       </c>
@@ -6340,16 +6340,16 @@
       </c>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A281" s="33" t="s">
+    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="33"/>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="B281" s="37"/>
+      <c r="C281" s="37"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="37"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>46</v>
       </c>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>59</v>
       </c>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="12" t="s">
         <v>574</v>
       </c>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" s="2" customFormat="1">
+    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="26" t="s">
         <v>70</v>
       </c>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="E285" s="27"/>
     </row>
-    <row r="286" spans="1:5" s="2" customFormat="1">
+    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="26" t="s">
         <v>568</v>
       </c>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="12" t="s">
         <v>570</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>75</v>
       </c>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="12" t="s">
         <v>566</v>
       </c>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>447</v>
       </c>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>449</v>
       </c>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>112</v>
       </c>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
         <v>572</v>
       </c>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>114</v>
       </c>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E294" s="7"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="s">
         <v>564</v>
       </c>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E295" s="7"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -6540,14 +6540,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6564,6 +6556,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3129D74-C67C-4E2E-A5AE-00EAE6E17B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D464A4F-060E-46C1-B47F-B56FBC155C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2490,10 +2490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Backtracking      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回溯：回溯属于 DFS，和DFS稍有区别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2511,6 +2507,10 @@
   </si>
   <si>
     <t>判断已经填入的受罪是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2727,6 +2727,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2737,9 +2740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A275" sqref="A275:E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3062,13 +3062,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -3170,13 +3170,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -3380,13 +3380,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -3789,13 +3789,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E64" s="7"/>
     </row>
@@ -4000,13 +4000,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -4155,13 +4155,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
@@ -4311,13 +4311,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
@@ -4460,13 +4460,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
@@ -4647,13 +4647,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
@@ -4726,13 +4726,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
@@ -4801,13 +4801,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
@@ -4834,13 +4834,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -4911,13 +4911,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
@@ -4964,13 +4964,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
@@ -5023,13 +5023,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
@@ -5159,13 +5159,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
@@ -5413,13 +5413,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
@@ -5555,13 +5555,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="38" t="s">
@@ -5961,17 +5961,17 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="6" t="s">
         <v>601</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -6127,11 +6127,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
@@ -6160,13 +6160,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="37" t="s">
+      <c r="A266" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="37"/>
-      <c r="E266" s="37"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
@@ -6223,11 +6223,11 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="35"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
@@ -6269,31 +6269,31 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="36"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="37"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="12" t="s">
-        <v>156</v>
+      <c r="A276" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="6" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="E276" s="7"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="s">
-        <v>229</v>
+      <c r="A277" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6" t="s">
@@ -6302,11 +6302,11 @@
       <c r="E277" s="7"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="9" t="s">
-        <v>480</v>
+      <c r="A278" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="6" t="s">
@@ -6316,10 +6316,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="6" t="s">
@@ -6329,10 +6329,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6" t="s">
@@ -6340,34 +6340,34 @@
       </c>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="37" t="s">
-        <v>630</v>
-      </c>
-      <c r="B281" s="37"/>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C282" s="6"/>
-      <c r="D282" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="E282" s="7"/>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E281" s="7"/>
+    </row>
+    <row r="282" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="B282" s="33"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="33"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="31" t="s">
@@ -6376,11 +6376,11 @@
       <c r="E283" s="7"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="12" t="s">
-        <v>574</v>
+      <c r="A284" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>575</v>
+        <v>60</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="31" t="s">
@@ -6388,51 +6388,51 @@
       </c>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B285" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C285" s="26"/>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C285" s="6"/>
       <c r="D285" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="E285" s="27"/>
+        <v>563</v>
+      </c>
+      <c r="E285" s="7"/>
     </row>
     <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="26" t="s">
-        <v>568</v>
+        <v>70</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>569</v>
+        <v>71</v>
       </c>
       <c r="C286" s="26"/>
       <c r="D286" s="31" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
       <c r="E286" s="27"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="B287" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="C287" s="6"/>
+    <row r="287" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C287" s="26"/>
       <c r="D287" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="E287" s="7"/>
+      <c r="E287" s="27"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="s">
-        <v>75</v>
+      <c r="A288" s="12" t="s">
+        <v>570</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>76</v>
+        <v>571</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="31" t="s">
@@ -6441,11 +6441,11 @@
       <c r="E288" s="7"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="12" t="s">
-        <v>566</v>
+      <c r="A289" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>567</v>
+        <v>76</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="31" t="s">
@@ -6454,11 +6454,11 @@
       <c r="E289" s="7"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
-        <v>447</v>
+      <c r="A290" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="31" t="s">
@@ -6468,10 +6468,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="31" t="s">
@@ -6481,10 +6481,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>113</v>
+        <v>449</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="31" t="s">
@@ -6493,11 +6493,11 @@
       <c r="E292" s="7"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="12" t="s">
-        <v>572</v>
+      <c r="A293" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>573</v>
+        <v>113</v>
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="31" t="s">
@@ -6506,15 +6506,15 @@
       <c r="E293" s="7"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="s">
-        <v>114</v>
+      <c r="A294" s="12" t="s">
+        <v>572</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="C294" s="6"/>
-      <c r="D294" s="6" t="s">
-        <v>629</v>
+      <c r="D294" s="31" t="s">
+        <v>563</v>
       </c>
       <c r="E294" s="7"/>
     </row>
@@ -6540,11 +6540,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A281:E281"/>
+    <mergeCell ref="A282:E282"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A93:E93"/>
@@ -6556,14 +6564,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D464A4F-060E-46C1-B47F-B56FBC155C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052991E4-C0DB-4E80-9F57-43DE53A87AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2727,9 +2727,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2740,6 +2737,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275:E275"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3062,13 +3062,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -3170,13 +3170,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -3380,13 +3380,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -3789,13 +3789,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -4000,13 +4000,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -4155,13 +4155,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
@@ -4311,13 +4311,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
@@ -4460,13 +4460,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
@@ -4647,13 +4647,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
@@ -4726,13 +4726,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
@@ -4801,13 +4801,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
@@ -4834,13 +4834,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -4911,13 +4911,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
@@ -4964,13 +4964,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
@@ -5023,13 +5023,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
@@ -5159,13 +5159,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
@@ -5413,13 +5413,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="33" t="s">
+      <c r="A203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
@@ -5555,13 +5555,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="33" t="s">
+      <c r="A215" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="38" t="s">
@@ -6127,11 +6127,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
@@ -6160,13 +6160,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="33" t="s">
+      <c r="A266" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
@@ -6223,11 +6223,11 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="35"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
@@ -6269,11 +6269,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
-      <c r="D275" s="36"/>
-      <c r="E275" s="37"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="36"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
@@ -6315,7 +6315,7 @@
       <c r="E278" s="7"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="12" t="s">
         <v>480</v>
       </c>
       <c r="B279" s="6" t="s">
@@ -6354,13 +6354,13 @@
       <c r="E281" s="7"/>
     </row>
     <row r="282" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="33" t="s">
+      <c r="A282" s="37" t="s">
         <v>629</v>
       </c>
-      <c r="B282" s="33"/>
-      <c r="C282" s="33"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="33"/>
+      <c r="B282" s="37"/>
+      <c r="C282" s="37"/>
+      <c r="D282" s="37"/>
+      <c r="E282" s="37"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
@@ -6540,14 +6540,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6564,6 +6556,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052991E4-C0DB-4E80-9F57-43DE53A87AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFAF17F-22F3-417D-9580-4BA2D37765C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="637">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2511,6 +2511,14 @@
   </si>
   <si>
     <t xml:space="preserve">DFS    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS   BFS也可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟岛屿个数不一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2727,6 +2735,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2737,9 +2748,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3032,7 +3040,7 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A263" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+      <selection activeCell="A275" sqref="A275:E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3062,13 +3070,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -3170,13 +3178,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -3380,13 +3388,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -3789,13 +3797,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -4000,13 +4008,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -4155,13 +4163,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
@@ -4311,13 +4319,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
@@ -4460,13 +4468,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
@@ -4647,13 +4655,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
@@ -4726,13 +4734,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
@@ -4801,13 +4809,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
@@ -4834,13 +4842,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -4911,13 +4919,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
@@ -4964,13 +4972,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
@@ -5023,13 +5031,13 @@
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
@@ -5159,13 +5167,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
@@ -5413,13 +5421,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
@@ -5555,13 +5563,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="38" t="s">
@@ -6127,11 +6135,11 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
@@ -6160,13 +6168,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="37" t="s">
+      <c r="A266" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="37"/>
-      <c r="E266" s="37"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
@@ -6223,11 +6231,11 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="35"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
@@ -6269,11 +6277,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="36"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="37"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
@@ -6323,12 +6331,12 @@
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="6" t="s">
-        <v>557</v>
+        <v>635</v>
       </c>
       <c r="E279" s="7"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="9" t="s">
+      <c r="A280" s="12" t="s">
         <v>479</v>
       </c>
       <c r="B280" s="6" t="s">
@@ -6336,12 +6344,14 @@
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E280" s="7"/>
+        <v>635</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="12" t="s">
         <v>478</v>
       </c>
       <c r="B281" s="6" t="s">
@@ -6354,13 +6364,13 @@
       <c r="E281" s="7"/>
     </row>
     <row r="282" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="37" t="s">
+      <c r="A282" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="B282" s="37"/>
-      <c r="C282" s="37"/>
-      <c r="D282" s="37"/>
-      <c r="E282" s="37"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="33"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
@@ -6540,6 +6550,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6556,14 +6574,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFAF17F-22F3-417D-9580-4BA2D37765C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A483F8-4E45-491E-82A4-0A6648D099B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1531,10 +1531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单词接龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L83</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2278,10 +2274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程表 课程安排的合法性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课程表II 课程安排的顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2519,6 +2511,14 @@
   </si>
   <si>
     <t>跟岛屿个数不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词接龙（单词一次变一个字符，到目标单词走过的最短路径）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表I  课程安排的合法性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3039,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275:E275"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271:E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -3093,13 +3093,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -3137,7 +3137,7 @@
         <v>277</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -3155,7 +3155,7 @@
         <v>283</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
@@ -3167,19 +3167,19 @@
         <v>276</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -3194,7 +3194,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -3233,7 +3233,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -3246,7 +3246,7 @@
         <v>158</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -3259,7 +3259,7 @@
         <v>184</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -3272,10 +3272,10 @@
         <v>252</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -3287,10 +3287,10 @@
         <v>254</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E18" s="11"/>
     </row>
@@ -3313,7 +3313,7 @@
         <v>265</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -3326,17 +3326,17 @@
         <v>358</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>20</v>
@@ -3352,7 +3352,7 @@
         <v>353</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="13" t="s">
@@ -3367,7 +3367,7 @@
         <v>360</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>362</v>
@@ -3382,7 +3382,7 @@
         <v>356</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E33" s="11"/>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -3547,11 +3547,11 @@
         <v>230</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E39" s="7"/>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -3588,20 +3588,20 @@
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E43" s="7"/>
     </row>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3640,14 +3640,14 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E47" s="7"/>
     </row>
@@ -3675,40 +3675,40 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3716,10 +3716,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>430</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3738,23 +3738,23 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>444</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -3763,7 +3763,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -3772,7 +3772,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -3781,7 +3781,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3790,7 +3790,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E64" s="7"/>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E67" s="7"/>
     </row>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>517</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>518</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E91" s="7"/>
     </row>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -4283,36 +4283,36 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -4332,24 +4332,24 @@
         <v>164</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E109" s="7"/>
     </row>
@@ -4384,16 +4384,16 @@
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -4404,7 +4404,7 @@
         <v>246</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -4415,11 +4415,11 @@
         <v>291</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E115" s="7"/>
     </row>
@@ -4447,10 +4447,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -4458,10 +4458,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>74</v>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E124" s="7"/>
     </row>
@@ -4535,11 +4535,11 @@
         <v>99</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E125" s="7"/>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E126" s="7"/>
     </row>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E131" s="7"/>
     </row>
@@ -4643,14 +4643,14 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E134" s="7"/>
     </row>
@@ -4698,14 +4698,14 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E139" s="7"/>
     </row>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -4799,10 +4799,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E150" s="7"/>
     </row>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -4907,14 +4907,14 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E158" s="7"/>
     </row>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E165" s="7"/>
     </row>
@@ -5021,10 +5021,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6" t="s">
@@ -5136,7 +5136,7 @@
         <v>315</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6" t="s">
@@ -5146,10 +5146,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -5157,10 +5157,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -5255,10 +5255,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -5359,7 +5359,7 @@
         <v>206</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E204" s="7"/>
     </row>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E208" s="7"/>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E209" s="7"/>
     </row>
@@ -5524,7 +5524,7 @@
         <v>267</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5554,11 +5554,11 @@
         <v>373</v>
       </c>
       <c r="B214" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E214" s="7"/>
     </row>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B216" s="39"/>
       <c r="C216" s="39"/>
@@ -5585,11 +5585,11 @@
         <v>138</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E217" s="7"/>
     </row>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E218" s="7"/>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E219" s="7"/>
     </row>
@@ -5628,20 +5628,20 @@
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E220" s="7"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E221" s="7"/>
     </row>
@@ -5654,33 +5654,33 @@
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E222" s="7"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E223" s="7"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E224" s="7"/>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E225" s="7"/>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E226" s="7"/>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E227" s="7"/>
     </row>
@@ -5732,33 +5732,33 @@
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E228" s="7"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E230" s="7"/>
     </row>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E232" s="7"/>
     </row>
@@ -5787,37 +5787,37 @@
         <v>140</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E234" s="7"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E235" s="7"/>
     </row>
@@ -5833,7 +5833,7 @@
         <v>175</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -5855,7 +5855,7 @@
         <v>135</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="14"/>
@@ -5895,7 +5895,7 @@
         <v>149</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="14"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E246" s="7"/>
     </row>
@@ -5949,14 +5949,14 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E248" s="7"/>
     </row>
@@ -5969,17 +5969,17 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E251" s="7"/>
     </row>
@@ -6004,20 +6004,20 @@
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E252" s="7"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E253" s="7"/>
     </row>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E254" s="7"/>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E255" s="7"/>
     </row>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -6071,66 +6071,66 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E258" s="7"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E259" s="7"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E260" s="7"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E261" s="7"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E262" s="7"/>
     </row>
@@ -6150,26 +6150,26 @@
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E264" s="7"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="33" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B266" s="33"/>
       <c r="C266" s="33"/>
@@ -6181,11 +6181,11 @@
         <v>220</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E267" s="7"/>
     </row>
@@ -6194,40 +6194,40 @@
         <v>221</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C268" s="6"/>
       <c r="D268" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E268" s="7"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E269" s="7"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -6242,11 +6242,11 @@
         <v>382</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>383</v>
+        <v>635</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E272" s="7"/>
     </row>
@@ -6259,20 +6259,20 @@
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E273" s="7"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="9" t="s">
+      <c r="A274" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="C274" s="6"/>
       <c r="D274" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E274" s="7"/>
     </row>
@@ -6288,11 +6288,11 @@
         <v>114</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E276" s="7"/>
     </row>
@@ -6301,11 +6301,11 @@
         <v>156</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E277" s="7"/>
     </row>
@@ -6314,58 +6314,58 @@
         <v>229</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E278" s="7"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E279" s="7"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C281" s="6"/>
       <c r="D281" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E281" s="7"/>
     </row>
     <row r="282" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B282" s="33"/>
       <c r="C282" s="33"/>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E283" s="7"/>
     </row>
@@ -6394,20 +6394,20 @@
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E284" s="7"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E285" s="7"/>
     </row>
@@ -6420,33 +6420,33 @@
       </c>
       <c r="C286" s="26"/>
       <c r="D286" s="31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E286" s="27"/>
     </row>
     <row r="287" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="B287" s="26" t="s">
         <v>568</v>
-      </c>
-      <c r="B287" s="26" t="s">
-        <v>569</v>
       </c>
       <c r="C287" s="26"/>
       <c r="D287" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E287" s="27"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B288" s="12" t="s">
         <v>570</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>571</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E288" s="7"/>
     </row>
@@ -6459,46 +6459,46 @@
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E289" s="7"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B290" s="12" t="s">
         <v>566</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>567</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E290" s="7"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B291" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="B291" s="12" t="s">
-        <v>448</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E291" s="7"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B292" s="12" t="s">
         <v>449</v>
-      </c>
-      <c r="B292" s="12" t="s">
-        <v>450</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E292" s="7"/>
     </row>
@@ -6511,33 +6511,33 @@
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E293" s="7"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E294" s="7"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B295" s="12" t="s">
         <v>564</v>
-      </c>
-      <c r="B295" s="12" t="s">
-        <v>565</v>
       </c>
       <c r="C295" s="6"/>
       <c r="D295" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E295" s="7"/>
     </row>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A483F8-4E45-491E-82A4-0A6648D099B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841B8556-7DCC-4C4F-AE33-7DD15362B410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2282,10 +2282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Graph </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L684</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2519,6 +2515,10 @@
   </si>
   <si>
     <t>课程表I  课程安排的合法性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph 二分图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2735,9 +2735,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2748,6 +2745,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271:E271"/>
+      <selection activeCell="A275" sqref="A275:E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3070,13 +3070,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -3178,13 +3178,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -3388,13 +3388,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -3797,13 +3797,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E64" s="7"/>
     </row>
@@ -4008,13 +4008,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -4163,13 +4163,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
@@ -4319,20 +4319,20 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E109" s="7"/>
     </row>
@@ -4468,13 +4468,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
@@ -4655,13 +4655,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
@@ -4734,13 +4734,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
@@ -4809,13 +4809,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
@@ -4842,13 +4842,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -4919,13 +4919,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
@@ -4972,13 +4972,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
@@ -5021,23 +5021,23 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
@@ -5167,13 +5167,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
@@ -5414,20 +5414,20 @@
         <v>466</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="33" t="s">
+      <c r="A203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
@@ -5563,13 +5563,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="33" t="s">
+      <c r="A215" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="38" t="s">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E218" s="7"/>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E219" s="7"/>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E220" s="7"/>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E221" s="7"/>
     </row>
@@ -5654,20 +5654,20 @@
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E222" s="7"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E223" s="7"/>
     </row>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E224" s="7"/>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E225" s="7"/>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E226" s="7"/>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E227" s="7"/>
     </row>
@@ -5732,33 +5732,33 @@
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E228" s="7"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E230" s="7"/>
     </row>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E232" s="7"/>
     </row>
@@ -5787,37 +5787,37 @@
         <v>140</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E234" s="7"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E235" s="7"/>
     </row>
@@ -5833,7 +5833,7 @@
         <v>175</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -5855,7 +5855,7 @@
         <v>135</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="14"/>
@@ -5895,7 +5895,7 @@
         <v>149</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="14"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E246" s="7"/>
     </row>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E248" s="7"/>
     </row>
@@ -5969,17 +5969,17 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E251" s="7"/>
     </row>
@@ -6004,20 +6004,20 @@
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E252" s="7"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E253" s="7"/>
     </row>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E254" s="7"/>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E255" s="7"/>
     </row>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -6071,75 +6071,75 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E258" s="7"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>609</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E259" s="7"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E260" s="7"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E261" s="7"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>601</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
@@ -6150,38 +6150,38 @@
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E264" s="7"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
+      <c r="A266" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6" t="s">
@@ -6211,38 +6211,38 @@
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="6" t="s">
-        <v>577</v>
+        <v>636</v>
       </c>
       <c r="E269" s="7"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="34"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="35"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="33"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="34"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
         <v>382</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="6" t="s">
@@ -6277,11 +6277,11 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="36"/>
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
-      <c r="D275" s="36"/>
-      <c r="E275" s="37"/>
+      <c r="A275" s="35"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="36"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E276" s="7"/>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E279" s="7"/>
     </row>
@@ -6344,10 +6344,10 @@
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E280" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="E280" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -6364,13 +6364,13 @@
       <c r="E281" s="7"/>
     </row>
     <row r="282" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="B282" s="33"/>
-      <c r="C282" s="33"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="33"/>
+      <c r="A282" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="B282" s="37"/>
+      <c r="C282" s="37"/>
+      <c r="D282" s="37"/>
+      <c r="E282" s="37"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C286" s="26"/>
       <c r="D286" s="31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E286" s="27"/>
     </row>
@@ -6550,14 +6550,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6574,6 +6566,14 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841B8556-7DCC-4C4F-AE33-7DD15362B410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE5E01-7FC7-45E1-8F7A-223DF26A3EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2294,10 +2294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Graph 并查集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Graph DFS BFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2519,6 +2515,10 @@
   </si>
   <si>
     <t>Graph 二分图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph 并查集结构或者DFS（费劲）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2735,6 +2735,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2745,9 +2748,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275:E275"/>
+      <selection activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3070,13 +3070,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -3178,13 +3178,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -3388,13 +3388,13 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -3797,13 +3797,13 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E64" s="7"/>
     </row>
@@ -4008,13 +4008,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
@@ -4163,13 +4163,13 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
@@ -4319,20 +4319,20 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E109" s="7"/>
     </row>
@@ -4468,13 +4468,13 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
@@ -4655,13 +4655,13 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
@@ -4734,13 +4734,13 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
@@ -4809,13 +4809,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
@@ -4842,13 +4842,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -4919,13 +4919,13 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
@@ -4972,13 +4972,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
@@ -5021,23 +5021,23 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="23"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="37" t="s">
+      <c r="A169" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
@@ -5167,13 +5167,13 @@
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="37" t="s">
+      <c r="A181" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
@@ -5414,20 +5414,20 @@
         <v>466</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
@@ -5563,13 +5563,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="38" t="s">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E218" s="7"/>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E219" s="7"/>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E220" s="7"/>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E221" s="7"/>
     </row>
@@ -5654,20 +5654,20 @@
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E222" s="7"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E223" s="7"/>
     </row>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E224" s="7"/>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E225" s="7"/>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E226" s="7"/>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E227" s="7"/>
     </row>
@@ -5732,33 +5732,33 @@
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E228" s="7"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E230" s="7"/>
     </row>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E232" s="7"/>
     </row>
@@ -5787,37 +5787,37 @@
         <v>140</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>589</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E234" s="7"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E235" s="7"/>
     </row>
@@ -5833,7 +5833,7 @@
         <v>175</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -5855,7 +5855,7 @@
         <v>135</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="14"/>
@@ -5895,7 +5895,7 @@
         <v>149</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="14"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E246" s="7"/>
     </row>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E248" s="7"/>
     </row>
@@ -5969,17 +5969,17 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E251" s="7"/>
     </row>
@@ -6004,20 +6004,20 @@
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E252" s="7"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E253" s="7"/>
     </row>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E254" s="7"/>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E255" s="7"/>
     </row>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -6071,75 +6071,75 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E258" s="7"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E259" s="7"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E260" s="7"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E261" s="7"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="33"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
@@ -6150,38 +6150,38 @@
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E264" s="7"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-      <c r="D266" s="37"/>
-      <c r="E266" s="37"/>
+      <c r="A266" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6" t="s">
@@ -6204,45 +6204,45 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>468</v>
+        <v>579</v>
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E269" s="7"/>
+      <c r="E269" s="7" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="E270" s="7" t="s">
-        <v>578</v>
-      </c>
+      <c r="A270" s="34"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="35"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="33"/>
-      <c r="B271" s="33"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="34"/>
+      <c r="A271" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C271" s="6"/>
+      <c r="D271" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E271" s="7"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="12" t="s">
-        <v>382</v>
+      <c r="A272" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>634</v>
+        <v>250</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="6" t="s">
@@ -6251,11 +6251,11 @@
       <c r="E272" s="7"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="s">
-        <v>249</v>
+      <c r="A273" s="12" t="s">
+        <v>553</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>250</v>
+        <v>554</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="6" t="s">
@@ -6264,44 +6264,44 @@
       <c r="E273" s="7"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E274" s="7"/>
+      <c r="A274" s="36"/>
+      <c r="B274" s="36"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="36"/>
+      <c r="E274" s="37"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="35"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="36"/>
+      <c r="A275" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E275" s="7"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="s">
-        <v>114</v>
+      <c r="A276" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="6" t="s">
-        <v>631</v>
+        <v>556</v>
       </c>
       <c r="E276" s="7"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="12" t="s">
-        <v>156</v>
+      <c r="A277" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6" t="s">
@@ -6310,67 +6310,67 @@
       <c r="E277" s="7"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
-        <v>229</v>
+      <c r="A278" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="6" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="E278" s="7"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E279" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="E279" s="7"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="E280" s="7" t="s">
-        <v>633</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="12" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>557</v>
+        <v>468</v>
       </c>
       <c r="C281" s="6"/>
       <c r="D281" s="6" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="E281" s="7"/>
     </row>
     <row r="282" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="B282" s="37"/>
-      <c r="C282" s="37"/>
-      <c r="D282" s="37"/>
-      <c r="E282" s="37"/>
+      <c r="A282" s="33" t="s">
+        <v>625</v>
+      </c>
+      <c r="B282" s="33"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="33"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C286" s="26"/>
       <c r="D286" s="31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E286" s="27"/>
     </row>
@@ -6550,6 +6550,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A270:E270"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A203:E203"/>
     <mergeCell ref="A142:E142"/>
     <mergeCell ref="A152:E152"/>
     <mergeCell ref="A2:E2"/>
@@ -6566,14 +6574,6 @@
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A216:E216"/>
-    <mergeCell ref="A203:E203"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CLion 2018.2.5\Item_Set\clion_p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liheng/ClionProjects/clion_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE5E01-7FC7-45E1-8F7A-223DF26A3EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5F6BCD-50F5-2541-85AD-6990DA26B08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="1840" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="638">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2278,10 +2278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Graph 拓扑排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L684</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2518,7 +2514,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Graph 并查集结构或者DFS（费劲）</t>
+    <r>
+      <t xml:space="preserve">Graph </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并查集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结构或者DFS（费劲）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph 拓扑排序+BFS或者DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph 拓扑排序+DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2526,7 +2552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2612,6 +2638,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2735,9 +2767,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2748,6 +2777,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFo